--- a/Projects/PNGJP_SAND2/Data/TemplateBlockAndGoldenZoneKPI.xlsx
+++ b/Projects/PNGJP_SAND2/Data/TemplateBlockAndGoldenZoneKPI.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Block" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1008" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="147">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -1177,10 +1177,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:AMJ5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1379,6 +1379,46 @@
       </c>
       <c r="Q4" s="4"/>
       <c r="R4" s="4"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>4902135142500</v>
+      </c>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="P5" s="7" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="AMG5" s="0"/>
+      <c r="AMH5" s="0"/>
+      <c r="AMI5" s="0"/>
+      <c r="AMJ5" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -3460,8 +3500,8 @@
   </sheetPr>
   <dimension ref="A1:W6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A13" activeCellId="0" sqref="A13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3763,6 +3803,9 @@
       </c>
       <c r="F6" s="1" t="s">
         <v>127</v>
+      </c>
+      <c r="O6" s="1" t="n">
+        <v>1</v>
       </c>
       <c r="P6" s="54" t="n">
         <v>0.8</v>

--- a/Projects/PNGJP_SAND2/Data/TemplateBlockAndGoldenZoneKPI.xlsx
+++ b/Projects/PNGJP_SAND2/Data/TemplateBlockAndGoldenZoneKPI.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Block" sheetId="1" state="visible" r:id="rId2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1013" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="146">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -120,9 +120,6 @@
   </si>
   <si>
     <t xml:space="preserve">ean_code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4902135142500,</t>
   </si>
   <si>
     <t xml:space="preserve">Weightage*</t>
@@ -590,7 +587,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -691,6 +688,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFB5B5B6"/>
         <bgColor rgb="FFBFBFBF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF87D1D1"/>
+        <bgColor rgb="FFBFBFC0"/>
       </patternFill>
     </fill>
   </fills>
@@ -839,7 +842,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="69">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1050,6 +1053,22 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="17" borderId="3" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="18" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="18" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="18" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -1127,7 +1146,7 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFBFBFC0"/>
       <rgbColor rgb="FF7F7F7F"/>
-      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FFBFBFBF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFF2CC"/>
       <rgbColor rgb="FFDAE3F3"/>
@@ -1147,7 +1166,7 @@
       <rgbColor rgb="FFF2F2F2"/>
       <rgbColor rgb="FFE2F0D9"/>
       <rgbColor rgb="FFFBE5D6"/>
-      <rgbColor rgb="FFBFBFBF"/>
+      <rgbColor rgb="FF87D1D1"/>
       <rgbColor rgb="FFFF99CC"/>
       <rgbColor rgb="FFB5B5B6"/>
       <rgbColor rgb="FFFFCCCC"/>
@@ -1179,8 +1198,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F19" activeCellId="0" sqref="F19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1364,8 +1383,8 @@
       <c r="I4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>32</v>
+      <c r="J4" s="1" t="n">
+        <v>4902135142500</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -1438,7 +1457,7 @@
   </sheetPr>
   <dimension ref="A2:T56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C40" activeCellId="0" sqref="C40"/>
     </sheetView>
   </sheetViews>
@@ -1467,7 +1486,7 @@
   <sheetData>
     <row r="2" s="14" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -1514,36 +1533,36 @@
     </row>
     <row r="4" s="23" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="C4" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="D4" s="18" t="s">
         <v>36</v>
-      </c>
-      <c r="D4" s="18" t="s">
-        <v>37</v>
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
       <c r="G4" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
       <c r="J4" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K4" s="20"/>
       <c r="L4" s="20"/>
       <c r="M4" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N4" s="21"/>
       <c r="O4" s="21"/>
       <c r="P4" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q4" s="22"/>
       <c r="R4" s="22"/>
@@ -1554,101 +1573,101 @@
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
       <c r="D5" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="F5" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="G5" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="27" t="s">
-        <v>45</v>
-      </c>
       <c r="H5" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="28" t="s">
+      <c r="J5" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="29" t="s">
-        <v>45</v>
-      </c>
       <c r="K5" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="29" t="s">
+      <c r="M5" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="M5" s="30" t="s">
-        <v>45</v>
-      </c>
       <c r="N5" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="O5" s="31" t="s">
-        <v>44</v>
-      </c>
       <c r="P5" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q5" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="Q5" s="33" t="s">
+      <c r="R5" s="33" t="s">
         <v>43</v>
-      </c>
-      <c r="R5" s="33" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="C6" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="D6" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="E6" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="36" t="s">
-        <v>50</v>
-      </c>
       <c r="F6" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="36" t="s">
+      <c r="H6" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="36" t="s">
-        <v>53</v>
-      </c>
       <c r="I6" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="36" t="s">
         <v>51</v>
-      </c>
-      <c r="J6" s="36" t="s">
-        <v>52</v>
       </c>
       <c r="K6" s="36"/>
       <c r="L6" s="37"/>
       <c r="M6" s="36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N6" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="O6" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="P6" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q6" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="O6" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="P6" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q6" s="36" t="s">
-        <v>55</v>
-      </c>
       <c r="R6" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1656,48 +1675,48 @@
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
       <c r="D7" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="36" t="s">
-        <v>57</v>
-      </c>
       <c r="H7" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I7" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J7" s="36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K7" s="36" t="str">
         <f aca="false">"Below or right of "&amp;J6</f>
         <v>Below or right of Panadol Osteo</v>
       </c>
       <c r="L7" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M7" s="36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N7" s="38"/>
       <c r="O7" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P7" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q7" s="36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R7" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1705,48 +1724,48 @@
       <c r="B8" s="35"/>
       <c r="C8" s="35"/>
       <c r="D8" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="36" t="s">
-        <v>60</v>
-      </c>
       <c r="H8" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I8" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J8" s="36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K8" s="36" t="str">
         <f aca="false">"Below or right of "&amp;J7</f>
         <v>Below or right of Panadol Extra Optizorb</v>
       </c>
       <c r="L8" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M8" s="36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N8" s="38"/>
       <c r="O8" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P8" s="36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R8" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1757,30 +1776,30 @@
       <c r="E9" s="36"/>
       <c r="F9" s="36"/>
       <c r="G9" s="36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I9" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J9" s="36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K9" s="36" t="str">
         <f aca="false">"Below or right of "&amp;J8</f>
         <v>Below or right of Panadol Rapid</v>
       </c>
       <c r="L9" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M9" s="36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N9" s="38"/>
       <c r="O9" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P9" s="36"/>
       <c r="Q9" s="36"/>
@@ -1794,30 +1813,30 @@
       <c r="E10" s="36"/>
       <c r="F10" s="36"/>
       <c r="G10" s="36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I10" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J10" s="36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K10" s="36" t="str">
         <f aca="false">"Below or right of "&amp;J9</f>
         <v>Below or right of Panadol Optizorb</v>
       </c>
       <c r="L10" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M10" s="36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N10" s="38"/>
       <c r="O10" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P10" s="36"/>
       <c r="Q10" s="36"/>
@@ -1831,30 +1850,30 @@
       <c r="E11" s="36"/>
       <c r="F11" s="36"/>
       <c r="G11" s="36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I11" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K11" s="36" t="str">
         <f aca="false">"Below or right of "&amp;J10</f>
         <v>Below or right of Panadol Mini</v>
       </c>
       <c r="L11" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M11" s="36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N11" s="38"/>
       <c r="O11" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P11" s="36"/>
       <c r="Q11" s="36"/>
@@ -1868,23 +1887,23 @@
       <c r="E12" s="36"/>
       <c r="F12" s="36"/>
       <c r="G12" s="36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I12" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
       <c r="L12" s="37"/>
       <c r="M12" s="36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N12" s="38"/>
       <c r="O12" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P12" s="36"/>
       <c r="Q12" s="36"/>
@@ -1898,13 +1917,13 @@
       <c r="E13" s="36"/>
       <c r="F13" s="36"/>
       <c r="G13" s="36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H13" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I13" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J13" s="36"/>
       <c r="K13" s="36"/>
@@ -1940,48 +1959,48 @@
       <c r="A15" s="35"/>
       <c r="B15" s="35"/>
       <c r="C15" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="40" t="s">
+      <c r="E15" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="40" t="s">
-        <v>68</v>
-      </c>
       <c r="H15" s="40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I15" s="41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J15" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K15" s="40"/>
       <c r="L15" s="40"/>
       <c r="M15" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="N15" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="O15" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="P15" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q15" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="N15" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="O15" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="P15" s="40" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q15" s="40" t="s">
-        <v>69</v>
-      </c>
       <c r="R15" s="41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1992,16 +2011,16 @@
       <c r="E16" s="40"/>
       <c r="F16" s="40"/>
       <c r="G16" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H16" s="40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I16" s="41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J16" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K16" s="36" t="str">
         <f aca="false">"Below or right of "&amp;J15</f>
@@ -2009,11 +2028,11 @@
       </c>
       <c r="L16" s="40"/>
       <c r="M16" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N16" s="42"/>
       <c r="O16" s="41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P16" s="40"/>
       <c r="Q16" s="40"/>
@@ -2027,16 +2046,16 @@
       <c r="E17" s="40"/>
       <c r="F17" s="40"/>
       <c r="G17" s="40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H17" s="40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I17" s="41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J17" s="40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K17" s="36" t="str">
         <f aca="false">"Below or right of "&amp;J16</f>
@@ -2044,11 +2063,11 @@
       </c>
       <c r="L17" s="40"/>
       <c r="M17" s="40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N17" s="42"/>
       <c r="O17" s="41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P17" s="40"/>
       <c r="Q17" s="40"/>
@@ -2062,23 +2081,23 @@
       <c r="E18" s="40"/>
       <c r="F18" s="40"/>
       <c r="G18" s="40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H18" s="40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I18" s="41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J18" s="40"/>
       <c r="K18" s="40"/>
       <c r="L18" s="40"/>
       <c r="M18" s="40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N18" s="42"/>
       <c r="O18" s="41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P18" s="40"/>
       <c r="Q18" s="40"/>
@@ -2098,11 +2117,11 @@
       <c r="K19" s="40"/>
       <c r="L19" s="40"/>
       <c r="M19" s="40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N19" s="42"/>
       <c r="O19" s="41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P19" s="40"/>
       <c r="Q19" s="40"/>
@@ -2112,48 +2131,48 @@
       <c r="A20" s="35"/>
       <c r="B20" s="35"/>
       <c r="C20" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" s="36" t="s">
-        <v>75</v>
-      </c>
       <c r="H20" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I20" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J20" s="36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K20" s="36"/>
       <c r="L20" s="36"/>
       <c r="M20" s="36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N20" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O20" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P20" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q20" s="36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R20" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2164,30 +2183,30 @@
       <c r="E21" s="44"/>
       <c r="F21" s="44"/>
       <c r="G21" s="44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H21" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I21" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J21" s="44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K21" s="36" t="str">
         <f aca="false">"Below or right of "&amp;J20</f>
         <v>Below or right of Voltaren Emugel</v>
       </c>
       <c r="L21" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M21" s="44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N21" s="38"/>
       <c r="O21" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P21" s="44"/>
       <c r="Q21" s="44"/>
@@ -2196,19 +2215,19 @@
     <row r="22" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="35"/>
       <c r="B22" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22" s="45" t="s">
-        <v>78</v>
-      </c>
       <c r="E22" s="40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F22" s="41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G22" s="46"/>
       <c r="H22" s="46"/>
@@ -2217,22 +2236,22 @@
       <c r="K22" s="46"/>
       <c r="L22" s="46"/>
       <c r="M22" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="N22" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="O22" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="P22" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q22" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="N22" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="O22" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="P22" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q22" s="40" t="s">
-        <v>79</v>
-      </c>
       <c r="R22" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2240,13 +2259,13 @@
       <c r="B23" s="35"/>
       <c r="C23" s="43"/>
       <c r="D23" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E23" s="40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" s="41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G23" s="46"/>
       <c r="H23" s="46"/>
@@ -2255,20 +2274,20 @@
       <c r="K23" s="46"/>
       <c r="L23" s="46"/>
       <c r="M23" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N23" s="42"/>
       <c r="O23" s="41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P23" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q23" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="Q23" s="40" t="s">
-        <v>81</v>
-      </c>
       <c r="R23" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2276,13 +2295,13 @@
       <c r="B24" s="35"/>
       <c r="C24" s="43"/>
       <c r="D24" s="45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E24" s="40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F24" s="41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G24" s="46"/>
       <c r="H24" s="46"/>
@@ -2291,70 +2310,70 @@
       <c r="K24" s="46"/>
       <c r="L24" s="46"/>
       <c r="M24" s="45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N24" s="42"/>
       <c r="O24" s="41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P24" s="45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q24" s="40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R24" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="35"/>
       <c r="B25" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="43" t="s">
+      <c r="D25" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="D25" s="44" t="s">
+      <c r="E25" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="E25" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="F25" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="G25" s="44" t="s">
-        <v>86</v>
-      </c>
       <c r="H25" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I25" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J25" s="44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K25" s="44"/>
       <c r="L25" s="44"/>
       <c r="M25" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="N25" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="O25" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="P25" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q25" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="N25" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="O25" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="P25" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q25" s="36" t="s">
-        <v>87</v>
-      </c>
       <c r="R25" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2365,16 +2384,16 @@
       <c r="E26" s="44"/>
       <c r="F26" s="44"/>
       <c r="G26" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H26" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I26" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J26" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K26" s="36" t="str">
         <f aca="false">"Below or right of "&amp;J25</f>
@@ -2382,11 +2401,11 @@
       </c>
       <c r="L26" s="44"/>
       <c r="M26" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N26" s="38"/>
       <c r="O26" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P26" s="44"/>
       <c r="Q26" s="44"/>
@@ -2400,16 +2419,16 @@
       <c r="E27" s="44"/>
       <c r="F27" s="44"/>
       <c r="G27" s="44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H27" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I27" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J27" s="44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K27" s="36" t="str">
         <f aca="false">"Below or right of "&amp;J26</f>
@@ -2417,11 +2436,11 @@
       </c>
       <c r="L27" s="44"/>
       <c r="M27" s="44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N27" s="38"/>
       <c r="O27" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P27" s="44"/>
       <c r="Q27" s="44"/>
@@ -2449,54 +2468,54 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="C29" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C29" s="35" t="s">
+      <c r="D29" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="48" t="s">
+      <c r="E29" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E29" s="36" t="s">
-        <v>50</v>
-      </c>
       <c r="F29" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="G29" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="G29" s="36" t="s">
+      <c r="H29" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="H29" s="36" t="s">
-        <v>53</v>
-      </c>
       <c r="I29" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="J29" s="36" t="s">
         <v>51</v>
-      </c>
-      <c r="J29" s="36" t="s">
-        <v>52</v>
       </c>
       <c r="K29" s="36"/>
       <c r="L29" s="37"/>
       <c r="M29" s="36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N29" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="O29" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="P29" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q29" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="O29" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="P29" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q29" s="36" t="s">
-        <v>55</v>
-      </c>
       <c r="R29" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2504,48 +2523,48 @@
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
       <c r="D30" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="G30" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="F30" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="G30" s="36" t="s">
-        <v>57</v>
-      </c>
       <c r="H30" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I30" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J30" s="36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K30" s="36" t="str">
         <f aca="false">"Below or right of "&amp;J29</f>
         <v>Below or right of Panadol Osteo</v>
       </c>
       <c r="L30" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M30" s="36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N30" s="38"/>
       <c r="O30" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P30" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q30" s="36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R30" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2553,48 +2572,48 @@
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
       <c r="D31" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="G31" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="E31" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="F31" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="G31" s="36" t="s">
-        <v>60</v>
-      </c>
       <c r="H31" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I31" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J31" s="36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K31" s="36" t="str">
         <f aca="false">"Below or right of "&amp;J30</f>
         <v>Below or right of Panadol Extra Optizorb</v>
       </c>
       <c r="L31" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M31" s="36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N31" s="38"/>
       <c r="O31" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P31" s="36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q31" s="36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R31" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2605,30 +2624,30 @@
       <c r="E32" s="36"/>
       <c r="F32" s="36"/>
       <c r="G32" s="36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H32" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I32" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J32" s="36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K32" s="36" t="str">
         <f aca="false">"Below or right of "&amp;J31</f>
         <v>Below or right of Panadol Rapid</v>
       </c>
       <c r="L32" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M32" s="36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N32" s="38"/>
       <c r="O32" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P32" s="36"/>
       <c r="Q32" s="36"/>
@@ -2642,30 +2661,30 @@
       <c r="E33" s="36"/>
       <c r="F33" s="36"/>
       <c r="G33" s="36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H33" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I33" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J33" s="36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K33" s="36" t="str">
         <f aca="false">"Below or right of "&amp;J32</f>
         <v>Below or right of Panadol Optizorb</v>
       </c>
       <c r="L33" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M33" s="36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N33" s="38"/>
       <c r="O33" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P33" s="36"/>
       <c r="Q33" s="36"/>
@@ -2679,30 +2698,30 @@
       <c r="E34" s="36"/>
       <c r="F34" s="36"/>
       <c r="G34" s="36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H34" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I34" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J34" s="36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K34" s="36" t="str">
         <f aca="false">"Below or right of "&amp;J33</f>
         <v>Below or right of Panadol Mini</v>
       </c>
       <c r="L34" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M34" s="36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N34" s="38"/>
       <c r="O34" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P34" s="36"/>
       <c r="Q34" s="36"/>
@@ -2716,23 +2735,23 @@
       <c r="E35" s="36"/>
       <c r="F35" s="36"/>
       <c r="G35" s="36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H35" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I35" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J35" s="36"/>
       <c r="K35" s="36"/>
       <c r="L35" s="37"/>
       <c r="M35" s="36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N35" s="38"/>
       <c r="O35" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P35" s="36"/>
       <c r="Q35" s="36"/>
@@ -2746,13 +2765,13 @@
       <c r="E36" s="36"/>
       <c r="F36" s="36"/>
       <c r="G36" s="36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H36" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I36" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J36" s="36"/>
       <c r="K36" s="36"/>
@@ -2768,56 +2787,56 @@
       <c r="A37" s="35"/>
       <c r="B37" s="35"/>
       <c r="C37" s="35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D37" s="40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E37" s="40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F37" s="41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G37" s="46"/>
       <c r="H37" s="46"/>
       <c r="I37" s="46"/>
       <c r="J37" s="40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K37" s="40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M37" s="46"/>
       <c r="N37" s="49"/>
       <c r="O37" s="46"/>
       <c r="P37" s="40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q37" s="40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R37" s="41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="35"/>
       <c r="B38" s="35"/>
       <c r="C38" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D38" s="36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E38" s="36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F38" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G38" s="50"/>
       <c r="H38" s="50"/>
@@ -2829,31 +2848,31 @@
       <c r="N38" s="52"/>
       <c r="O38" s="51"/>
       <c r="P38" s="36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q38" s="36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R38" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="35"/>
       <c r="B39" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="D39" s="45" t="s">
-        <v>78</v>
-      </c>
       <c r="E39" s="40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F39" s="41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G39" s="46"/>
       <c r="H39" s="46"/>
@@ -2865,63 +2884,63 @@
       <c r="N39" s="49"/>
       <c r="O39" s="46"/>
       <c r="P39" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q39" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="Q39" s="40" t="s">
-        <v>79</v>
-      </c>
       <c r="R39" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="35"/>
       <c r="B40" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="C40" s="43" t="s">
+      <c r="D40" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="D40" s="44" t="s">
-        <v>85</v>
-      </c>
       <c r="E40" s="36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F40" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G40" s="44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H40" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I40" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J40" s="44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="K40" s="44"/>
       <c r="L40" s="44"/>
       <c r="M40" s="44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="N40" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O40" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P40" s="44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q40" s="36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R40" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2932,16 +2951,16 @@
       <c r="E41" s="44"/>
       <c r="F41" s="44"/>
       <c r="G41" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H41" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I41" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J41" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K41" s="36" t="str">
         <f aca="false">"Below or right of "&amp;J40</f>
@@ -2949,11 +2968,11 @@
       </c>
       <c r="L41" s="44"/>
       <c r="M41" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N41" s="38"/>
       <c r="O41" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P41" s="44"/>
       <c r="Q41" s="44"/>
@@ -2967,16 +2986,16 @@
       <c r="E42" s="44"/>
       <c r="F42" s="44"/>
       <c r="G42" s="44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H42" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I42" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J42" s="44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K42" s="36" t="str">
         <f aca="false">"Below or right of "&amp;J41</f>
@@ -2984,11 +3003,11 @@
       </c>
       <c r="L42" s="44"/>
       <c r="M42" s="44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N42" s="38"/>
       <c r="O42" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P42" s="44"/>
       <c r="Q42" s="44"/>
@@ -2996,58 +3015,58 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D45" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="E45" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="F45" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="G45" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="H45" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="I45" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="J45" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="K45" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="B45" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45" s="35" t="s">
+      <c r="L45" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="M45" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="N45" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="O45" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="P45" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="D45" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="E45" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="F45" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="G45" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="H45" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="I45" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="J45" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="K45" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="L45" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="M45" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="N45" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="O45" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="P45" s="36" t="s">
-        <v>49</v>
-      </c>
       <c r="Q45" s="36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R45" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3055,47 +3074,47 @@
       <c r="B46" s="35"/>
       <c r="C46" s="35"/>
       <c r="D46" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E46" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="F46" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="G46" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="E46" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="F46" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="G46" s="36" t="s">
-        <v>57</v>
-      </c>
       <c r="H46" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I46" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J46" s="36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K46" s="36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L46" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M46" s="36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N46" s="38"/>
       <c r="O46" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P46" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q46" s="36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R46" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3103,38 +3122,38 @@
       <c r="B47" s="35"/>
       <c r="C47" s="35"/>
       <c r="D47" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="E47" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="F47" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="G47" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="E47" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="F47" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="G47" s="36" t="s">
-        <v>60</v>
-      </c>
       <c r="H47" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I47" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J47" s="36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K47" s="36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L47" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M47" s="36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N47" s="38"/>
       <c r="O47" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P47" s="36"/>
       <c r="Q47" s="36"/>
@@ -3148,29 +3167,29 @@
       <c r="E48" s="36"/>
       <c r="F48" s="36"/>
       <c r="G48" s="36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H48" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I48" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J48" s="36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K48" s="36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L48" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M48" s="36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N48" s="38"/>
       <c r="O48" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P48" s="36"/>
       <c r="Q48" s="36"/>
@@ -3184,29 +3203,29 @@
       <c r="E49" s="36"/>
       <c r="F49" s="36"/>
       <c r="G49" s="36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H49" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I49" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J49" s="36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K49" s="36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L49" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M49" s="36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N49" s="38"/>
       <c r="O49" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P49" s="36"/>
       <c r="Q49" s="36"/>
@@ -3220,29 +3239,29 @@
       <c r="E50" s="36"/>
       <c r="F50" s="36"/>
       <c r="G50" s="36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H50" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I50" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J50" s="36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K50" s="36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L50" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M50" s="36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N50" s="38"/>
       <c r="O50" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P50" s="36"/>
       <c r="Q50" s="36"/>
@@ -3256,29 +3275,29 @@
       <c r="E51" s="36"/>
       <c r="F51" s="36"/>
       <c r="G51" s="36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H51" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I51" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J51" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="K51" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="K51" s="36" t="s">
-        <v>102</v>
-      </c>
       <c r="L51" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M51" s="36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N51" s="38"/>
       <c r="O51" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P51" s="36"/>
       <c r="Q51" s="36"/>
@@ -3292,19 +3311,19 @@
       <c r="E52" s="36"/>
       <c r="F52" s="36"/>
       <c r="G52" s="36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H52" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I52" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J52" s="36"/>
       <c r="K52" s="36"/>
       <c r="L52" s="37"/>
       <c r="M52" s="36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N52" s="38"/>
       <c r="O52" s="37"/>
@@ -3316,56 +3335,56 @@
       <c r="A53" s="35"/>
       <c r="B53" s="35"/>
       <c r="C53" s="35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D53" s="40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E53" s="40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F53" s="41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G53" s="46"/>
       <c r="H53" s="46"/>
       <c r="I53" s="46"/>
       <c r="J53" s="40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K53" s="40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L53" s="41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M53" s="46"/>
       <c r="N53" s="49"/>
       <c r="O53" s="46"/>
       <c r="P53" s="40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q53" s="40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R53" s="41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="35"/>
       <c r="B54" s="35"/>
       <c r="C54" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D54" s="36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E54" s="36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F54" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G54" s="50"/>
       <c r="H54" s="50"/>
@@ -3377,31 +3396,31 @@
       <c r="N54" s="52"/>
       <c r="O54" s="51"/>
       <c r="P54" s="36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q54" s="36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R54" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="35"/>
       <c r="B55" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C55" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="D55" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="C55" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="D55" s="45" t="s">
-        <v>78</v>
-      </c>
       <c r="E55" s="40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F55" s="41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G55" s="46"/>
       <c r="H55" s="46"/>
@@ -3413,31 +3432,31 @@
       <c r="N55" s="49"/>
       <c r="O55" s="46"/>
       <c r="P55" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q55" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="Q55" s="40" t="s">
-        <v>79</v>
-      </c>
       <c r="R55" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="35"/>
       <c r="B56" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="C56" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="C56" s="43" t="s">
+      <c r="D56" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="D56" s="44" t="s">
-        <v>85</v>
-      </c>
       <c r="E56" s="36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F56" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G56" s="50"/>
       <c r="H56" s="50"/>
@@ -3449,13 +3468,13 @@
       <c r="N56" s="50"/>
       <c r="O56" s="51"/>
       <c r="P56" s="44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q56" s="36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R56" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3500,8 +3519,8 @@
   </sheetPr>
   <dimension ref="A1:W6"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3575,22 +3594,22 @@
         <v>14</v>
       </c>
       <c r="P1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>108</v>
       </c>
       <c r="V1" s="2" t="s">
         <v>16</v>
@@ -3601,7 +3620,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>19</v>
@@ -3610,20 +3629,22 @@
         <v>20</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="E2" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
-      <c r="K2" s="4"/>
-      <c r="L2" s="4"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="53"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="53"/>
+      <c r="L2" s="53"/>
+      <c r="M2" s="53"/>
+      <c r="N2" s="53"/>
       <c r="O2" s="4" t="n">
         <v>1</v>
       </c>
@@ -3631,26 +3652,26 @@
         <v>0.4</v>
       </c>
       <c r="Q2" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="R2" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="S2" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="T2" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="U2" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="T2" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="U2" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>19</v>
@@ -3659,26 +3680,26 @@
         <v>20</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E3" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E3" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="53" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
       <c r="O3" s="4" t="n">
         <v>1</v>
       </c>
@@ -3686,144 +3707,168 @@
         <v>0.4</v>
       </c>
       <c r="Q3" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="R3" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="S3" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="S3" s="4" t="s">
+      <c r="T3" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="U3" s="4" t="s">
         <v>113</v>
-      </c>
-      <c r="T3" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="U3" s="4" t="s">
-        <v>114</v>
       </c>
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="D4" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="D4" s="53" t="s">
-        <v>118</v>
-      </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="F4" s="1" t="n">
+      <c r="F4" s="55" t="n">
         <v>4210201185482</v>
       </c>
+      <c r="G4" s="55"/>
+      <c r="H4" s="55"/>
+      <c r="I4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="55"/>
+      <c r="L4" s="55"/>
+      <c r="M4" s="55"/>
+      <c r="N4" s="55"/>
       <c r="O4" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="P4" s="54" t="n">
+      <c r="P4" s="58" t="n">
         <v>1</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R4" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="S4" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="T4" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="U4" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="T4" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="U4" s="4" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>20</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5" s="55" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>124</v>
-      </c>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
+      <c r="I5" s="55"/>
+      <c r="J5" s="55"/>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
+      <c r="M5" s="55"/>
+      <c r="N5" s="55"/>
       <c r="O5" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="P5" s="54" t="n">
+      <c r="P5" s="58" t="n">
         <v>0.5</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R5" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="S5" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="S5" s="4" t="s">
+      <c r="T5" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="U5" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="T5" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="U5" s="4" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C6" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="55" t="s">
         <v>126</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>127</v>
-      </c>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
+      <c r="I6" s="55"/>
+      <c r="J6" s="55"/>
+      <c r="K6" s="55"/>
+      <c r="L6" s="55"/>
+      <c r="M6" s="55"/>
+      <c r="N6" s="55"/>
       <c r="O6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="P6" s="54" t="n">
+      <c r="P6" s="58" t="n">
         <v>0.8</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="R6" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="S6" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="S6" s="4" t="s">
+      <c r="T6" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="U6" s="4" t="s">
         <v>120</v>
-      </c>
-      <c r="T6" s="4" t="s">
-        <v>120</v>
-      </c>
-      <c r="U6" s="4" t="s">
-        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3844,7 +3889,7 @@
   </sheetPr>
   <dimension ref="A2:T40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K55" activeCellId="0" sqref="K55"/>
     </sheetView>
   </sheetViews>
@@ -3873,7 +3918,7 @@
   <sheetData>
     <row r="2" s="14" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -3920,36 +3965,36 @@
     </row>
     <row r="4" s="23" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="17" t="s">
-        <v>35</v>
-      </c>
       <c r="C4" s="17" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
       <c r="G4" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
       <c r="J4" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K4" s="20"/>
       <c r="L4" s="20"/>
       <c r="M4" s="21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N4" s="21"/>
       <c r="O4" s="21"/>
       <c r="P4" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="Q4" s="22"/>
       <c r="R4" s="22"/>
@@ -3960,101 +4005,101 @@
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
       <c r="D5" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="F5" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="G5" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="27" t="s">
-        <v>45</v>
-      </c>
       <c r="H5" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="I5" s="28" t="s">
+      <c r="J5" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="29" t="s">
-        <v>45</v>
-      </c>
       <c r="K5" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="L5" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="29" t="s">
+      <c r="M5" s="30" t="s">
         <v>44</v>
       </c>
-      <c r="M5" s="30" t="s">
-        <v>45</v>
-      </c>
       <c r="N5" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="O5" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="O5" s="31" t="s">
-        <v>44</v>
-      </c>
       <c r="P5" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q5" s="33" t="s">
         <v>42</v>
       </c>
-      <c r="Q5" s="33" t="s">
+      <c r="R5" s="33" t="s">
         <v>43</v>
-      </c>
-      <c r="R5" s="33" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="35" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B6" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C6" s="35" t="s">
+      <c r="D6" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="D6" s="36" t="s">
+      <c r="E6" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="36" t="s">
-        <v>50</v>
-      </c>
       <c r="F6" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="G6" s="36" t="s">
+      <c r="H6" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="H6" s="36" t="s">
-        <v>53</v>
-      </c>
       <c r="I6" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="J6" s="36" t="s">
         <v>51</v>
-      </c>
-      <c r="J6" s="36" t="s">
-        <v>52</v>
       </c>
       <c r="K6" s="36"/>
       <c r="L6" s="37"/>
       <c r="M6" s="36" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N6" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="O6" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="P6" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q6" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="O6" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="P6" s="36" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q6" s="36" t="s">
-        <v>55</v>
-      </c>
       <c r="R6" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4062,48 +4107,48 @@
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
       <c r="D7" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="E7" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="36" t="s">
-        <v>57</v>
-      </c>
       <c r="H7" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I7" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J7" s="36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K7" s="36" t="str">
         <f aca="false">"Below or right of "&amp;J6</f>
         <v>Below or right of Panadol Osteo</v>
       </c>
       <c r="L7" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M7" s="36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N7" s="38"/>
       <c r="O7" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P7" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q7" s="36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R7" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4111,48 +4156,48 @@
       <c r="B8" s="35"/>
       <c r="C8" s="35"/>
       <c r="D8" s="36" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="G8" s="36" t="s">
-        <v>60</v>
-      </c>
       <c r="H8" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I8" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J8" s="36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K8" s="36" t="str">
         <f aca="false">"Below or Left of "&amp;J7</f>
         <v>Below or Left of Panadol Extra Optizorb</v>
       </c>
       <c r="L8" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M8" s="36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N8" s="38"/>
       <c r="O8" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P8" s="36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="36" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="R8" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4163,30 +4208,30 @@
       <c r="E9" s="36"/>
       <c r="F9" s="36"/>
       <c r="G9" s="36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I9" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J9" s="36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K9" s="36" t="str">
         <f aca="false">"Below -  "&amp;J8</f>
         <v>Below -  Panadol Rapid</v>
       </c>
       <c r="L9" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M9" s="36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N9" s="38"/>
       <c r="O9" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P9" s="36"/>
       <c r="Q9" s="36"/>
@@ -4200,30 +4245,30 @@
       <c r="E10" s="36"/>
       <c r="F10" s="36"/>
       <c r="G10" s="36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I10" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J10" s="36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K10" s="36" t="str">
         <f aca="false">"Below -  "&amp;J9</f>
         <v>Below -  Panadol Optizorb</v>
       </c>
       <c r="L10" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M10" s="36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N10" s="38"/>
       <c r="O10" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P10" s="36"/>
       <c r="Q10" s="36"/>
@@ -4237,30 +4282,30 @@
       <c r="E11" s="36"/>
       <c r="F11" s="36"/>
       <c r="G11" s="36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I11" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K11" s="36" t="str">
         <f aca="false">"Below or Left of "&amp;J10</f>
         <v>Below or Left of Panadol Mini</v>
       </c>
       <c r="L11" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M11" s="36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N11" s="38"/>
       <c r="O11" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P11" s="36"/>
       <c r="Q11" s="36"/>
@@ -4274,23 +4319,23 @@
       <c r="E12" s="36"/>
       <c r="F12" s="36"/>
       <c r="G12" s="36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I12" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
       <c r="L12" s="37"/>
       <c r="M12" s="36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N12" s="38"/>
       <c r="O12" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P12" s="36"/>
       <c r="Q12" s="36"/>
@@ -4304,13 +4349,13 @@
       <c r="E13" s="36"/>
       <c r="F13" s="36"/>
       <c r="G13" s="36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H13" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I13" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J13" s="36"/>
       <c r="K13" s="36"/>
@@ -4346,48 +4391,48 @@
       <c r="A15" s="35"/>
       <c r="B15" s="35"/>
       <c r="C15" s="35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D15" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="G15" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="E15" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="40" t="s">
-        <v>68</v>
-      </c>
       <c r="H15" s="40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I15" s="41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J15" s="40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K15" s="40"/>
       <c r="L15" s="40"/>
       <c r="M15" s="40" t="s">
+        <v>67</v>
+      </c>
+      <c r="N15" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="O15" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="P15" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q15" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="N15" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="O15" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="P15" s="40" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q15" s="40" t="s">
-        <v>69</v>
-      </c>
       <c r="R15" s="41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4398,16 +4443,16 @@
       <c r="E16" s="40"/>
       <c r="F16" s="40"/>
       <c r="G16" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H16" s="40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I16" s="41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J16" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K16" s="36" t="str">
         <f aca="false">"Below or right of "&amp;J15</f>
@@ -4415,11 +4460,11 @@
       </c>
       <c r="L16" s="40"/>
       <c r="M16" s="40" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="N16" s="42"/>
       <c r="O16" s="41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P16" s="40"/>
       <c r="Q16" s="40"/>
@@ -4433,16 +4478,16 @@
       <c r="E17" s="40"/>
       <c r="F17" s="40"/>
       <c r="G17" s="40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H17" s="40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I17" s="41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J17" s="40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="K17" s="36" t="str">
         <f aca="false">"Below or right of "&amp;J16</f>
@@ -4450,11 +4495,11 @@
       </c>
       <c r="L17" s="40"/>
       <c r="M17" s="40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="N17" s="42"/>
       <c r="O17" s="41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P17" s="40"/>
       <c r="Q17" s="40"/>
@@ -4468,23 +4513,23 @@
       <c r="E18" s="40"/>
       <c r="F18" s="40"/>
       <c r="G18" s="40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H18" s="40" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I18" s="41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J18" s="40"/>
       <c r="K18" s="40"/>
       <c r="L18" s="40"/>
       <c r="M18" s="40" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N18" s="42"/>
       <c r="O18" s="41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P18" s="40"/>
       <c r="Q18" s="40"/>
@@ -4504,11 +4549,11 @@
       <c r="K19" s="40"/>
       <c r="L19" s="40"/>
       <c r="M19" s="40" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="N19" s="42"/>
       <c r="O19" s="41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P19" s="40"/>
       <c r="Q19" s="40"/>
@@ -4518,50 +4563,50 @@
       <c r="A20" s="35"/>
       <c r="B20" s="35"/>
       <c r="C20" s="35" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="F20" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="G20" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="D20" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="F20" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="G20" s="36" t="s">
-        <v>75</v>
-      </c>
       <c r="H20" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I20" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J20" s="36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K20" s="36" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="L20" s="36"/>
       <c r="M20" s="36" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N20" s="38" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O20" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P20" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q20" s="36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R20" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4572,29 +4617,29 @@
       <c r="E21" s="44"/>
       <c r="F21" s="44"/>
       <c r="G21" s="44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H21" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I21" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J21" s="44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K21" s="36" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="L21" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M21" s="44" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N21" s="38"/>
       <c r="O21" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P21" s="44"/>
       <c r="Q21" s="44"/>
@@ -4603,19 +4648,19 @@
     <row r="22" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="35"/>
       <c r="B22" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="D22" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="D22" s="45" t="s">
-        <v>78</v>
-      </c>
       <c r="E22" s="40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F22" s="41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G22" s="46"/>
       <c r="H22" s="46"/>
@@ -4624,22 +4669,22 @@
       <c r="K22" s="46"/>
       <c r="L22" s="46"/>
       <c r="M22" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="N22" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="O22" s="41" t="s">
+        <v>50</v>
+      </c>
+      <c r="P22" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q22" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="N22" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="O22" s="41" t="s">
-        <v>51</v>
-      </c>
-      <c r="P22" s="45" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q22" s="40" t="s">
-        <v>79</v>
-      </c>
       <c r="R22" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4647,13 +4692,13 @@
       <c r="B23" s="35"/>
       <c r="C23" s="43"/>
       <c r="D23" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E23" s="40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F23" s="41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G23" s="46"/>
       <c r="H23" s="46"/>
@@ -4662,20 +4707,20 @@
       <c r="K23" s="46"/>
       <c r="L23" s="46"/>
       <c r="M23" s="45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="N23" s="42"/>
       <c r="O23" s="41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P23" s="45" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q23" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="Q23" s="40" t="s">
-        <v>81</v>
-      </c>
       <c r="R23" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4683,13 +4728,13 @@
       <c r="B24" s="35"/>
       <c r="C24" s="43"/>
       <c r="D24" s="45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E24" s="40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F24" s="41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G24" s="46"/>
       <c r="H24" s="46"/>
@@ -4698,70 +4743,70 @@
       <c r="K24" s="46"/>
       <c r="L24" s="46"/>
       <c r="M24" s="45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="N24" s="42"/>
       <c r="O24" s="41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P24" s="45" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="Q24" s="40" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R24" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="35"/>
       <c r="B25" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="C25" s="43" t="s">
+      <c r="D25" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="D25" s="44" t="s">
+      <c r="E25" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="G25" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="E25" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="F25" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="G25" s="44" t="s">
-        <v>86</v>
-      </c>
       <c r="H25" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I25" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J25" s="44" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="K25" s="44"/>
       <c r="L25" s="44"/>
       <c r="M25" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="N25" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="O25" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="P25" s="44" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q25" s="36" t="s">
         <v>86</v>
       </c>
-      <c r="N25" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="O25" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="P25" s="44" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q25" s="36" t="s">
-        <v>87</v>
-      </c>
       <c r="R25" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4772,16 +4817,16 @@
       <c r="E26" s="44"/>
       <c r="F26" s="44"/>
       <c r="G26" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H26" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I26" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J26" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="K26" s="36" t="str">
         <f aca="false">"Below or right of "&amp;J25</f>
@@ -4789,11 +4834,11 @@
       </c>
       <c r="L26" s="44"/>
       <c r="M26" s="44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="N26" s="38"/>
       <c r="O26" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P26" s="44"/>
       <c r="Q26" s="44"/>
@@ -4807,16 +4852,16 @@
       <c r="E27" s="44"/>
       <c r="F27" s="44"/>
       <c r="G27" s="44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H27" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I27" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J27" s="44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K27" s="36" t="str">
         <f aca="false">"Below or right of "&amp;J26</f>
@@ -4824,11 +4869,11 @@
       </c>
       <c r="L27" s="44"/>
       <c r="M27" s="44" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N27" s="38"/>
       <c r="O27" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P27" s="44"/>
       <c r="Q27" s="44"/>
@@ -4856,58 +4901,58 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" s="35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C29" s="35" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="G29" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="H29" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="I29" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="J29" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="K29" s="36" t="s">
         <v>95</v>
       </c>
-      <c r="B29" s="35" t="s">
-        <v>47</v>
-      </c>
-      <c r="C29" s="35" t="s">
+      <c r="L29" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="M29" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="N29" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="O29" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="P29" s="36" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="48" t="s">
-        <v>49</v>
-      </c>
-      <c r="E29" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="F29" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="G29" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="H29" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="I29" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="J29" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="K29" s="36" t="s">
-        <v>96</v>
-      </c>
-      <c r="L29" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="M29" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="N29" s="38" t="s">
-        <v>54</v>
-      </c>
-      <c r="O29" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="P29" s="36" t="s">
-        <v>49</v>
-      </c>
       <c r="Q29" s="36" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R29" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4915,47 +4960,47 @@
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
       <c r="D30" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="E30" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="F30" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="G30" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="F30" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="G30" s="36" t="s">
-        <v>57</v>
-      </c>
       <c r="H30" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I30" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J30" s="36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K30" s="36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L30" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M30" s="36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N30" s="38"/>
       <c r="O30" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P30" s="36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q30" s="36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R30" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4963,38 +5008,38 @@
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
       <c r="D31" s="48" t="s">
+        <v>58</v>
+      </c>
+      <c r="E31" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="G31" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="E31" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="F31" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="G31" s="36" t="s">
-        <v>60</v>
-      </c>
       <c r="H31" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I31" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J31" s="36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="K31" s="36" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L31" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M31" s="36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="N31" s="38"/>
       <c r="O31" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P31" s="36"/>
       <c r="Q31" s="36"/>
@@ -5008,29 +5053,29 @@
       <c r="E32" s="36"/>
       <c r="F32" s="36"/>
       <c r="G32" s="36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H32" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I32" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J32" s="36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="K32" s="36" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L32" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M32" s="36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N32" s="38"/>
       <c r="O32" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P32" s="36"/>
       <c r="Q32" s="36"/>
@@ -5044,29 +5089,29 @@
       <c r="E33" s="36"/>
       <c r="F33" s="36"/>
       <c r="G33" s="36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H33" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I33" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J33" s="36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="K33" s="36" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="L33" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M33" s="36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="N33" s="38"/>
       <c r="O33" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P33" s="36"/>
       <c r="Q33" s="36"/>
@@ -5080,29 +5125,29 @@
       <c r="E34" s="36"/>
       <c r="F34" s="36"/>
       <c r="G34" s="36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H34" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I34" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J34" s="36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K34" s="36" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="L34" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M34" s="36" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N34" s="38"/>
       <c r="O34" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P34" s="36"/>
       <c r="Q34" s="36"/>
@@ -5116,29 +5161,29 @@
       <c r="E35" s="36"/>
       <c r="F35" s="36"/>
       <c r="G35" s="36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H35" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I35" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J35" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="K35" s="36" t="s">
         <v>101</v>
       </c>
-      <c r="K35" s="36" t="s">
-        <v>102</v>
-      </c>
       <c r="L35" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M35" s="36" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N35" s="38"/>
       <c r="O35" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="P35" s="36"/>
       <c r="Q35" s="36"/>
@@ -5152,19 +5197,19 @@
       <c r="E36" s="36"/>
       <c r="F36" s="36"/>
       <c r="G36" s="36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H36" s="36" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I36" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J36" s="36"/>
       <c r="K36" s="36"/>
       <c r="L36" s="37"/>
       <c r="M36" s="36" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="N36" s="38"/>
       <c r="O36" s="37"/>
@@ -5176,56 +5221,56 @@
       <c r="A37" s="35"/>
       <c r="B37" s="35"/>
       <c r="C37" s="35" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D37" s="40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E37" s="40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F37" s="41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G37" s="46"/>
       <c r="H37" s="46"/>
       <c r="I37" s="46"/>
       <c r="J37" s="40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="K37" s="40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L37" s="41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M37" s="46"/>
       <c r="N37" s="49"/>
       <c r="O37" s="46"/>
       <c r="P37" s="40" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q37" s="40" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R37" s="41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="35"/>
       <c r="B38" s="35"/>
       <c r="C38" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D38" s="36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E38" s="36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F38" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G38" s="50"/>
       <c r="H38" s="50"/>
@@ -5237,31 +5282,31 @@
       <c r="N38" s="52"/>
       <c r="O38" s="51"/>
       <c r="P38" s="36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q38" s="36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="R38" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="35"/>
       <c r="B39" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="C39" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="D39" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="C39" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="D39" s="45" t="s">
-        <v>78</v>
-      </c>
       <c r="E39" s="40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F39" s="41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G39" s="46"/>
       <c r="H39" s="46"/>
@@ -5273,31 +5318,31 @@
       <c r="N39" s="49"/>
       <c r="O39" s="46"/>
       <c r="P39" s="45" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q39" s="40" t="s">
         <v>78</v>
       </c>
-      <c r="Q39" s="40" t="s">
-        <v>79</v>
-      </c>
       <c r="R39" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="35"/>
       <c r="B40" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="C40" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="C40" s="43" t="s">
+      <c r="D40" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="D40" s="44" t="s">
-        <v>85</v>
-      </c>
       <c r="E40" s="36" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F40" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G40" s="50"/>
       <c r="H40" s="50"/>
@@ -5309,13 +5354,13 @@
       <c r="N40" s="50"/>
       <c r="O40" s="51"/>
       <c r="P40" s="44" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q40" s="36" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="R40" s="37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -5358,7 +5403,7 @@
   </sheetPr>
   <dimension ref="A1:I42"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
     </sheetView>
   </sheetViews>
@@ -5370,591 +5415,591 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="10" style="11" width="9.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="11" width="23.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="11" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="55" width="17.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="55" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="59" width="17.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="59" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="17" style="11" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="60" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="H1" s="60"/>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B2" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="57" t="s">
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="61"/>
+      <c r="H2" s="61"/>
+      <c r="I2" s="62"/>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="61" t="s">
         <v>132</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="58"/>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="57" t="s">
+      <c r="C3" s="61"/>
+      <c r="D3" s="61"/>
+      <c r="E3" s="61"/>
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61"/>
+      <c r="I3" s="62"/>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B4" s="61"/>
+      <c r="C4" s="61"/>
+      <c r="D4" s="61"/>
+      <c r="E4" s="61"/>
+      <c r="F4" s="61"/>
+      <c r="G4" s="61"/>
+      <c r="H4" s="61"/>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="63" t="s">
         <v>133</v>
       </c>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="58"/>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="59" t="s">
+      <c r="B5" s="64"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="64"/>
+      <c r="E5" s="64"/>
+      <c r="F5" s="64"/>
+      <c r="G5" s="64"/>
+      <c r="H5" s="64"/>
+    </row>
+    <row r="6" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="B5" s="60"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="60"/>
-      <c r="H5" s="60"/>
-    </row>
-    <row r="6" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="61" t="s">
+      <c r="B6" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="65" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="E6" s="65" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="65" t="s">
+        <v>63</v>
+      </c>
+      <c r="H6" s="65" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="65" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="66" t="n">
+        <v>8</v>
+      </c>
+      <c r="B7" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" s="67" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" s="68" t="s">
+        <v>112</v>
+      </c>
+      <c r="E7" s="68" t="s">
         <v>135</v>
       </c>
-      <c r="B6" s="61" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="D6" s="61" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="61" t="s">
-        <v>62</v>
-      </c>
-      <c r="F6" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="G6" s="61" t="s">
-        <v>64</v>
-      </c>
-      <c r="H6" s="61" t="s">
-        <v>65</v>
-      </c>
-      <c r="I6" s="61" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="62" t="n">
+      <c r="F7" s="68" t="s">
+        <v>136</v>
+      </c>
+      <c r="G7" s="68" t="s">
+        <v>137</v>
+      </c>
+      <c r="H7" s="68" t="s">
+        <v>138</v>
+      </c>
+      <c r="I7" s="68" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="66" t="n">
+        <v>9</v>
+      </c>
+      <c r="B8" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" s="67" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" s="68" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" s="68" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" s="68" t="s">
+        <v>137</v>
+      </c>
+      <c r="H8" s="68" t="s">
+        <v>138</v>
+      </c>
+      <c r="I8" s="68" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="66" t="n">
+        <v>10</v>
+      </c>
+      <c r="B9" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="67" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" s="68" t="s">
+        <v>112</v>
+      </c>
+      <c r="E9" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="F9" s="68" t="s">
+        <v>136</v>
+      </c>
+      <c r="G9" s="68" t="s">
+        <v>137</v>
+      </c>
+      <c r="H9" s="68" t="s">
+        <v>138</v>
+      </c>
+      <c r="I9" s="68" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="66" t="n">
+        <v>11</v>
+      </c>
+      <c r="B10" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="C10" s="67" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="68" t="s">
+        <v>112</v>
+      </c>
+      <c r="E10" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="F10" s="68" t="s">
+        <v>136</v>
+      </c>
+      <c r="G10" s="68" t="s">
+        <v>137</v>
+      </c>
+      <c r="H10" s="68" t="s">
+        <v>138</v>
+      </c>
+      <c r="I10" s="68" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="66" t="n">
+        <v>12</v>
+      </c>
+      <c r="B11" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="67" t="s">
+        <v>111</v>
+      </c>
+      <c r="D11" s="68" t="s">
+        <v>112</v>
+      </c>
+      <c r="E11" s="68" t="s">
+        <v>135</v>
+      </c>
+      <c r="F11" s="68" t="s">
+        <v>136</v>
+      </c>
+      <c r="G11" s="68" t="s">
+        <v>137</v>
+      </c>
+      <c r="H11" s="68" t="s">
+        <v>138</v>
+      </c>
+      <c r="I11" s="68" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="65" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13" s="65" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="65" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="65" t="s">
+        <v>70</v>
+      </c>
+      <c r="E13" s="65" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="66" t="n">
         <v>8</v>
       </c>
-      <c r="B7" s="63" t="s">
+      <c r="B14" s="67" t="s">
+        <v>139</v>
+      </c>
+      <c r="C14" s="67" t="s">
+        <v>139</v>
+      </c>
+      <c r="D14" s="67" t="s">
+        <v>139</v>
+      </c>
+      <c r="E14" s="67" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="66" t="n">
+        <v>9</v>
+      </c>
+      <c r="B15" s="67" t="s">
+        <v>139</v>
+      </c>
+      <c r="C15" s="67" t="s">
+        <v>139</v>
+      </c>
+      <c r="D15" s="67" t="s">
+        <v>139</v>
+      </c>
+      <c r="E15" s="67" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="66" t="n">
+        <v>10</v>
+      </c>
+      <c r="B16" s="67" t="s">
+        <v>139</v>
+      </c>
+      <c r="C16" s="67" t="s">
+        <v>139</v>
+      </c>
+      <c r="D16" s="67" t="s">
+        <v>139</v>
+      </c>
+      <c r="E16" s="67" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="66" t="n">
+        <v>11</v>
+      </c>
+      <c r="B17" s="67" t="s">
+        <v>139</v>
+      </c>
+      <c r="C17" s="67" t="s">
+        <v>139</v>
+      </c>
+      <c r="D17" s="67" t="s">
+        <v>139</v>
+      </c>
+      <c r="E17" s="67" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="66" t="n">
+        <v>12</v>
+      </c>
+      <c r="B18" s="67" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="67" t="s">
+        <v>139</v>
+      </c>
+      <c r="D18" s="67" t="s">
+        <v>139</v>
+      </c>
+      <c r="E18" s="67" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="63" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="65" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" s="65" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="65" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="66" t="n">
+        <v>8</v>
+      </c>
+      <c r="B22" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="67" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="66" t="n">
+        <v>9</v>
+      </c>
+      <c r="B23" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" s="67" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="66" t="n">
+        <v>10</v>
+      </c>
+      <c r="B24" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="C24" s="67" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="66" t="n">
+        <v>11</v>
+      </c>
+      <c r="B25" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" s="67" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="66" t="n">
+        <v>12</v>
+      </c>
+      <c r="B26" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="C26" s="67" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="63" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="65" t="s">
+        <v>134</v>
+      </c>
+      <c r="B29" s="65" t="s">
+        <v>141</v>
+      </c>
+      <c r="C29" s="65" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="65" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="66" t="n">
+        <v>8</v>
+      </c>
+      <c r="B30" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="C30" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="D30" s="67" t="s">
         <v>111</v>
       </c>
-      <c r="C7" s="63" t="s">
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="66" t="n">
+        <v>9</v>
+      </c>
+      <c r="B31" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="D7" s="64" t="s">
-        <v>113</v>
-      </c>
-      <c r="E7" s="64" t="s">
-        <v>136</v>
-      </c>
-      <c r="F7" s="64" t="s">
-        <v>137</v>
-      </c>
-      <c r="G7" s="64" t="s">
-        <v>138</v>
-      </c>
-      <c r="H7" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="I7" s="64" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="62" t="n">
+      <c r="C31" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="D31" s="67" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="66" t="n">
+        <v>10</v>
+      </c>
+      <c r="B32" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="C32" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="D32" s="67" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="66" t="n">
+        <v>11</v>
+      </c>
+      <c r="B33" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="C33" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="D33" s="67" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="66" t="n">
+        <v>12</v>
+      </c>
+      <c r="B34" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="D34" s="67" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="63" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="65" t="s">
+        <v>134</v>
+      </c>
+      <c r="B37" s="65" t="s">
+        <v>143</v>
+      </c>
+      <c r="C37" s="65" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" s="65" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="66" t="n">
+        <v>8</v>
+      </c>
+      <c r="B38" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="C38" s="67" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" s="67" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="66" t="n">
         <v>9</v>
       </c>
-      <c r="B8" s="63" t="s">
-        <v>111</v>
-      </c>
-      <c r="C8" s="63" t="s">
+      <c r="B39" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="C39" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="D8" s="64" t="s">
-        <v>113</v>
-      </c>
-      <c r="E8" s="64" t="s">
-        <v>136</v>
-      </c>
-      <c r="F8" s="64" t="s">
-        <v>137</v>
-      </c>
-      <c r="G8" s="64" t="s">
-        <v>138</v>
-      </c>
-      <c r="H8" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="I8" s="64" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="62" t="n">
+      <c r="D39" s="67" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="66" t="n">
         <v>10</v>
       </c>
-      <c r="B9" s="63" t="s">
-        <v>111</v>
-      </c>
-      <c r="C9" s="63" t="s">
+      <c r="B40" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="D9" s="64" t="s">
-        <v>113</v>
-      </c>
-      <c r="E9" s="64" t="s">
-        <v>136</v>
-      </c>
-      <c r="F9" s="64" t="s">
-        <v>137</v>
-      </c>
-      <c r="G9" s="64" t="s">
-        <v>138</v>
-      </c>
-      <c r="H9" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="I9" s="64" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="62" t="n">
+      <c r="D40" s="67" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="66" t="n">
         <v>11</v>
       </c>
-      <c r="B10" s="63" t="s">
-        <v>111</v>
-      </c>
-      <c r="C10" s="63" t="s">
+      <c r="B41" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="D10" s="64" t="s">
-        <v>113</v>
-      </c>
-      <c r="E10" s="64" t="s">
-        <v>136</v>
-      </c>
-      <c r="F10" s="64" t="s">
-        <v>137</v>
-      </c>
-      <c r="G10" s="64" t="s">
-        <v>138</v>
-      </c>
-      <c r="H10" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="I10" s="64" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="62" t="n">
+      <c r="D41" s="67" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="66" t="n">
         <v>12</v>
       </c>
-      <c r="B11" s="63" t="s">
-        <v>111</v>
-      </c>
-      <c r="C11" s="63" t="s">
+      <c r="B42" s="67" t="s">
+        <v>110</v>
+      </c>
+      <c r="C42" s="67" t="s">
         <v>112</v>
       </c>
-      <c r="D11" s="64" t="s">
-        <v>113</v>
-      </c>
-      <c r="E11" s="64" t="s">
-        <v>136</v>
-      </c>
-      <c r="F11" s="64" t="s">
-        <v>137</v>
-      </c>
-      <c r="G11" s="64" t="s">
-        <v>138</v>
-      </c>
-      <c r="H11" s="64" t="s">
-        <v>139</v>
-      </c>
-      <c r="I11" s="64" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="61" t="s">
+      <c r="D42" s="67" t="s">
         <v>135</v>
-      </c>
-      <c r="B13" s="61" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="D13" s="61" t="s">
-        <v>71</v>
-      </c>
-      <c r="E13" s="61" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="62" t="n">
-        <v>8</v>
-      </c>
-      <c r="B14" s="63" t="s">
-        <v>140</v>
-      </c>
-      <c r="C14" s="63" t="s">
-        <v>140</v>
-      </c>
-      <c r="D14" s="63" t="s">
-        <v>140</v>
-      </c>
-      <c r="E14" s="63" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="62" t="n">
-        <v>9</v>
-      </c>
-      <c r="B15" s="63" t="s">
-        <v>140</v>
-      </c>
-      <c r="C15" s="63" t="s">
-        <v>140</v>
-      </c>
-      <c r="D15" s="63" t="s">
-        <v>140</v>
-      </c>
-      <c r="E15" s="63" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="62" t="n">
-        <v>10</v>
-      </c>
-      <c r="B16" s="63" t="s">
-        <v>140</v>
-      </c>
-      <c r="C16" s="63" t="s">
-        <v>140</v>
-      </c>
-      <c r="D16" s="63" t="s">
-        <v>140</v>
-      </c>
-      <c r="E16" s="63" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="62" t="n">
-        <v>11</v>
-      </c>
-      <c r="B17" s="63" t="s">
-        <v>140</v>
-      </c>
-      <c r="C17" s="63" t="s">
-        <v>140</v>
-      </c>
-      <c r="D17" s="63" t="s">
-        <v>140</v>
-      </c>
-      <c r="E17" s="63" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="62" t="n">
-        <v>12</v>
-      </c>
-      <c r="B18" s="63" t="s">
-        <v>140</v>
-      </c>
-      <c r="C18" s="63" t="s">
-        <v>140</v>
-      </c>
-      <c r="D18" s="63" t="s">
-        <v>140</v>
-      </c>
-      <c r="E18" s="63" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="59" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="61" t="s">
-        <v>135</v>
-      </c>
-      <c r="B21" s="61" t="s">
-        <v>75</v>
-      </c>
-      <c r="C21" s="61" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="62" t="n">
-        <v>8</v>
-      </c>
-      <c r="B22" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="C22" s="63" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="62" t="n">
-        <v>9</v>
-      </c>
-      <c r="B23" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="C23" s="63" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="62" t="n">
-        <v>10</v>
-      </c>
-      <c r="B24" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="C24" s="63" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="62" t="n">
-        <v>11</v>
-      </c>
-      <c r="B25" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="C25" s="63" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="62" t="n">
-        <v>12</v>
-      </c>
-      <c r="B26" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="C26" s="63" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="59" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="61" t="s">
-        <v>135</v>
-      </c>
-      <c r="B29" s="61" t="s">
-        <v>142</v>
-      </c>
-      <c r="C29" s="61" t="s">
-        <v>80</v>
-      </c>
-      <c r="D29" s="61" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="62" t="n">
-        <v>8</v>
-      </c>
-      <c r="B30" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="C30" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="D30" s="63" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="62" t="n">
-        <v>9</v>
-      </c>
-      <c r="B31" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="C31" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="D31" s="63" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="62" t="n">
-        <v>10</v>
-      </c>
-      <c r="B32" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="C32" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="D32" s="63" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="62" t="n">
-        <v>11</v>
-      </c>
-      <c r="B33" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="C33" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="D33" s="63" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="62" t="n">
-        <v>12</v>
-      </c>
-      <c r="B34" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="C34" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="D34" s="63" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="59" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="61" t="s">
-        <v>135</v>
-      </c>
-      <c r="B37" s="61" t="s">
-        <v>144</v>
-      </c>
-      <c r="C37" s="61" t="s">
-        <v>145</v>
-      </c>
-      <c r="D37" s="61" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="62" t="n">
-        <v>8</v>
-      </c>
-      <c r="B38" s="63" t="s">
-        <v>111</v>
-      </c>
-      <c r="C38" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="D38" s="63" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="62" t="n">
-        <v>9</v>
-      </c>
-      <c r="B39" s="63" t="s">
-        <v>111</v>
-      </c>
-      <c r="C39" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="D39" s="63" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="62" t="n">
-        <v>10</v>
-      </c>
-      <c r="B40" s="63" t="s">
-        <v>111</v>
-      </c>
-      <c r="C40" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="D40" s="63" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="62" t="n">
-        <v>11</v>
-      </c>
-      <c r="B41" s="63" t="s">
-        <v>111</v>
-      </c>
-      <c r="C41" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="D41" s="63" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="62" t="n">
-        <v>12</v>
-      </c>
-      <c r="B42" s="63" t="s">
-        <v>111</v>
-      </c>
-      <c r="C42" s="63" t="s">
-        <v>113</v>
-      </c>
-      <c r="D42" s="63" t="s">
-        <v>136</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/PNGJP_SAND2/Data/TemplateBlockAndGoldenZoneKPI.xlsx
+++ b/Projects/PNGJP_SAND2/Data/TemplateBlockAndGoldenZoneKPI.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1012" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="148">
   <si>
     <t xml:space="preserve">KPI Name</t>
   </si>
@@ -69,6 +69,12 @@
   </si>
   <si>
     <t xml:space="preserve">Stacking ( Exclude = 0 / Include = 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Include Empty ( Exclude = 0 / Include = 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Include Other ( Exclude = 0 / Include = 1)</t>
   </si>
   <si>
     <t xml:space="preserve">Block Threshold</t>
@@ -1198,8 +1204,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1219,13 +1225,15 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="11.83"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="12.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="37.58"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="15.54"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="10.83"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="9.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="1" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="1" width="11.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="1" width="11.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="1" width="15.54"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="19" min="19" style="1" width="10.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="20" min="20" style="1" width="9.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="21" style="1" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" s="3" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="3" customFormat="true" ht="12.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1280,25 +1288,31 @@
       <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
+      <c r="S1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
@@ -1309,36 +1323,42 @@
       <c r="O2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="P2" s="7" t="n">
+      <c r="P2" s="4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" s="7" t="n">
         <v>0.8</v>
       </c>
-      <c r="Q2" s="4"/>
-      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="H3" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>23</v>
       </c>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
@@ -1349,39 +1369,45 @@
       <c r="O3" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="P3" s="7" t="n">
+      <c r="P3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" s="7" t="n">
         <v>0.8</v>
       </c>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>25</v>
-      </c>
       <c r="F4" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J4" s="1" t="n">
         <v>4902135142500</v>
@@ -1393,27 +1419,33 @@
       <c r="O4" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="P4" s="7" t="n">
+      <c r="P4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" s="7" t="n">
         <v>0.8</v>
       </c>
-      <c r="Q4" s="4"/>
-      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F5" s="1" t="n">
         <v>4902135142500</v>
@@ -1429,13 +1461,17 @@
       <c r="O5" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="P5" s="7" t="n">
+      <c r="P5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" s="7" t="n">
         <v>0.8</v>
       </c>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="AMG5" s="0"/>
-      <c r="AMH5" s="0"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
       <c r="AMI5" s="0"/>
       <c r="AMJ5" s="0"/>
     </row>
@@ -1486,7 +1522,7 @@
   <sheetData>
     <row r="2" s="14" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -1533,36 +1569,36 @@
     </row>
     <row r="4" s="23" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
       <c r="G4" s="19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
       <c r="J4" s="20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K4" s="20"/>
       <c r="L4" s="20"/>
       <c r="M4" s="21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N4" s="21"/>
       <c r="O4" s="21"/>
       <c r="P4" s="22" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q4" s="22"/>
       <c r="R4" s="22"/>
@@ -1573,101 +1609,101 @@
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
       <c r="D5" s="25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F5" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="Q5" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="L5" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="M5" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="N5" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="O5" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="P5" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q5" s="33" t="s">
-        <v>42</v>
-      </c>
       <c r="R5" s="33" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="35" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I6" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J6" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K6" s="36"/>
       <c r="L6" s="37"/>
       <c r="M6" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N6" s="38" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O6" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="P6" s="36" t="s">
-        <v>48</v>
-      </c>
       <c r="Q6" s="36" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="R6" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1675,48 +1711,48 @@
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
       <c r="D7" s="36" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I7" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J7" s="36" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K7" s="36" t="str">
         <f aca="false">"Below or right of "&amp;J6</f>
         <v>Below or right of Panadol Osteo</v>
       </c>
       <c r="L7" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M7" s="36" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N7" s="38"/>
       <c r="O7" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P7" s="36" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q7" s="36" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R7" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1724,48 +1760,48 @@
       <c r="B8" s="35"/>
       <c r="C8" s="35"/>
       <c r="D8" s="36" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I8" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J8" s="36" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K8" s="36" t="str">
         <f aca="false">"Below or right of "&amp;J7</f>
         <v>Below or right of Panadol Extra Optizorb</v>
       </c>
       <c r="L8" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M8" s="36" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="N8" s="38"/>
       <c r="O8" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P8" s="36" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q8" s="36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="R8" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1776,30 +1812,30 @@
       <c r="E9" s="36"/>
       <c r="F9" s="36"/>
       <c r="G9" s="36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I9" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J9" s="36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K9" s="36" t="str">
         <f aca="false">"Below or right of "&amp;J8</f>
         <v>Below or right of Panadol Rapid</v>
       </c>
       <c r="L9" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M9" s="36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N9" s="38"/>
       <c r="O9" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P9" s="36"/>
       <c r="Q9" s="36"/>
@@ -1813,30 +1849,30 @@
       <c r="E10" s="36"/>
       <c r="F10" s="36"/>
       <c r="G10" s="36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I10" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J10" s="36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K10" s="36" t="str">
         <f aca="false">"Below or right of "&amp;J9</f>
         <v>Below or right of Panadol Optizorb</v>
       </c>
       <c r="L10" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M10" s="36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N10" s="38"/>
       <c r="O10" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P10" s="36"/>
       <c r="Q10" s="36"/>
@@ -1850,30 +1886,30 @@
       <c r="E11" s="36"/>
       <c r="F11" s="36"/>
       <c r="G11" s="36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I11" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K11" s="36" t="str">
         <f aca="false">"Below or right of "&amp;J10</f>
         <v>Below or right of Panadol Mini</v>
       </c>
       <c r="L11" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M11" s="36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N11" s="38"/>
       <c r="O11" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P11" s="36"/>
       <c r="Q11" s="36"/>
@@ -1887,23 +1923,23 @@
       <c r="E12" s="36"/>
       <c r="F12" s="36"/>
       <c r="G12" s="36" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I12" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
       <c r="L12" s="37"/>
       <c r="M12" s="36" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N12" s="38"/>
       <c r="O12" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P12" s="36"/>
       <c r="Q12" s="36"/>
@@ -1917,13 +1953,13 @@
       <c r="E13" s="36"/>
       <c r="F13" s="36"/>
       <c r="G13" s="36" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H13" s="36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I13" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J13" s="36"/>
       <c r="K13" s="36"/>
@@ -1959,48 +1995,48 @@
       <c r="A15" s="35"/>
       <c r="B15" s="35"/>
       <c r="C15" s="35" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F15" s="41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G15" s="40" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H15" s="40" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I15" s="41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J15" s="40" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K15" s="40"/>
       <c r="L15" s="40"/>
       <c r="M15" s="40" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N15" s="42" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O15" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="P15" s="40" t="s">
-        <v>48</v>
-      </c>
       <c r="Q15" s="40" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="R15" s="41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2011,16 +2047,16 @@
       <c r="E16" s="40"/>
       <c r="F16" s="40"/>
       <c r="G16" s="40" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H16" s="40" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I16" s="41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J16" s="40" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K16" s="36" t="str">
         <f aca="false">"Below or right of "&amp;J15</f>
@@ -2028,11 +2064,11 @@
       </c>
       <c r="L16" s="40"/>
       <c r="M16" s="40" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N16" s="42"/>
       <c r="O16" s="41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P16" s="40"/>
       <c r="Q16" s="40"/>
@@ -2046,16 +2082,16 @@
       <c r="E17" s="40"/>
       <c r="F17" s="40"/>
       <c r="G17" s="40" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H17" s="40" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I17" s="41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J17" s="40" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K17" s="36" t="str">
         <f aca="false">"Below or right of "&amp;J16</f>
@@ -2063,11 +2099,11 @@
       </c>
       <c r="L17" s="40"/>
       <c r="M17" s="40" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N17" s="42"/>
       <c r="O17" s="41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P17" s="40"/>
       <c r="Q17" s="40"/>
@@ -2081,23 +2117,23 @@
       <c r="E18" s="40"/>
       <c r="F18" s="40"/>
       <c r="G18" s="40" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H18" s="40" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I18" s="41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J18" s="40"/>
       <c r="K18" s="40"/>
       <c r="L18" s="40"/>
       <c r="M18" s="40" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N18" s="42"/>
       <c r="O18" s="41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P18" s="40"/>
       <c r="Q18" s="40"/>
@@ -2117,11 +2153,11 @@
       <c r="K19" s="40"/>
       <c r="L19" s="40"/>
       <c r="M19" s="40" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N19" s="42"/>
       <c r="O19" s="41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P19" s="40"/>
       <c r="Q19" s="40"/>
@@ -2131,48 +2167,48 @@
       <c r="A20" s="35"/>
       <c r="B20" s="35"/>
       <c r="C20" s="35" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E20" s="36" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F20" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G20" s="36" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H20" s="36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I20" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J20" s="36" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K20" s="36"/>
       <c r="L20" s="36"/>
       <c r="M20" s="36" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N20" s="38" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O20" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P20" s="36" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q20" s="36" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R20" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2183,30 +2219,30 @@
       <c r="E21" s="44"/>
       <c r="F21" s="44"/>
       <c r="G21" s="44" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H21" s="36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I21" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J21" s="44" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K21" s="36" t="str">
         <f aca="false">"Below or right of "&amp;J20</f>
         <v>Below or right of Voltaren Emugel</v>
       </c>
       <c r="L21" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M21" s="44" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N21" s="38"/>
       <c r="O21" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P21" s="44"/>
       <c r="Q21" s="44"/>
@@ -2215,19 +2251,19 @@
     <row r="22" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="35"/>
       <c r="B22" s="35" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D22" s="45" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E22" s="40" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F22" s="41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G22" s="46"/>
       <c r="H22" s="46"/>
@@ -2236,22 +2272,22 @@
       <c r="K22" s="46"/>
       <c r="L22" s="46"/>
       <c r="M22" s="45" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N22" s="42" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O22" s="41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P22" s="45" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q22" s="40" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R22" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2259,13 +2295,13 @@
       <c r="B23" s="35"/>
       <c r="C23" s="43"/>
       <c r="D23" s="45" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E23" s="40" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F23" s="41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G23" s="46"/>
       <c r="H23" s="46"/>
@@ -2274,20 +2310,20 @@
       <c r="K23" s="46"/>
       <c r="L23" s="46"/>
       <c r="M23" s="45" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N23" s="42"/>
       <c r="O23" s="41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P23" s="45" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q23" s="40" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="R23" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2295,13 +2331,13 @@
       <c r="B24" s="35"/>
       <c r="C24" s="43"/>
       <c r="D24" s="45" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E24" s="40" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F24" s="41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G24" s="46"/>
       <c r="H24" s="46"/>
@@ -2310,70 +2346,70 @@
       <c r="K24" s="46"/>
       <c r="L24" s="46"/>
       <c r="M24" s="45" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N24" s="42"/>
       <c r="O24" s="41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P24" s="45" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q24" s="40" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="R24" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="35"/>
       <c r="B25" s="35" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C25" s="43" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D25" s="44" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E25" s="36" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F25" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G25" s="44" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H25" s="36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I25" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J25" s="44" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K25" s="44"/>
       <c r="L25" s="44"/>
       <c r="M25" s="44" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N25" s="38" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O25" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P25" s="44" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q25" s="36" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R25" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2384,16 +2420,16 @@
       <c r="E26" s="44"/>
       <c r="F26" s="44"/>
       <c r="G26" s="44" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H26" s="36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I26" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J26" s="44" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K26" s="36" t="str">
         <f aca="false">"Below or right of "&amp;J25</f>
@@ -2401,11 +2437,11 @@
       </c>
       <c r="L26" s="44"/>
       <c r="M26" s="44" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N26" s="38"/>
       <c r="O26" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P26" s="44"/>
       <c r="Q26" s="44"/>
@@ -2419,16 +2455,16 @@
       <c r="E27" s="44"/>
       <c r="F27" s="44"/>
       <c r="G27" s="44" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H27" s="36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I27" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J27" s="44" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K27" s="36" t="str">
         <f aca="false">"Below or right of "&amp;J26</f>
@@ -2436,11 +2472,11 @@
       </c>
       <c r="L27" s="44"/>
       <c r="M27" s="44" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N27" s="38"/>
       <c r="O27" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P27" s="44"/>
       <c r="Q27" s="44"/>
@@ -2468,54 +2504,54 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="35" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D29" s="48" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E29" s="36" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F29" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G29" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H29" s="36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I29" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J29" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K29" s="36"/>
       <c r="L29" s="37"/>
       <c r="M29" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N29" s="38" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O29" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="P29" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="P29" s="36" t="s">
-        <v>48</v>
-      </c>
       <c r="Q29" s="36" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="R29" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2523,48 +2559,48 @@
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
       <c r="D30" s="48" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E30" s="36" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F30" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G30" s="36" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H30" s="36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I30" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J30" s="36" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K30" s="36" t="str">
         <f aca="false">"Below or right of "&amp;J29</f>
         <v>Below or right of Panadol Osteo</v>
       </c>
       <c r="L30" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M30" s="36" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N30" s="38"/>
       <c r="O30" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P30" s="36" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q30" s="36" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R30" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2572,48 +2608,48 @@
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
       <c r="D31" s="48" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E31" s="36" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F31" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G31" s="36" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H31" s="36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I31" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J31" s="36" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K31" s="36" t="str">
         <f aca="false">"Below or right of "&amp;J30</f>
         <v>Below or right of Panadol Extra Optizorb</v>
       </c>
       <c r="L31" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M31" s="36" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="N31" s="38"/>
       <c r="O31" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P31" s="36" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q31" s="36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="R31" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2624,30 +2660,30 @@
       <c r="E32" s="36"/>
       <c r="F32" s="36"/>
       <c r="G32" s="36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H32" s="36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I32" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J32" s="36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K32" s="36" t="str">
         <f aca="false">"Below or right of "&amp;J31</f>
         <v>Below or right of Panadol Rapid</v>
       </c>
       <c r="L32" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M32" s="36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N32" s="38"/>
       <c r="O32" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P32" s="36"/>
       <c r="Q32" s="36"/>
@@ -2661,30 +2697,30 @@
       <c r="E33" s="36"/>
       <c r="F33" s="36"/>
       <c r="G33" s="36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H33" s="36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I33" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J33" s="36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K33" s="36" t="str">
         <f aca="false">"Below or right of "&amp;J32</f>
         <v>Below or right of Panadol Optizorb</v>
       </c>
       <c r="L33" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M33" s="36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N33" s="38"/>
       <c r="O33" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P33" s="36"/>
       <c r="Q33" s="36"/>
@@ -2698,30 +2734,30 @@
       <c r="E34" s="36"/>
       <c r="F34" s="36"/>
       <c r="G34" s="36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H34" s="36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I34" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J34" s="36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K34" s="36" t="str">
         <f aca="false">"Below or right of "&amp;J33</f>
         <v>Below or right of Panadol Mini</v>
       </c>
       <c r="L34" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M34" s="36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N34" s="38"/>
       <c r="O34" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P34" s="36"/>
       <c r="Q34" s="36"/>
@@ -2735,23 +2771,23 @@
       <c r="E35" s="36"/>
       <c r="F35" s="36"/>
       <c r="G35" s="36" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H35" s="36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I35" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J35" s="36"/>
       <c r="K35" s="36"/>
       <c r="L35" s="37"/>
       <c r="M35" s="36" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N35" s="38"/>
       <c r="O35" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P35" s="36"/>
       <c r="Q35" s="36"/>
@@ -2765,13 +2801,13 @@
       <c r="E36" s="36"/>
       <c r="F36" s="36"/>
       <c r="G36" s="36" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H36" s="36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I36" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J36" s="36"/>
       <c r="K36" s="36"/>
@@ -2787,56 +2823,56 @@
       <c r="A37" s="35"/>
       <c r="B37" s="35"/>
       <c r="C37" s="35" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D37" s="40" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E37" s="40" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F37" s="41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G37" s="46"/>
       <c r="H37" s="46"/>
       <c r="I37" s="46"/>
       <c r="J37" s="40" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K37" s="40" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L37" s="41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M37" s="46"/>
       <c r="N37" s="49"/>
       <c r="O37" s="46"/>
       <c r="P37" s="40" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q37" s="40" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="R37" s="41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="35"/>
       <c r="B38" s="35"/>
       <c r="C38" s="35" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D38" s="36" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E38" s="36" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F38" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G38" s="50"/>
       <c r="H38" s="50"/>
@@ -2848,31 +2884,31 @@
       <c r="N38" s="52"/>
       <c r="O38" s="51"/>
       <c r="P38" s="36" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q38" s="36" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R38" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="35"/>
       <c r="B39" s="35" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C39" s="43" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D39" s="45" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E39" s="40" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F39" s="41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G39" s="46"/>
       <c r="H39" s="46"/>
@@ -2884,63 +2920,63 @@
       <c r="N39" s="49"/>
       <c r="O39" s="46"/>
       <c r="P39" s="45" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q39" s="40" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R39" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A40" s="35"/>
       <c r="B40" s="35" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C40" s="43" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D40" s="44" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E40" s="36" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F40" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G40" s="44" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H40" s="36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I40" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J40" s="44" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="K40" s="44"/>
       <c r="L40" s="44"/>
       <c r="M40" s="44" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="N40" s="38" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O40" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P40" s="44" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q40" s="36" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R40" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2951,16 +2987,16 @@
       <c r="E41" s="44"/>
       <c r="F41" s="44"/>
       <c r="G41" s="44" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H41" s="36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I41" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J41" s="44" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K41" s="36" t="str">
         <f aca="false">"Below or right of "&amp;J40</f>
@@ -2968,11 +3004,11 @@
       </c>
       <c r="L41" s="44"/>
       <c r="M41" s="44" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N41" s="38"/>
       <c r="O41" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P41" s="44"/>
       <c r="Q41" s="44"/>
@@ -2986,16 +3022,16 @@
       <c r="E42" s="44"/>
       <c r="F42" s="44"/>
       <c r="G42" s="44" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H42" s="36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I42" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J42" s="44" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K42" s="36" t="str">
         <f aca="false">"Below or right of "&amp;J41</f>
@@ -3003,11 +3039,11 @@
       </c>
       <c r="L42" s="44"/>
       <c r="M42" s="44" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N42" s="38"/>
       <c r="O42" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P42" s="44"/>
       <c r="Q42" s="44"/>
@@ -3015,58 +3051,58 @@
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A45" s="35" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B45" s="35" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C45" s="35" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D45" s="48" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E45" s="36" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F45" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="G45" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="H45" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I45" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="J45" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="K45" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="L45" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="M45" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="N45" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="O45" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="P45" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="G45" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="H45" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="I45" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="J45" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="K45" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="L45" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="M45" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="N45" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="O45" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="P45" s="36" t="s">
-        <v>48</v>
-      </c>
       <c r="Q45" s="36" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="R45" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3074,47 +3110,47 @@
       <c r="B46" s="35"/>
       <c r="C46" s="35"/>
       <c r="D46" s="48" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E46" s="36" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F46" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G46" s="36" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H46" s="36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I46" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J46" s="36" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K46" s="36" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L46" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M46" s="36" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N46" s="38"/>
       <c r="O46" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P46" s="36" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q46" s="36" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R46" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3122,38 +3158,38 @@
       <c r="B47" s="35"/>
       <c r="C47" s="35"/>
       <c r="D47" s="48" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E47" s="36" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F47" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G47" s="36" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H47" s="36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I47" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J47" s="36" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K47" s="36" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L47" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M47" s="36" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="N47" s="38"/>
       <c r="O47" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P47" s="36"/>
       <c r="Q47" s="36"/>
@@ -3167,29 +3203,29 @@
       <c r="E48" s="36"/>
       <c r="F48" s="36"/>
       <c r="G48" s="36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H48" s="36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I48" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J48" s="36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K48" s="36" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L48" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M48" s="36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N48" s="38"/>
       <c r="O48" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P48" s="36"/>
       <c r="Q48" s="36"/>
@@ -3203,29 +3239,29 @@
       <c r="E49" s="36"/>
       <c r="F49" s="36"/>
       <c r="G49" s="36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H49" s="36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I49" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J49" s="36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K49" s="36" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L49" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M49" s="36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N49" s="38"/>
       <c r="O49" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P49" s="36"/>
       <c r="Q49" s="36"/>
@@ -3239,29 +3275,29 @@
       <c r="E50" s="36"/>
       <c r="F50" s="36"/>
       <c r="G50" s="36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H50" s="36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I50" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J50" s="36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K50" s="36" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L50" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M50" s="36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N50" s="38"/>
       <c r="O50" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P50" s="36"/>
       <c r="Q50" s="36"/>
@@ -3275,29 +3311,29 @@
       <c r="E51" s="36"/>
       <c r="F51" s="36"/>
       <c r="G51" s="36" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H51" s="36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I51" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J51" s="36" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K51" s="36" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L51" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M51" s="36" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N51" s="38"/>
       <c r="O51" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P51" s="36"/>
       <c r="Q51" s="36"/>
@@ -3311,19 +3347,19 @@
       <c r="E52" s="36"/>
       <c r="F52" s="36"/>
       <c r="G52" s="36" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H52" s="36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I52" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J52" s="36"/>
       <c r="K52" s="36"/>
       <c r="L52" s="37"/>
       <c r="M52" s="36" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N52" s="38"/>
       <c r="O52" s="37"/>
@@ -3335,56 +3371,56 @@
       <c r="A53" s="35"/>
       <c r="B53" s="35"/>
       <c r="C53" s="35" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D53" s="40" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E53" s="40" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F53" s="41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G53" s="46"/>
       <c r="H53" s="46"/>
       <c r="I53" s="46"/>
       <c r="J53" s="40" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K53" s="40" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L53" s="41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M53" s="46"/>
       <c r="N53" s="49"/>
       <c r="O53" s="46"/>
       <c r="P53" s="40" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q53" s="40" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="R53" s="41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="35"/>
       <c r="B54" s="35"/>
       <c r="C54" s="35" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D54" s="36" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E54" s="36" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F54" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G54" s="50"/>
       <c r="H54" s="50"/>
@@ -3396,31 +3432,31 @@
       <c r="N54" s="52"/>
       <c r="O54" s="51"/>
       <c r="P54" s="36" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q54" s="36" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R54" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="35"/>
       <c r="B55" s="35" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C55" s="43" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D55" s="45" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E55" s="40" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F55" s="41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G55" s="46"/>
       <c r="H55" s="46"/>
@@ -3432,31 +3468,31 @@
       <c r="N55" s="49"/>
       <c r="O55" s="46"/>
       <c r="P55" s="45" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q55" s="40" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R55" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="35"/>
       <c r="B56" s="35" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C56" s="43" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D56" s="44" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E56" s="36" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F56" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G56" s="50"/>
       <c r="H56" s="50"/>
@@ -3468,13 +3504,13 @@
       <c r="N56" s="50"/>
       <c r="O56" s="51"/>
       <c r="P56" s="44" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q56" s="36" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R56" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -3520,7 +3556,7 @@
   <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="L1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+      <selection pane="topLeft" activeCell="P7" activeCellId="0" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3594,48 +3630,48 @@
         <v>14</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E2" s="53" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F2" s="54" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G2" s="55"/>
       <c r="H2" s="55"/>
@@ -3652,47 +3688,47 @@
         <v>0.4</v>
       </c>
       <c r="Q2" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="R2" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="S2" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="U2" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="V2" s="4"/>
       <c r="W2" s="4"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E3" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="F3" s="56" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="56" t="s">
         <v>25</v>
-      </c>
-      <c r="F3" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="G3" s="53" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="56" t="s">
-        <v>23</v>
       </c>
       <c r="I3" s="53"/>
       <c r="J3" s="53"/>
@@ -3707,38 +3743,38 @@
         <v>0.4</v>
       </c>
       <c r="Q3" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="U3" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="V3" s="4"/>
       <c r="W3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="13.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D4" s="57" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E4" s="55" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F4" s="55" t="n">
         <v>4210201185482</v>
@@ -3758,39 +3794,39 @@
         <v>1</v>
       </c>
       <c r="Q4" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="R4" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="S4" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="U4" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E5" s="55" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F5" s="54" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G5" s="55"/>
       <c r="H5" s="55"/>
@@ -3807,39 +3843,39 @@
         <v>0.5</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="S5" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="U5" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E6" s="55" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F6" s="55" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="G6" s="55"/>
       <c r="H6" s="55"/>
@@ -3856,19 +3892,19 @@
         <v>0.8</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3918,7 +3954,7 @@
   <sheetData>
     <row r="2" s="14" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="12" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12"/>
@@ -3965,36 +4001,36 @@
     </row>
     <row r="4" s="23" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="17" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="18"/>
       <c r="G4" s="19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H4" s="19"/>
       <c r="I4" s="19"/>
       <c r="J4" s="20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K4" s="20"/>
       <c r="L4" s="20"/>
       <c r="M4" s="21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N4" s="21"/>
       <c r="O4" s="21"/>
       <c r="P4" s="22" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="Q4" s="22"/>
       <c r="R4" s="22"/>
@@ -4005,101 +4041,101 @@
       <c r="B5" s="17"/>
       <c r="C5" s="17"/>
       <c r="D5" s="25" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E5" s="26" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F5" s="26" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="28" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="29" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="O5" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="P5" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="Q5" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="28" t="s">
-        <v>43</v>
-      </c>
-      <c r="J5" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="L5" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="M5" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="N5" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="O5" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="P5" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q5" s="33" t="s">
-        <v>42</v>
-      </c>
       <c r="R5" s="33" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="35" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D6" s="36" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E6" s="36" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="H6" s="36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I6" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J6" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K6" s="36"/>
       <c r="L6" s="37"/>
       <c r="M6" s="36" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="N6" s="38" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O6" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="P6" s="36" t="s">
-        <v>48</v>
-      </c>
       <c r="Q6" s="36" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="R6" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4107,48 +4143,48 @@
       <c r="B7" s="35"/>
       <c r="C7" s="35"/>
       <c r="D7" s="36" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E7" s="36" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H7" s="36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I7" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J7" s="36" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K7" s="36" t="str">
         <f aca="false">"Below or right of "&amp;J6</f>
         <v>Below or right of Panadol Osteo</v>
       </c>
       <c r="L7" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M7" s="36" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N7" s="38"/>
       <c r="O7" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P7" s="36" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q7" s="36" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R7" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4156,48 +4192,48 @@
       <c r="B8" s="35"/>
       <c r="C8" s="35"/>
       <c r="D8" s="36" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E8" s="36" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H8" s="36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I8" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J8" s="36" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K8" s="36" t="str">
         <f aca="false">"Below or Left of "&amp;J7</f>
         <v>Below or Left of Panadol Extra Optizorb</v>
       </c>
       <c r="L8" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M8" s="36" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="N8" s="38"/>
       <c r="O8" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P8" s="36" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Q8" s="36" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="R8" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4208,30 +4244,30 @@
       <c r="E9" s="36"/>
       <c r="F9" s="36"/>
       <c r="G9" s="36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H9" s="36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I9" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J9" s="36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K9" s="36" t="str">
         <f aca="false">"Below -  "&amp;J8</f>
         <v>Below -  Panadol Rapid</v>
       </c>
       <c r="L9" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M9" s="36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N9" s="38"/>
       <c r="O9" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P9" s="36"/>
       <c r="Q9" s="36"/>
@@ -4245,30 +4281,30 @@
       <c r="E10" s="36"/>
       <c r="F10" s="36"/>
       <c r="G10" s="36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H10" s="36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I10" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J10" s="36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K10" s="36" t="str">
         <f aca="false">"Below -  "&amp;J9</f>
         <v>Below -  Panadol Optizorb</v>
       </c>
       <c r="L10" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M10" s="36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N10" s="38"/>
       <c r="O10" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P10" s="36"/>
       <c r="Q10" s="36"/>
@@ -4282,30 +4318,30 @@
       <c r="E11" s="36"/>
       <c r="F11" s="36"/>
       <c r="G11" s="36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H11" s="36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I11" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K11" s="36" t="str">
         <f aca="false">"Below or Left of "&amp;J10</f>
         <v>Below or Left of Panadol Mini</v>
       </c>
       <c r="L11" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M11" s="36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N11" s="38"/>
       <c r="O11" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P11" s="36"/>
       <c r="Q11" s="36"/>
@@ -4319,23 +4355,23 @@
       <c r="E12" s="36"/>
       <c r="F12" s="36"/>
       <c r="G12" s="36" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H12" s="36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I12" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J12" s="36"/>
       <c r="K12" s="36"/>
       <c r="L12" s="37"/>
       <c r="M12" s="36" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N12" s="38"/>
       <c r="O12" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P12" s="36"/>
       <c r="Q12" s="36"/>
@@ -4349,13 +4385,13 @@
       <c r="E13" s="36"/>
       <c r="F13" s="36"/>
       <c r="G13" s="36" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H13" s="36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I13" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J13" s="36"/>
       <c r="K13" s="36"/>
@@ -4391,48 +4427,48 @@
       <c r="A15" s="35"/>
       <c r="B15" s="35"/>
       <c r="C15" s="35" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D15" s="40" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F15" s="41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G15" s="40" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H15" s="40" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I15" s="41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J15" s="40" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K15" s="40"/>
       <c r="L15" s="40"/>
       <c r="M15" s="40" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N15" s="42" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O15" s="41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P15" s="40" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q15" s="40" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="R15" s="41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4443,16 +4479,16 @@
       <c r="E16" s="40"/>
       <c r="F16" s="40"/>
       <c r="G16" s="40" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="H16" s="40" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I16" s="41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J16" s="40" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K16" s="36" t="str">
         <f aca="false">"Below or right of "&amp;J15</f>
@@ -4460,11 +4496,11 @@
       </c>
       <c r="L16" s="40"/>
       <c r="M16" s="40" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="N16" s="42"/>
       <c r="O16" s="41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P16" s="40"/>
       <c r="Q16" s="40"/>
@@ -4478,16 +4514,16 @@
       <c r="E17" s="40"/>
       <c r="F17" s="40"/>
       <c r="G17" s="40" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H17" s="40" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I17" s="41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J17" s="40" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K17" s="36" t="str">
         <f aca="false">"Below or right of "&amp;J16</f>
@@ -4495,11 +4531,11 @@
       </c>
       <c r="L17" s="40"/>
       <c r="M17" s="40" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N17" s="42"/>
       <c r="O17" s="41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P17" s="40"/>
       <c r="Q17" s="40"/>
@@ -4513,23 +4549,23 @@
       <c r="E18" s="40"/>
       <c r="F18" s="40"/>
       <c r="G18" s="40" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="H18" s="40" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I18" s="41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J18" s="40"/>
       <c r="K18" s="40"/>
       <c r="L18" s="40"/>
       <c r="M18" s="40" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N18" s="42"/>
       <c r="O18" s="41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P18" s="40"/>
       <c r="Q18" s="40"/>
@@ -4549,11 +4585,11 @@
       <c r="K19" s="40"/>
       <c r="L19" s="40"/>
       <c r="M19" s="40" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N19" s="42"/>
       <c r="O19" s="41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P19" s="40"/>
       <c r="Q19" s="40"/>
@@ -4563,50 +4599,50 @@
       <c r="A20" s="35"/>
       <c r="B20" s="35"/>
       <c r="C20" s="35" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D20" s="36" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E20" s="36" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F20" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G20" s="36" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H20" s="36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I20" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J20" s="36" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K20" s="36" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L20" s="36"/>
       <c r="M20" s="36" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="N20" s="38" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O20" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P20" s="36" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q20" s="36" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R20" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4617,29 +4653,29 @@
       <c r="E21" s="44"/>
       <c r="F21" s="44"/>
       <c r="G21" s="44" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H21" s="36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I21" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J21" s="44" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K21" s="36" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L21" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M21" s="44" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="N21" s="38"/>
       <c r="O21" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P21" s="44"/>
       <c r="Q21" s="44"/>
@@ -4648,19 +4684,19 @@
     <row r="22" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="35"/>
       <c r="B22" s="35" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C22" s="43" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D22" s="45" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E22" s="40" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F22" s="41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G22" s="46"/>
       <c r="H22" s="46"/>
@@ -4669,22 +4705,22 @@
       <c r="K22" s="46"/>
       <c r="L22" s="46"/>
       <c r="M22" s="45" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="N22" s="42" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O22" s="41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P22" s="45" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q22" s="40" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R22" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4692,13 +4728,13 @@
       <c r="B23" s="35"/>
       <c r="C23" s="43"/>
       <c r="D23" s="45" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E23" s="40" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F23" s="41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G23" s="46"/>
       <c r="H23" s="46"/>
@@ -4707,20 +4743,20 @@
       <c r="K23" s="46"/>
       <c r="L23" s="46"/>
       <c r="M23" s="45" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N23" s="42"/>
       <c r="O23" s="41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P23" s="45" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q23" s="40" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="R23" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4728,13 +4764,13 @@
       <c r="B24" s="35"/>
       <c r="C24" s="43"/>
       <c r="D24" s="45" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E24" s="40" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F24" s="41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G24" s="46"/>
       <c r="H24" s="46"/>
@@ -4743,70 +4779,70 @@
       <c r="K24" s="46"/>
       <c r="L24" s="46"/>
       <c r="M24" s="45" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="N24" s="42"/>
       <c r="O24" s="41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P24" s="45" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q24" s="40" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="R24" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A25" s="35"/>
       <c r="B25" s="35" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C25" s="43" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D25" s="44" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E25" s="36" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F25" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G25" s="44" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H25" s="36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I25" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J25" s="44" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="K25" s="44"/>
       <c r="L25" s="44"/>
       <c r="M25" s="44" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N25" s="38" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="O25" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P25" s="44" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q25" s="36" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R25" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4817,16 +4853,16 @@
       <c r="E26" s="44"/>
       <c r="F26" s="44"/>
       <c r="G26" s="44" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="H26" s="36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I26" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J26" s="44" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="K26" s="36" t="str">
         <f aca="false">"Below or right of "&amp;J25</f>
@@ -4834,11 +4870,11 @@
       </c>
       <c r="L26" s="44"/>
       <c r="M26" s="44" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="N26" s="38"/>
       <c r="O26" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P26" s="44"/>
       <c r="Q26" s="44"/>
@@ -4852,16 +4888,16 @@
       <c r="E27" s="44"/>
       <c r="F27" s="44"/>
       <c r="G27" s="44" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H27" s="36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I27" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J27" s="44" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="K27" s="36" t="str">
         <f aca="false">"Below or right of "&amp;J26</f>
@@ -4869,11 +4905,11 @@
       </c>
       <c r="L27" s="44"/>
       <c r="M27" s="44" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N27" s="38"/>
       <c r="O27" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P27" s="44"/>
       <c r="Q27" s="44"/>
@@ -4901,58 +4937,58 @@
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A29" s="35" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B29" s="35" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D29" s="48" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E29" s="36" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F29" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="H29" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="I29" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="J29" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="K29" s="36" t="s">
+        <v>97</v>
+      </c>
+      <c r="L29" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="M29" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="N29" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="O29" s="37" t="s">
+        <v>52</v>
+      </c>
+      <c r="P29" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="G29" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="H29" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="I29" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="J29" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="K29" s="36" t="s">
-        <v>95</v>
-      </c>
-      <c r="L29" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="M29" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="N29" s="38" t="s">
-        <v>53</v>
-      </c>
-      <c r="O29" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="P29" s="36" t="s">
-        <v>48</v>
-      </c>
       <c r="Q29" s="36" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="R29" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4960,47 +4996,47 @@
       <c r="B30" s="35"/>
       <c r="C30" s="35"/>
       <c r="D30" s="48" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E30" s="36" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F30" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G30" s="36" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H30" s="36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I30" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J30" s="36" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K30" s="36" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L30" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M30" s="36" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="N30" s="38"/>
       <c r="O30" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P30" s="36" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="Q30" s="36" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R30" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5008,38 +5044,38 @@
       <c r="B31" s="35"/>
       <c r="C31" s="35"/>
       <c r="D31" s="48" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E31" s="36" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F31" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G31" s="36" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="H31" s="36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I31" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J31" s="36" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K31" s="36" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L31" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M31" s="36" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="N31" s="38"/>
       <c r="O31" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P31" s="36"/>
       <c r="Q31" s="36"/>
@@ -5053,29 +5089,29 @@
       <c r="E32" s="36"/>
       <c r="F32" s="36"/>
       <c r="G32" s="36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H32" s="36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I32" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J32" s="36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K32" s="36" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L32" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M32" s="36" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N32" s="38"/>
       <c r="O32" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P32" s="36"/>
       <c r="Q32" s="36"/>
@@ -5089,29 +5125,29 @@
       <c r="E33" s="36"/>
       <c r="F33" s="36"/>
       <c r="G33" s="36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="H33" s="36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I33" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J33" s="36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K33" s="36" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L33" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M33" s="36" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N33" s="38"/>
       <c r="O33" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P33" s="36"/>
       <c r="Q33" s="36"/>
@@ -5125,29 +5161,29 @@
       <c r="E34" s="36"/>
       <c r="F34" s="36"/>
       <c r="G34" s="36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H34" s="36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I34" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J34" s="36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K34" s="36" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="L34" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M34" s="36" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="N34" s="38"/>
       <c r="O34" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P34" s="36"/>
       <c r="Q34" s="36"/>
@@ -5161,29 +5197,29 @@
       <c r="E35" s="36"/>
       <c r="F35" s="36"/>
       <c r="G35" s="36" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="H35" s="36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I35" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J35" s="36" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K35" s="36" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L35" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M35" s="36" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N35" s="38"/>
       <c r="O35" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P35" s="36"/>
       <c r="Q35" s="36"/>
@@ -5197,19 +5233,19 @@
       <c r="E36" s="36"/>
       <c r="F36" s="36"/>
       <c r="G36" s="36" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="H36" s="36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I36" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="J36" s="36"/>
       <c r="K36" s="36"/>
       <c r="L36" s="37"/>
       <c r="M36" s="36" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="N36" s="38"/>
       <c r="O36" s="37"/>
@@ -5221,56 +5257,56 @@
       <c r="A37" s="35"/>
       <c r="B37" s="35"/>
       <c r="C37" s="35" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D37" s="40" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E37" s="40" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F37" s="41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G37" s="46"/>
       <c r="H37" s="46"/>
       <c r="I37" s="46"/>
       <c r="J37" s="40" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K37" s="40" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L37" s="41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M37" s="46"/>
       <c r="N37" s="49"/>
       <c r="O37" s="46"/>
       <c r="P37" s="40" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="Q37" s="40" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="R37" s="41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="35"/>
       <c r="B38" s="35"/>
       <c r="C38" s="35" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D38" s="36" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E38" s="36" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F38" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G38" s="50"/>
       <c r="H38" s="50"/>
@@ -5282,31 +5318,31 @@
       <c r="N38" s="52"/>
       <c r="O38" s="51"/>
       <c r="P38" s="36" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q38" s="36" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="R38" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="35"/>
       <c r="B39" s="35" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C39" s="43" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D39" s="45" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E39" s="40" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F39" s="41" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G39" s="46"/>
       <c r="H39" s="46"/>
@@ -5318,31 +5354,31 @@
       <c r="N39" s="49"/>
       <c r="O39" s="46"/>
       <c r="P39" s="45" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q39" s="40" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="R39" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="35"/>
       <c r="B40" s="35" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C40" s="43" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D40" s="44" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E40" s="36" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F40" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G40" s="50"/>
       <c r="H40" s="50"/>
@@ -5354,13 +5390,13 @@
       <c r="N40" s="50"/>
       <c r="O40" s="51"/>
       <c r="P40" s="44" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q40" s="36" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R40" s="37" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -5422,7 +5458,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="60" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B1" s="60"/>
       <c r="C1" s="60"/>
@@ -5434,7 +5470,7 @@
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="61" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C2" s="61"/>
       <c r="D2" s="61"/>
@@ -5446,7 +5482,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="61" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C3" s="61"/>
       <c r="D3" s="61"/>
@@ -5467,7 +5503,7 @@
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="63" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B5" s="64"/>
       <c r="C5" s="64"/>
@@ -5479,31 +5515,31 @@
     </row>
     <row r="6" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="65" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B6" s="65" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C6" s="65" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D6" s="65" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E6" s="65" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="F6" s="65" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G6" s="65" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H6" s="65" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I6" s="65" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5511,28 +5547,28 @@
         <v>8</v>
       </c>
       <c r="B7" s="67" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C7" s="67" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D7" s="68" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E7" s="68" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F7" s="68" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G7" s="68" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H7" s="68" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I7" s="68" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5540,28 +5576,28 @@
         <v>9</v>
       </c>
       <c r="B8" s="67" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C8" s="67" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D8" s="68" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E8" s="68" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F8" s="68" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G8" s="68" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H8" s="68" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I8" s="68" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5569,28 +5605,28 @@
         <v>10</v>
       </c>
       <c r="B9" s="67" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C9" s="67" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D9" s="68" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E9" s="68" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F9" s="68" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G9" s="68" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H9" s="68" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I9" s="68" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5598,28 +5634,28 @@
         <v>11</v>
       </c>
       <c r="B10" s="67" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C10" s="67" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D10" s="68" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E10" s="68" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F10" s="68" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G10" s="68" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H10" s="68" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I10" s="68" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5627,45 +5663,45 @@
         <v>12</v>
       </c>
       <c r="B11" s="67" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C11" s="67" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D11" s="68" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E11" s="68" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F11" s="68" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G11" s="68" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="H11" s="68" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="I11" s="68" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="65" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B13" s="65" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C13" s="65" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D13" s="65" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E13" s="65" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5673,16 +5709,16 @@
         <v>8</v>
       </c>
       <c r="B14" s="67" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C14" s="67" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D14" s="67" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E14" s="67" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5690,16 +5726,16 @@
         <v>9</v>
       </c>
       <c r="B15" s="67" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C15" s="67" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D15" s="67" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E15" s="67" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5707,16 +5743,16 @@
         <v>10</v>
       </c>
       <c r="B16" s="67" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C16" s="67" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D16" s="67" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E16" s="67" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5724,16 +5760,16 @@
         <v>11</v>
       </c>
       <c r="B17" s="67" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C17" s="67" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D17" s="67" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E17" s="67" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5741,32 +5777,32 @@
         <v>12</v>
       </c>
       <c r="B18" s="67" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C18" s="67" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D18" s="67" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E18" s="67" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="63" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="65" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B21" s="65" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C21" s="65" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5774,10 +5810,10 @@
         <v>8</v>
       </c>
       <c r="B22" s="67" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C22" s="67" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5785,10 +5821,10 @@
         <v>9</v>
       </c>
       <c r="B23" s="67" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C23" s="67" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5796,10 +5832,10 @@
         <v>10</v>
       </c>
       <c r="B24" s="67" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C24" s="67" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5807,10 +5843,10 @@
         <v>11</v>
       </c>
       <c r="B25" s="67" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C25" s="67" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5818,29 +5854,29 @@
         <v>12</v>
       </c>
       <c r="B26" s="67" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C26" s="67" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="63" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="65" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B29" s="65" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C29" s="65" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D29" s="65" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5848,13 +5884,13 @@
         <v>8</v>
       </c>
       <c r="B30" s="67" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C30" s="67" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D30" s="67" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5862,13 +5898,13 @@
         <v>9</v>
       </c>
       <c r="B31" s="67" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C31" s="67" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D31" s="67" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5876,13 +5912,13 @@
         <v>10</v>
       </c>
       <c r="B32" s="67" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C32" s="67" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D32" s="67" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5890,13 +5926,13 @@
         <v>11</v>
       </c>
       <c r="B33" s="67" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C33" s="67" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D33" s="67" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5904,32 +5940,32 @@
         <v>12</v>
       </c>
       <c r="B34" s="67" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C34" s="67" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D34" s="67" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="63" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="65" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B37" s="65" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C37" s="65" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D37" s="65" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5937,13 +5973,13 @@
         <v>8</v>
       </c>
       <c r="B38" s="67" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C38" s="67" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D38" s="67" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5951,13 +5987,13 @@
         <v>9</v>
       </c>
       <c r="B39" s="67" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C39" s="67" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D39" s="67" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5965,13 +6001,13 @@
         <v>10</v>
       </c>
       <c r="B40" s="67" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C40" s="67" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D40" s="67" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5979,13 +6015,13 @@
         <v>11</v>
       </c>
       <c r="B41" s="67" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C41" s="67" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D41" s="67" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5993,13 +6029,13 @@
         <v>12</v>
       </c>
       <c r="B42" s="67" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C42" s="67" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D42" s="67" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/PNGJP_SAND2/Data/TemplateBlockAndGoldenZoneKPI.xlsx
+++ b/Projects/PNGJP_SAND2/Data/TemplateBlockAndGoldenZoneKPI.xlsx
@@ -1205,7 +1205,7 @@
   <dimension ref="A1:AMJ5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="Q1" activeCellId="0" sqref="Q1"/>
+      <selection pane="topLeft" activeCell="P3" activeCellId="0" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1324,7 +1324,7 @@
         <v>1</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="4" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>1</v>
       </c>
       <c r="P3" s="1" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3" s="1" t="n">
         <v>0</v>

--- a/Projects/PNGJP_SAND2/Data/TemplateBlockAndGoldenZoneKPI.xlsx
+++ b/Projects/PNGJP_SAND2/Data/TemplateBlockAndGoldenZoneKPI.xlsx
@@ -15,8 +15,8 @@
     <sheet name="Golden Zone" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Golden Zone'!$A$1:$V$13</definedName>
-    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Golden Zone'!$A$1:$V$6</definedName>
+    <definedName function="false" hidden="true" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Golden Zone'!$A$1:$V$6</definedName>
+    <definedName function="false" hidden="false" localSheetId="4" name="_xlnm._FilterDatabase" vbProcedure="false">'Golden Zone'!$A$1:$V$13</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0"/>
   <extLst>
@@ -282,6 +282,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Is Whisper Boutique </t>
     </r>
@@ -291,6 +292,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ｱﾃﾝﾄ</t>
     </r>
@@ -300,6 +302,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -309,6 +312,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">in Blocked?</t>
     </r>
@@ -326,6 +330,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Is Whisper Boutique </t>
     </r>
@@ -335,6 +340,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ﾘﾘｰﾌ</t>
     </r>
@@ -344,6 +350,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -353,6 +360,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">in Blocked?</t>
     </r>
@@ -843,6 +851,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Is Whisper Boutique </t>
     </r>
@@ -852,6 +861,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ｱﾃﾝﾄ</t>
     </r>
@@ -861,6 +871,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -870,6 +881,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">in GZone?</t>
     </r>
@@ -881,6 +893,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Is Whisper Boutique </t>
     </r>
@@ -890,6 +903,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">ﾘﾘｰﾌ</t>
     </r>
@@ -899,6 +913,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -908,6 +923,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">in GZone?</t>
     </r>
@@ -927,7 +943,7 @@
     <numFmt numFmtId="167" formatCode="MMM\ DD"/>
     <numFmt numFmtId="168" formatCode="0.00%"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -992,24 +1008,6 @@
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Noto Sans CJK SC"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Noto Sans CJK SC"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -1309,7 +1307,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="89">
+  <cellXfs count="88">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1398,7 +1396,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1406,7 +1404,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1418,55 +1416,51 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="7" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="10" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="10" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="11" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="11" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="12" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="12" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="13" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1478,39 +1472,39 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="9" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="10" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="10" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="11" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="11" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="12" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="12" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="12" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="12" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="13" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="13" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="13" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1594,7 +1588,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1606,7 +1600,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1654,7 +1648,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="21" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="21" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1662,7 +1656,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="21" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="21" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1749,8 +1743,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2269,7 +2263,7 @@
       <c r="A12" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="22" t="s">
         <v>58</v>
       </c>
       <c r="C12" s="22" t="s">
@@ -2301,6 +2295,7 @@
       </c>
       <c r="AMJ12" s="26"/>
     </row>
+    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -2330,2017 +2325,2017 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="28" width="14.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="28" width="13.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="28" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="28" width="18.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="28" width="23.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="28" width="10.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="28" width="24.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="28" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="28" width="10.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="28" width="23.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="28" width="37.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="28" width="10.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="28" width="23.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="28" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="28" width="10.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="28" width="18.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="28" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="28" width="10.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="28" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="27" width="14.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="27" width="13.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="27" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="27" width="18.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="27" width="23.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="27" width="10.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="27" width="24.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="27" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="27" width="10.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="27" width="23.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="27" width="37.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="27" width="10.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="27" width="23.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="27" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="27" width="10.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="27" width="18.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="27" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="27" width="10.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="27" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="2" s="31" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="29" t="s">
+    <row r="2" s="30" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="30" t="n">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="29" t="n">
         <v>0.2</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30" t="n">
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29" t="n">
         <v>0.2</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30" t="n">
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29" t="n">
         <v>0.2</v>
       </c>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30" t="n">
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29" t="n">
         <v>0.2</v>
       </c>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30" t="n">
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29" t="n">
         <v>0.2</v>
       </c>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-    </row>
-    <row r="3" s="31" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-    </row>
-    <row r="4" s="40" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="34" t="s">
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+    </row>
+    <row r="3" s="30" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+    </row>
+    <row r="4" s="39" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="36" t="s">
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="37" t="s">
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="38" t="s">
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="39" t="s">
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="T4" s="41"/>
-    </row>
-    <row r="5" s="51" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="42" t="s">
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="T4" s="40"/>
+    </row>
+    <row r="5" s="50" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="43" t="s">
+      <c r="F5" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="G5" s="44" t="s">
+      <c r="G5" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="45" t="s">
+      <c r="H5" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="I5" s="45" t="s">
+      <c r="I5" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="J5" s="46" t="s">
+      <c r="J5" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="K5" s="46" t="s">
+      <c r="K5" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="L5" s="46" t="s">
+      <c r="L5" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="M5" s="47" t="s">
+      <c r="M5" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="N5" s="48" t="s">
+      <c r="N5" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="O5" s="48" t="s">
+      <c r="O5" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="P5" s="49" t="s">
+      <c r="P5" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="Q5" s="50" t="s">
+      <c r="Q5" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="R5" s="50" t="s">
+      <c r="R5" s="49" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="F6" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="G6" s="53" t="s">
+      <c r="F6" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="H6" s="53" t="s">
+      <c r="H6" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="I6" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="J6" s="53" t="s">
+      <c r="I6" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="K6" s="53"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="53" t="s">
+      <c r="K6" s="52"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="N6" s="55" t="s">
+      <c r="N6" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="O6" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="P6" s="53" t="s">
+      <c r="O6" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="P6" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="Q6" s="53" t="s">
+      <c r="Q6" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="R6" s="54" t="s">
+      <c r="R6" s="53" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="52"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="53" t="s">
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="E7" s="53" t="s">
+      <c r="E7" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="F7" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="G7" s="53" t="s">
+      <c r="F7" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="H7" s="53" t="s">
+      <c r="H7" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="I7" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="J7" s="53" t="s">
+      <c r="I7" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="K7" s="53" t="str">
+      <c r="K7" s="52" t="str">
         <f aca="false">"Below or right of "&amp;J6</f>
         <v>Below or right of Panadol Osteo</v>
       </c>
-      <c r="L7" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="M7" s="53" t="s">
+      <c r="L7" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="M7" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="N7" s="55"/>
-      <c r="O7" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="P7" s="53" t="s">
+      <c r="N7" s="54"/>
+      <c r="O7" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="P7" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="Q7" s="53" t="s">
+      <c r="Q7" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="R7" s="54" t="s">
+      <c r="R7" s="53" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="52"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="53" t="s">
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="E8" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="F8" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="G8" s="53" t="s">
+      <c r="F8" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="H8" s="53" t="s">
+      <c r="H8" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="I8" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="J8" s="53" t="s">
+      <c r="I8" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="K8" s="53" t="str">
+      <c r="K8" s="52" t="str">
         <f aca="false">"Below or right of "&amp;J7</f>
         <v>Below or right of Panadol Extra Optizorb</v>
       </c>
-      <c r="L8" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="M8" s="53" t="s">
+      <c r="L8" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="M8" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="N8" s="55"/>
-      <c r="O8" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="P8" s="53" t="s">
+      <c r="N8" s="54"/>
+      <c r="O8" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="P8" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="Q8" s="53" t="s">
+      <c r="Q8" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="R8" s="54" t="s">
+      <c r="R8" s="53" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="52"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53" t="s">
+      <c r="A9" s="51"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="53" t="s">
+      <c r="H9" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="I9" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="J9" s="53" t="s">
+      <c r="I9" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="K9" s="53" t="str">
+      <c r="K9" s="52" t="str">
         <f aca="false">"Below or right of "&amp;J8</f>
         <v>Below or right of Panadol Rapid</v>
       </c>
-      <c r="L9" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="M9" s="53" t="s">
+      <c r="L9" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="M9" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="N9" s="55"/>
-      <c r="O9" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="53"/>
-      <c r="R9" s="53"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="52"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53" t="s">
+      <c r="A10" s="51"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="H10" s="53" t="s">
+      <c r="H10" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="I10" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="J10" s="53" t="s">
+      <c r="I10" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="K10" s="53" t="str">
+      <c r="K10" s="52" t="str">
         <f aca="false">"Below or right of "&amp;J9</f>
         <v>Below or right of Panadol Optizorb</v>
       </c>
-      <c r="L10" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="M10" s="53" t="s">
+      <c r="L10" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="M10" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="N10" s="55"/>
-      <c r="O10" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="53"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="52"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53" t="s">
+      <c r="A11" s="51"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="H11" s="53" t="s">
+      <c r="H11" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="I11" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="J11" s="53" t="s">
+      <c r="I11" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="K11" s="53" t="str">
+      <c r="K11" s="52" t="str">
         <f aca="false">"Below or right of "&amp;J10</f>
         <v>Below or right of Panadol Mini</v>
       </c>
-      <c r="L11" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="M11" s="53" t="s">
+      <c r="L11" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="M11" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="N11" s="55"/>
-      <c r="O11" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="52"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53" t="s">
+      <c r="A12" s="51"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="H12" s="53" t="s">
+      <c r="H12" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="I12" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="53" t="s">
+      <c r="I12" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="N12" s="55"/>
-      <c r="O12" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="53"/>
-      <c r="R12" s="53"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="52"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="52"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53" t="s">
+      <c r="A13" s="51"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="H13" s="53" t="s">
+      <c r="H13" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="I13" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="53"/>
+      <c r="I13" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="52"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="53"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="52"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52" t="s">
+      <c r="A15" s="51"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51" t="s">
         <v>95</v>
       </c>
-      <c r="D15" s="57" t="s">
+      <c r="D15" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="57" t="s">
+      <c r="E15" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="F15" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="G15" s="57" t="s">
+      <c r="F15" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="H15" s="57" t="s">
+      <c r="H15" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="I15" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="J15" s="57" t="s">
+      <c r="I15" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="J15" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57" t="s">
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="N15" s="59" t="s">
+      <c r="N15" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="O15" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="P15" s="57" t="s">
+      <c r="O15" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="P15" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="Q15" s="57" t="s">
+      <c r="Q15" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="R15" s="58" t="s">
+      <c r="R15" s="57" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="52"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57" t="s">
+      <c r="A16" s="51"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="H16" s="57" t="s">
+      <c r="H16" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="I16" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="J16" s="57" t="s">
+      <c r="I16" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="J16" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="K16" s="53" t="str">
+      <c r="K16" s="52" t="str">
         <f aca="false">"Below or right of "&amp;J15</f>
         <v>Below or right of Panadol Children 1M</v>
       </c>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57" t="s">
+      <c r="L16" s="56"/>
+      <c r="M16" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="N16" s="59"/>
-      <c r="O16" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="57"/>
-      <c r="R16" s="57"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="52"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57" t="s">
+      <c r="A17" s="51"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="57" t="s">
+      <c r="H17" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="I17" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="J17" s="57" t="s">
+      <c r="I17" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="J17" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="K17" s="53" t="str">
+      <c r="K17" s="52" t="str">
         <f aca="false">"Below or right of "&amp;J16</f>
         <v>Below or right of Panadol Children 1-5</v>
       </c>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57" t="s">
+      <c r="L17" s="56"/>
+      <c r="M17" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="N17" s="59"/>
-      <c r="O17" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="57"/>
-      <c r="R17" s="57"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="56"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="52"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57" t="s">
+      <c r="A18" s="51"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="H18" s="57" t="s">
+      <c r="H18" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="I18" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57" t="s">
+      <c r="I18" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="N18" s="59"/>
-      <c r="O18" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="57"/>
-      <c r="R18" s="57"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="56"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="52"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57" t="s">
+      <c r="A19" s="51"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="N19" s="59"/>
-      <c r="O19" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="57"/>
-      <c r="R19" s="57"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="56"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="52"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="52" t="s">
+      <c r="A20" s="51"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="D20" s="53" t="s">
+      <c r="D20" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="E20" s="53" t="s">
+      <c r="E20" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="F20" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="G20" s="53" t="s">
+      <c r="F20" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="H20" s="53" t="s">
+      <c r="H20" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="I20" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="J20" s="53" t="s">
+      <c r="I20" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="J20" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="K20" s="53"/>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53" t="s">
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="N20" s="55" t="s">
+      <c r="N20" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="O20" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="P20" s="53" t="s">
+      <c r="O20" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="P20" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="Q20" s="53" t="s">
+      <c r="Q20" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="R20" s="54" t="s">
+      <c r="R20" s="53" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="52"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61" t="s">
+      <c r="A21" s="51"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="H21" s="53" t="s">
+      <c r="H21" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="I21" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="J21" s="61" t="s">
+      <c r="I21" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="J21" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="K21" s="53" t="str">
+      <c r="K21" s="52" t="str">
         <f aca="false">"Below or right of "&amp;J20</f>
         <v>Below or right of Voltaren Emugel</v>
       </c>
-      <c r="L21" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="M21" s="61" t="s">
+      <c r="L21" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="M21" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="N21" s="55"/>
-      <c r="O21" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="P21" s="61"/>
-      <c r="Q21" s="61"/>
-      <c r="R21" s="61"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="P21" s="60"/>
+      <c r="Q21" s="60"/>
+      <c r="R21" s="60"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="52"/>
-      <c r="B22" s="52" t="s">
+      <c r="A22" s="51"/>
+      <c r="B22" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="60" t="s">
+      <c r="C22" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="D22" s="62" t="s">
+      <c r="D22" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="E22" s="57" t="s">
+      <c r="E22" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="F22" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="63"/>
-      <c r="M22" s="62" t="s">
+      <c r="F22" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="N22" s="59" t="s">
+      <c r="N22" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="O22" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="P22" s="62" t="s">
+      <c r="O22" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="P22" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="Q22" s="57" t="s">
+      <c r="Q22" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="R22" s="54" t="s">
+      <c r="R22" s="53" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="52"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="62" t="s">
+      <c r="A23" s="51"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="E23" s="57" t="s">
+      <c r="E23" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="F23" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="63"/>
-      <c r="M23" s="62" t="s">
+      <c r="F23" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="N23" s="59"/>
-      <c r="O23" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="P23" s="62" t="s">
+      <c r="N23" s="58"/>
+      <c r="O23" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="P23" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="Q23" s="57" t="s">
+      <c r="Q23" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="R23" s="54" t="s">
+      <c r="R23" s="53" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="52"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="62" t="s">
+      <c r="A24" s="51"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="E24" s="57" t="s">
+      <c r="E24" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="F24" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="63"/>
-      <c r="M24" s="62" t="s">
+      <c r="F24" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="N24" s="59"/>
-      <c r="O24" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="P24" s="62" t="s">
+      <c r="N24" s="58"/>
+      <c r="O24" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="P24" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="Q24" s="57" t="s">
+      <c r="Q24" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="R24" s="54" t="s">
+      <c r="R24" s="53" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="52"/>
-      <c r="B25" s="52" t="s">
+      <c r="A25" s="51"/>
+      <c r="B25" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="C25" s="60" t="s">
+      <c r="C25" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="D25" s="61" t="s">
+      <c r="D25" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="E25" s="53" t="s">
+      <c r="E25" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="F25" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="G25" s="61" t="s">
+      <c r="F25" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="G25" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="H25" s="53" t="s">
+      <c r="H25" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="I25" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="J25" s="61" t="s">
+      <c r="I25" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="J25" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="K25" s="61"/>
-      <c r="L25" s="61"/>
-      <c r="M25" s="61" t="s">
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="N25" s="55" t="s">
+      <c r="N25" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="O25" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="P25" s="61" t="s">
+      <c r="O25" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="P25" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="Q25" s="53" t="s">
+      <c r="Q25" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="R25" s="54" t="s">
+      <c r="R25" s="53" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="52"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61" t="s">
+      <c r="A26" s="51"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="H26" s="53" t="s">
+      <c r="H26" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="I26" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="J26" s="61" t="s">
+      <c r="I26" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="J26" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="K26" s="53" t="str">
+      <c r="K26" s="52" t="str">
         <f aca="false">"Below or right of "&amp;J25</f>
         <v>Below or right of Nicabate Clear</v>
       </c>
-      <c r="L26" s="61"/>
-      <c r="M26" s="61" t="s">
+      <c r="L26" s="60"/>
+      <c r="M26" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="N26" s="55"/>
-      <c r="O26" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="P26" s="61"/>
-      <c r="Q26" s="61"/>
-      <c r="R26" s="61"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="P26" s="60"/>
+      <c r="Q26" s="60"/>
+      <c r="R26" s="60"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="52"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61" t="s">
+      <c r="A27" s="51"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="H27" s="53" t="s">
+      <c r="H27" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="I27" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="J27" s="61" t="s">
+      <c r="I27" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="J27" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="K27" s="53" t="str">
+      <c r="K27" s="52" t="str">
         <f aca="false">"Below or right of "&amp;J26</f>
         <v>Below or right of Nicabate Mini</v>
       </c>
-      <c r="L27" s="61"/>
-      <c r="M27" s="61" t="s">
+      <c r="L27" s="60"/>
+      <c r="M27" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="N27" s="55"/>
-      <c r="O27" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="P27" s="61"/>
-      <c r="Q27" s="61"/>
-      <c r="R27" s="61"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="P27" s="60"/>
+      <c r="Q27" s="60"/>
+      <c r="R27" s="60"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="64"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="64"/>
-      <c r="L28" s="64"/>
-      <c r="M28" s="64"/>
-      <c r="N28" s="64"/>
-      <c r="O28" s="64"/>
-      <c r="P28" s="64"/>
-      <c r="Q28" s="64"/>
-      <c r="R28" s="64"/>
+      <c r="A28" s="63"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="63"/>
+      <c r="N28" s="63"/>
+      <c r="O28" s="63"/>
+      <c r="P28" s="63"/>
+      <c r="Q28" s="63"/>
+      <c r="R28" s="63"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="52" t="s">
+      <c r="A29" s="51" t="s">
         <v>75</v>
       </c>
-      <c r="B29" s="52" t="s">
+      <c r="B29" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="52" t="s">
+      <c r="C29" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="65" t="s">
+      <c r="D29" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="E29" s="53" t="s">
+      <c r="E29" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="F29" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="G29" s="53" t="s">
+      <c r="F29" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="G29" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="H29" s="53" t="s">
+      <c r="H29" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="I29" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="J29" s="53" t="s">
+      <c r="I29" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="J29" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="K29" s="53"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="53" t="s">
+      <c r="K29" s="52"/>
+      <c r="L29" s="53"/>
+      <c r="M29" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="N29" s="55" t="s">
+      <c r="N29" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="O29" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="P29" s="53" t="s">
+      <c r="O29" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="P29" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="Q29" s="53" t="s">
+      <c r="Q29" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="R29" s="54" t="s">
+      <c r="R29" s="53" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="52"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="65" t="s">
+      <c r="A30" s="51"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="E30" s="53" t="s">
+      <c r="E30" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="F30" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="G30" s="53" t="s">
+      <c r="F30" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="G30" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="H30" s="53" t="s">
+      <c r="H30" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="I30" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="J30" s="53" t="s">
+      <c r="I30" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="J30" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="K30" s="53" t="str">
+      <c r="K30" s="52" t="str">
         <f aca="false">"Below or right of "&amp;J29</f>
         <v>Below or right of Panadol Osteo</v>
       </c>
-      <c r="L30" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="M30" s="53" t="s">
+      <c r="L30" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="M30" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="N30" s="55"/>
-      <c r="O30" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="P30" s="53" t="s">
+      <c r="N30" s="54"/>
+      <c r="O30" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="P30" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="Q30" s="53" t="s">
+      <c r="Q30" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="R30" s="54" t="s">
+      <c r="R30" s="53" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="52"/>
-      <c r="B31" s="52"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="65" t="s">
+      <c r="A31" s="51"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="E31" s="53" t="s">
+      <c r="E31" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="F31" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="G31" s="53" t="s">
+      <c r="F31" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="G31" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="H31" s="53" t="s">
+      <c r="H31" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="I31" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="J31" s="53" t="s">
+      <c r="I31" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="J31" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="K31" s="53" t="str">
+      <c r="K31" s="52" t="str">
         <f aca="false">"Below or right of "&amp;J30</f>
         <v>Below or right of Panadol Extra Optizorb</v>
       </c>
-      <c r="L31" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="M31" s="53" t="s">
+      <c r="L31" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="M31" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="N31" s="55"/>
-      <c r="O31" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="P31" s="53" t="s">
+      <c r="N31" s="54"/>
+      <c r="O31" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="P31" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="Q31" s="53" t="s">
+      <c r="Q31" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="R31" s="54" t="s">
+      <c r="R31" s="53" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="52"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53" t="s">
+      <c r="A32" s="51"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="H32" s="53" t="s">
+      <c r="H32" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="I32" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="J32" s="53" t="s">
+      <c r="I32" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="J32" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="K32" s="53" t="str">
+      <c r="K32" s="52" t="str">
         <f aca="false">"Below or right of "&amp;J31</f>
         <v>Below or right of Panadol Rapid</v>
       </c>
-      <c r="L32" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="M32" s="53" t="s">
+      <c r="L32" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="M32" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="N32" s="55"/>
-      <c r="O32" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="P32" s="53"/>
-      <c r="Q32" s="53"/>
-      <c r="R32" s="53"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="P32" s="52"/>
+      <c r="Q32" s="52"/>
+      <c r="R32" s="52"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="52"/>
-      <c r="B33" s="52"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53" t="s">
+      <c r="A33" s="51"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="H33" s="53" t="s">
+      <c r="H33" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="I33" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="J33" s="53" t="s">
+      <c r="I33" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="J33" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="K33" s="53" t="str">
+      <c r="K33" s="52" t="str">
         <f aca="false">"Below or right of "&amp;J32</f>
         <v>Below or right of Panadol Optizorb</v>
       </c>
-      <c r="L33" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="M33" s="53" t="s">
+      <c r="L33" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="M33" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="N33" s="55"/>
-      <c r="O33" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="P33" s="53"/>
-      <c r="Q33" s="53"/>
-      <c r="R33" s="53"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="P33" s="52"/>
+      <c r="Q33" s="52"/>
+      <c r="R33" s="52"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="52"/>
-      <c r="B34" s="52"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53" t="s">
+      <c r="A34" s="51"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="H34" s="53" t="s">
+      <c r="H34" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="I34" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="J34" s="53" t="s">
+      <c r="I34" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="J34" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="K34" s="53" t="str">
+      <c r="K34" s="52" t="str">
         <f aca="false">"Below or right of "&amp;J33</f>
         <v>Below or right of Panadol Mini</v>
       </c>
-      <c r="L34" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="M34" s="53" t="s">
+      <c r="L34" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="M34" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="N34" s="55"/>
-      <c r="O34" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="P34" s="53"/>
-      <c r="Q34" s="53"/>
-      <c r="R34" s="53"/>
+      <c r="N34" s="54"/>
+      <c r="O34" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="P34" s="52"/>
+      <c r="Q34" s="52"/>
+      <c r="R34" s="52"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="52"/>
-      <c r="B35" s="52"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53" t="s">
+      <c r="A35" s="51"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="H35" s="53" t="s">
+      <c r="H35" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="I35" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="J35" s="53"/>
-      <c r="K35" s="53"/>
-      <c r="L35" s="54"/>
-      <c r="M35" s="53" t="s">
+      <c r="I35" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="53"/>
+      <c r="M35" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="N35" s="55"/>
-      <c r="O35" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="P35" s="53"/>
-      <c r="Q35" s="53"/>
-      <c r="R35" s="53"/>
+      <c r="N35" s="54"/>
+      <c r="O35" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="P35" s="52"/>
+      <c r="Q35" s="52"/>
+      <c r="R35" s="52"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="52"/>
-      <c r="B36" s="52"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53" t="s">
+      <c r="A36" s="51"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="H36" s="53" t="s">
+      <c r="H36" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="I36" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="J36" s="53"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="54"/>
-      <c r="M36" s="53"/>
-      <c r="N36" s="56"/>
-      <c r="O36" s="54"/>
-      <c r="P36" s="53"/>
-      <c r="Q36" s="53"/>
-      <c r="R36" s="53"/>
+      <c r="I36" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="J36" s="52"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="53"/>
+      <c r="M36" s="52"/>
+      <c r="N36" s="55"/>
+      <c r="O36" s="53"/>
+      <c r="P36" s="52"/>
+      <c r="Q36" s="52"/>
+      <c r="R36" s="52"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="52"/>
-      <c r="B37" s="52"/>
-      <c r="C37" s="52" t="s">
+      <c r="A37" s="51"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="D37" s="57" t="s">
+      <c r="D37" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="E37" s="57" t="s">
+      <c r="E37" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="F37" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="G37" s="63"/>
-      <c r="H37" s="63"/>
-      <c r="I37" s="63"/>
-      <c r="J37" s="57" t="s">
+      <c r="F37" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="G37" s="62"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="62"/>
+      <c r="J37" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="K37" s="57" t="s">
+      <c r="K37" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="L37" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="M37" s="63"/>
-      <c r="N37" s="66"/>
-      <c r="O37" s="63"/>
-      <c r="P37" s="57" t="s">
+      <c r="L37" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="M37" s="62"/>
+      <c r="N37" s="65"/>
+      <c r="O37" s="62"/>
+      <c r="P37" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="Q37" s="57" t="s">
+      <c r="Q37" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="R37" s="58" t="s">
+      <c r="R37" s="57" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="52"/>
-      <c r="B38" s="52"/>
-      <c r="C38" s="52" t="s">
+      <c r="A38" s="51"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="D38" s="53" t="s">
+      <c r="D38" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="E38" s="53" t="s">
+      <c r="E38" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="F38" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="G38" s="67"/>
-      <c r="H38" s="67"/>
-      <c r="I38" s="68"/>
-      <c r="J38" s="67"/>
-      <c r="K38" s="67"/>
-      <c r="L38" s="67"/>
-      <c r="M38" s="67"/>
-      <c r="N38" s="69"/>
-      <c r="O38" s="68"/>
-      <c r="P38" s="53" t="s">
+      <c r="F38" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="G38" s="66"/>
+      <c r="H38" s="66"/>
+      <c r="I38" s="67"/>
+      <c r="J38" s="66"/>
+      <c r="K38" s="66"/>
+      <c r="L38" s="66"/>
+      <c r="M38" s="66"/>
+      <c r="N38" s="68"/>
+      <c r="O38" s="67"/>
+      <c r="P38" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="Q38" s="53" t="s">
+      <c r="Q38" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="R38" s="54" t="s">
+      <c r="R38" s="53" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="52"/>
-      <c r="B39" s="52" t="s">
+      <c r="A39" s="51"/>
+      <c r="B39" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="C39" s="60" t="s">
+      <c r="C39" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="D39" s="62" t="s">
+      <c r="D39" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="E39" s="57" t="s">
+      <c r="E39" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="F39" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="G39" s="63"/>
-      <c r="H39" s="63"/>
-      <c r="I39" s="63"/>
-      <c r="J39" s="63"/>
-      <c r="K39" s="63"/>
-      <c r="L39" s="63"/>
-      <c r="M39" s="63"/>
-      <c r="N39" s="66"/>
-      <c r="O39" s="63"/>
-      <c r="P39" s="62" t="s">
+      <c r="F39" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="G39" s="62"/>
+      <c r="H39" s="62"/>
+      <c r="I39" s="62"/>
+      <c r="J39" s="62"/>
+      <c r="K39" s="62"/>
+      <c r="L39" s="62"/>
+      <c r="M39" s="62"/>
+      <c r="N39" s="65"/>
+      <c r="O39" s="62"/>
+      <c r="P39" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="Q39" s="57" t="s">
+      <c r="Q39" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="R39" s="54" t="s">
+      <c r="R39" s="53" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="52"/>
-      <c r="B40" s="52" t="s">
+      <c r="A40" s="51"/>
+      <c r="B40" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="C40" s="60" t="s">
+      <c r="C40" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="D40" s="61" t="s">
+      <c r="D40" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="E40" s="53" t="s">
+      <c r="E40" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="F40" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="G40" s="61" t="s">
+      <c r="F40" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="G40" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="H40" s="53" t="s">
+      <c r="H40" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="I40" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="J40" s="61" t="s">
+      <c r="I40" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="J40" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="K40" s="61"/>
-      <c r="L40" s="61"/>
-      <c r="M40" s="61" t="s">
+      <c r="K40" s="60"/>
+      <c r="L40" s="60"/>
+      <c r="M40" s="60" t="s">
         <v>123</v>
       </c>
-      <c r="N40" s="55" t="s">
+      <c r="N40" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="O40" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="P40" s="61" t="s">
+      <c r="O40" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="P40" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="Q40" s="53" t="s">
+      <c r="Q40" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="R40" s="54" t="s">
+      <c r="R40" s="53" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="52"/>
-      <c r="B41" s="52"/>
-      <c r="C41" s="60"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="61"/>
-      <c r="G41" s="61" t="s">
+      <c r="A41" s="51"/>
+      <c r="B41" s="51"/>
+      <c r="C41" s="59"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="H41" s="53" t="s">
+      <c r="H41" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="I41" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="J41" s="61" t="s">
+      <c r="I41" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="J41" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="K41" s="53" t="str">
+      <c r="K41" s="52" t="str">
         <f aca="false">"Below or right of "&amp;J40</f>
         <v>Below or right of Nicabate Patch</v>
       </c>
-      <c r="L41" s="61"/>
-      <c r="M41" s="61" t="s">
+      <c r="L41" s="60"/>
+      <c r="M41" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="N41" s="55"/>
-      <c r="O41" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="P41" s="61"/>
-      <c r="Q41" s="61"/>
-      <c r="R41" s="61"/>
+      <c r="N41" s="54"/>
+      <c r="O41" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="P41" s="60"/>
+      <c r="Q41" s="60"/>
+      <c r="R41" s="60"/>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="52"/>
-      <c r="B42" s="52"/>
-      <c r="C42" s="60"/>
-      <c r="D42" s="61"/>
-      <c r="E42" s="61"/>
-      <c r="F42" s="61"/>
-      <c r="G42" s="61" t="s">
+      <c r="A42" s="51"/>
+      <c r="B42" s="51"/>
+      <c r="C42" s="59"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="60"/>
+      <c r="G42" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="H42" s="53" t="s">
+      <c r="H42" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="I42" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="J42" s="61" t="s">
+      <c r="I42" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="J42" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="K42" s="53" t="str">
+      <c r="K42" s="52" t="str">
         <f aca="false">"Below or right of "&amp;J41</f>
         <v>Below or right of Nicabate Mini</v>
       </c>
-      <c r="L42" s="61"/>
-      <c r="M42" s="61" t="s">
+      <c r="L42" s="60"/>
+      <c r="M42" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="N42" s="55"/>
-      <c r="O42" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="P42" s="61"/>
-      <c r="Q42" s="61"/>
-      <c r="R42" s="61"/>
+      <c r="N42" s="54"/>
+      <c r="O42" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="P42" s="60"/>
+      <c r="Q42" s="60"/>
+      <c r="R42" s="60"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="52" t="s">
+      <c r="A45" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="B45" s="52" t="s">
+      <c r="B45" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="C45" s="52" t="s">
+      <c r="C45" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="D45" s="65" t="s">
+      <c r="D45" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="E45" s="53" t="s">
+      <c r="E45" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="F45" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="G45" s="53" t="s">
+      <c r="F45" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="G45" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="H45" s="53" t="s">
+      <c r="H45" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="I45" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="J45" s="53" t="s">
+      <c r="I45" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="J45" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="K45" s="53" t="s">
+      <c r="K45" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="L45" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="M45" s="53" t="s">
+      <c r="L45" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="M45" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="N45" s="55" t="s">
+      <c r="N45" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="O45" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="P45" s="53" t="s">
+      <c r="O45" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="P45" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="Q45" s="53" t="s">
+      <c r="Q45" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="R45" s="54" t="s">
+      <c r="R45" s="53" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="52"/>
-      <c r="B46" s="52"/>
-      <c r="C46" s="52"/>
-      <c r="D46" s="65" t="s">
+      <c r="A46" s="51"/>
+      <c r="B46" s="51"/>
+      <c r="C46" s="51"/>
+      <c r="D46" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="E46" s="53" t="s">
+      <c r="E46" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="F46" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="G46" s="53" t="s">
+      <c r="F46" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="G46" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="H46" s="53" t="s">
+      <c r="H46" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="I46" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="J46" s="53" t="s">
+      <c r="I46" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="J46" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="K46" s="53" t="s">
+      <c r="K46" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="L46" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="M46" s="53" t="s">
+      <c r="L46" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="M46" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="N46" s="55"/>
-      <c r="O46" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="P46" s="53" t="s">
+      <c r="N46" s="54"/>
+      <c r="O46" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="P46" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="Q46" s="53" t="s">
+      <c r="Q46" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="R46" s="54" t="s">
+      <c r="R46" s="53" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="52"/>
-      <c r="B47" s="52"/>
-      <c r="C47" s="52"/>
-      <c r="D47" s="65" t="s">
+      <c r="A47" s="51"/>
+      <c r="B47" s="51"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="E47" s="53" t="s">
+      <c r="E47" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="F47" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="G47" s="53" t="s">
+      <c r="F47" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="G47" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="H47" s="53" t="s">
+      <c r="H47" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="I47" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="J47" s="53" t="s">
+      <c r="I47" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="J47" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="K47" s="53" t="s">
+      <c r="K47" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="L47" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="M47" s="53" t="s">
+      <c r="L47" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="M47" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="N47" s="55"/>
-      <c r="O47" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="P47" s="53"/>
-      <c r="Q47" s="53"/>
-      <c r="R47" s="54"/>
+      <c r="N47" s="54"/>
+      <c r="O47" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="P47" s="52"/>
+      <c r="Q47" s="52"/>
+      <c r="R47" s="53"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="52"/>
-      <c r="B48" s="52"/>
-      <c r="C48" s="52"/>
-      <c r="D48" s="53"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="53"/>
-      <c r="G48" s="53" t="s">
+      <c r="A48" s="51"/>
+      <c r="B48" s="51"/>
+      <c r="C48" s="51"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="H48" s="53" t="s">
+      <c r="H48" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="I48" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="J48" s="53" t="s">
+      <c r="I48" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="J48" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="K48" s="53" t="s">
+      <c r="K48" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="L48" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="M48" s="53" t="s">
+      <c r="L48" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="M48" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="N48" s="55"/>
-      <c r="O48" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="P48" s="53"/>
-      <c r="Q48" s="53"/>
-      <c r="R48" s="53"/>
+      <c r="N48" s="54"/>
+      <c r="O48" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="P48" s="52"/>
+      <c r="Q48" s="52"/>
+      <c r="R48" s="52"/>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="52"/>
-      <c r="B49" s="52"/>
-      <c r="C49" s="52"/>
-      <c r="D49" s="53"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="53"/>
-      <c r="G49" s="53" t="s">
+      <c r="A49" s="51"/>
+      <c r="B49" s="51"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="52"/>
+      <c r="E49" s="52"/>
+      <c r="F49" s="52"/>
+      <c r="G49" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="H49" s="53" t="s">
+      <c r="H49" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="I49" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="J49" s="53" t="s">
+      <c r="I49" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="J49" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="K49" s="53" t="s">
+      <c r="K49" s="52" t="s">
         <v>128</v>
       </c>
-      <c r="L49" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="M49" s="53" t="s">
+      <c r="L49" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="M49" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="N49" s="55"/>
-      <c r="O49" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="P49" s="53"/>
-      <c r="Q49" s="53"/>
-      <c r="R49" s="53"/>
+      <c r="N49" s="54"/>
+      <c r="O49" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="P49" s="52"/>
+      <c r="Q49" s="52"/>
+      <c r="R49" s="52"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="52"/>
-      <c r="B50" s="52"/>
-      <c r="C50" s="52"/>
-      <c r="D50" s="53"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="53"/>
-      <c r="G50" s="53" t="s">
+      <c r="A50" s="51"/>
+      <c r="B50" s="51"/>
+      <c r="C50" s="51"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="52"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="H50" s="53" t="s">
+      <c r="H50" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="I50" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="J50" s="53" t="s">
+      <c r="I50" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="J50" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="K50" s="53" t="s">
+      <c r="K50" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="L50" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="M50" s="53" t="s">
+      <c r="L50" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="M50" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="N50" s="55"/>
-      <c r="O50" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="P50" s="53"/>
-      <c r="Q50" s="53"/>
-      <c r="R50" s="53"/>
+      <c r="N50" s="54"/>
+      <c r="O50" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="P50" s="52"/>
+      <c r="Q50" s="52"/>
+      <c r="R50" s="52"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="52"/>
-      <c r="B51" s="52"/>
-      <c r="C51" s="52"/>
-      <c r="D51" s="53"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="53"/>
-      <c r="G51" s="53" t="s">
+      <c r="A51" s="51"/>
+      <c r="B51" s="51"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="52"/>
+      <c r="E51" s="52"/>
+      <c r="F51" s="52"/>
+      <c r="G51" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="H51" s="53" t="s">
+      <c r="H51" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="I51" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="J51" s="53" t="s">
+      <c r="I51" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="J51" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="K51" s="53" t="s">
+      <c r="K51" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="L51" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="M51" s="53" t="s">
+      <c r="L51" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="M51" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="N51" s="55"/>
-      <c r="O51" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="P51" s="53"/>
-      <c r="Q51" s="53"/>
-      <c r="R51" s="53"/>
+      <c r="N51" s="54"/>
+      <c r="O51" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="P51" s="52"/>
+      <c r="Q51" s="52"/>
+      <c r="R51" s="52"/>
     </row>
     <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="52"/>
-      <c r="B52" s="52"/>
-      <c r="C52" s="52"/>
-      <c r="D52" s="53"/>
-      <c r="E52" s="53"/>
-      <c r="F52" s="53"/>
-      <c r="G52" s="53" t="s">
+      <c r="A52" s="51"/>
+      <c r="B52" s="51"/>
+      <c r="C52" s="51"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="H52" s="53" t="s">
+      <c r="H52" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="I52" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="J52" s="53"/>
-      <c r="K52" s="53"/>
-      <c r="L52" s="54"/>
-      <c r="M52" s="53" t="s">
+      <c r="I52" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="J52" s="52"/>
+      <c r="K52" s="52"/>
+      <c r="L52" s="53"/>
+      <c r="M52" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="N52" s="55"/>
-      <c r="O52" s="54"/>
-      <c r="P52" s="53"/>
-      <c r="Q52" s="53"/>
-      <c r="R52" s="53"/>
+      <c r="N52" s="54"/>
+      <c r="O52" s="53"/>
+      <c r="P52" s="52"/>
+      <c r="Q52" s="52"/>
+      <c r="R52" s="52"/>
     </row>
     <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="52"/>
-      <c r="B53" s="52"/>
-      <c r="C53" s="52" t="s">
+      <c r="A53" s="51"/>
+      <c r="B53" s="51"/>
+      <c r="C53" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="D53" s="57" t="s">
+      <c r="D53" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="E53" s="57" t="s">
+      <c r="E53" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="F53" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="G53" s="63"/>
-      <c r="H53" s="63"/>
-      <c r="I53" s="63"/>
-      <c r="J53" s="57" t="s">
+      <c r="F53" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="G53" s="62"/>
+      <c r="H53" s="62"/>
+      <c r="I53" s="62"/>
+      <c r="J53" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="K53" s="57" t="s">
+      <c r="K53" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="L53" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="M53" s="63"/>
-      <c r="N53" s="66"/>
-      <c r="O53" s="63"/>
-      <c r="P53" s="57" t="s">
+      <c r="L53" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="M53" s="62"/>
+      <c r="N53" s="65"/>
+      <c r="O53" s="62"/>
+      <c r="P53" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="Q53" s="57" t="s">
+      <c r="Q53" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="R53" s="58" t="s">
+      <c r="R53" s="57" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="52"/>
-      <c r="B54" s="52"/>
-      <c r="C54" s="52" t="s">
+      <c r="A54" s="51"/>
+      <c r="B54" s="51"/>
+      <c r="C54" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="D54" s="53" t="s">
+      <c r="D54" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="E54" s="53" t="s">
+      <c r="E54" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="F54" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="G54" s="67"/>
-      <c r="H54" s="67"/>
-      <c r="I54" s="68"/>
-      <c r="J54" s="67"/>
-      <c r="K54" s="67"/>
-      <c r="L54" s="67"/>
-      <c r="M54" s="67"/>
-      <c r="N54" s="69"/>
-      <c r="O54" s="68"/>
-      <c r="P54" s="53" t="s">
+      <c r="F54" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="G54" s="66"/>
+      <c r="H54" s="66"/>
+      <c r="I54" s="67"/>
+      <c r="J54" s="66"/>
+      <c r="K54" s="66"/>
+      <c r="L54" s="66"/>
+      <c r="M54" s="66"/>
+      <c r="N54" s="68"/>
+      <c r="O54" s="67"/>
+      <c r="P54" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="Q54" s="53" t="s">
+      <c r="Q54" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="R54" s="54" t="s">
+      <c r="R54" s="53" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="52"/>
-      <c r="B55" s="52" t="s">
+      <c r="A55" s="51"/>
+      <c r="B55" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="C55" s="60" t="s">
+      <c r="C55" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="D55" s="62" t="s">
+      <c r="D55" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="E55" s="57" t="s">
+      <c r="E55" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="F55" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="G55" s="63"/>
-      <c r="H55" s="63"/>
-      <c r="I55" s="63"/>
-      <c r="J55" s="63"/>
-      <c r="K55" s="63"/>
-      <c r="L55" s="63"/>
-      <c r="M55" s="63"/>
-      <c r="N55" s="66"/>
-      <c r="O55" s="63"/>
-      <c r="P55" s="62" t="s">
+      <c r="F55" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="G55" s="62"/>
+      <c r="H55" s="62"/>
+      <c r="I55" s="62"/>
+      <c r="J55" s="62"/>
+      <c r="K55" s="62"/>
+      <c r="L55" s="62"/>
+      <c r="M55" s="62"/>
+      <c r="N55" s="65"/>
+      <c r="O55" s="62"/>
+      <c r="P55" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="Q55" s="57" t="s">
+      <c r="Q55" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="R55" s="54" t="s">
+      <c r="R55" s="53" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="52"/>
-      <c r="B56" s="52" t="s">
+      <c r="A56" s="51"/>
+      <c r="B56" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="C56" s="60" t="s">
+      <c r="C56" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="D56" s="61" t="s">
+      <c r="D56" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="E56" s="53" t="s">
+      <c r="E56" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="F56" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="G56" s="67"/>
-      <c r="H56" s="67"/>
-      <c r="I56" s="68"/>
-      <c r="J56" s="67"/>
-      <c r="K56" s="67"/>
-      <c r="L56" s="68"/>
-      <c r="M56" s="67"/>
-      <c r="N56" s="67"/>
-      <c r="O56" s="68"/>
-      <c r="P56" s="61" t="s">
+      <c r="F56" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="G56" s="66"/>
+      <c r="H56" s="66"/>
+      <c r="I56" s="67"/>
+      <c r="J56" s="66"/>
+      <c r="K56" s="66"/>
+      <c r="L56" s="67"/>
+      <c r="M56" s="66"/>
+      <c r="N56" s="66"/>
+      <c r="O56" s="67"/>
+      <c r="P56" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="Q56" s="53" t="s">
+      <c r="Q56" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="R56" s="54" t="s">
+      <c r="R56" s="53" t="s">
         <v>80</v>
       </c>
     </row>
@@ -4392,1471 +4387,1471 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="28" width="14.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="28" width="13.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="28" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="28" width="18.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="28" width="23.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="28" width="10.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="28" width="24.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="28" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="28" width="10.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="28" width="23.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="28" width="36.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="28" width="10.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="28" width="23.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="28" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="28" width="10.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="28" width="18.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="28" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="28" width="10.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="28" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="27" width="14.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="27" width="13.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="27" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="27" width="18.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="27" width="23.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="27" width="10.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="27" width="24.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="27" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="27" width="10.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="27" width="23.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="27" width="36.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="27" width="10.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="27" width="23.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="27" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="27" width="10.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="27" width="18.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="17" min="17" style="27" width="14.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="18" min="18" style="27" width="10.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="19" style="27" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="2" s="31" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="29" t="s">
+    <row r="2" s="30" customFormat="true" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="30" t="n">
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="29" t="n">
         <v>0.2</v>
       </c>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30" t="n">
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29" t="n">
         <v>0.2</v>
       </c>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="30" t="n">
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29" t="n">
         <v>0.2</v>
       </c>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30" t="n">
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29" t="n">
         <v>0.2</v>
       </c>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30" t="n">
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29" t="n">
         <v>0.2</v>
       </c>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-    </row>
-    <row r="3" s="31" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="32"/>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="33"/>
-    </row>
-    <row r="4" s="40" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="34" t="s">
+      <c r="Q2" s="29"/>
+      <c r="R2" s="29"/>
+    </row>
+    <row r="3" s="30" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="31"/>
+      <c r="B3" s="31"/>
+      <c r="C3" s="31"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+    </row>
+    <row r="4" s="39" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="33" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="33" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="34" t="s">
+      <c r="C4" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="D4" s="35" t="s">
+      <c r="D4" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="35"/>
-      <c r="F4" s="35"/>
-      <c r="G4" s="36" t="s">
+      <c r="E4" s="34"/>
+      <c r="F4" s="34"/>
+      <c r="G4" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="H4" s="36"/>
-      <c r="I4" s="36"/>
-      <c r="J4" s="37" t="s">
+      <c r="H4" s="35"/>
+      <c r="I4" s="35"/>
+      <c r="J4" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="K4" s="37"/>
-      <c r="L4" s="37"/>
-      <c r="M4" s="38" t="s">
+      <c r="K4" s="36"/>
+      <c r="L4" s="36"/>
+      <c r="M4" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="N4" s="38"/>
-      <c r="O4" s="38"/>
-      <c r="P4" s="39" t="s">
+      <c r="N4" s="37"/>
+      <c r="O4" s="37"/>
+      <c r="P4" s="38" t="s">
         <v>70</v>
       </c>
-      <c r="Q4" s="39"/>
-      <c r="R4" s="39"/>
-      <c r="T4" s="41"/>
-    </row>
-    <row r="5" s="51" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="34"/>
-      <c r="B5" s="34"/>
-      <c r="C5" s="34"/>
-      <c r="D5" s="42" t="s">
+      <c r="Q4" s="38"/>
+      <c r="R4" s="38"/>
+      <c r="T4" s="40"/>
+    </row>
+    <row r="5" s="50" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="41" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="43" t="s">
+      <c r="E5" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="F5" s="43" t="s">
+      <c r="F5" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="G5" s="44" t="s">
+      <c r="G5" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="45" t="s">
+      <c r="H5" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="I5" s="45" t="s">
+      <c r="I5" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="J5" s="46" t="s">
+      <c r="J5" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="K5" s="46" t="s">
+      <c r="K5" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="L5" s="46" t="s">
+      <c r="L5" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="M5" s="47" t="s">
+      <c r="M5" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="N5" s="48" t="s">
+      <c r="N5" s="47" t="s">
         <v>72</v>
       </c>
-      <c r="O5" s="48" t="s">
+      <c r="O5" s="47" t="s">
         <v>73</v>
       </c>
-      <c r="P5" s="49" t="s">
+      <c r="P5" s="48" t="s">
         <v>71</v>
       </c>
-      <c r="Q5" s="50" t="s">
+      <c r="Q5" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="R5" s="50" t="s">
+      <c r="R5" s="49" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="F6" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="G6" s="53" t="s">
+      <c r="F6" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="H6" s="53" t="s">
+      <c r="H6" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="I6" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="J6" s="53" t="s">
+      <c r="I6" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="J6" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="K6" s="53"/>
-      <c r="L6" s="54"/>
-      <c r="M6" s="53" t="s">
+      <c r="K6" s="52"/>
+      <c r="L6" s="53"/>
+      <c r="M6" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="N6" s="55" t="s">
+      <c r="N6" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="O6" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="P6" s="53" t="s">
+      <c r="O6" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="P6" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="Q6" s="53" t="s">
+      <c r="Q6" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="R6" s="54" t="s">
+      <c r="R6" s="53" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="52"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="53" t="s">
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="E7" s="53" t="s">
+      <c r="E7" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="F7" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="G7" s="53" t="s">
+      <c r="F7" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="G7" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="H7" s="53" t="s">
+      <c r="H7" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="I7" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="J7" s="53" t="s">
+      <c r="I7" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="J7" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="K7" s="53" t="str">
+      <c r="K7" s="52" t="str">
         <f aca="false">"Below or right of "&amp;J6</f>
         <v>Below or right of Panadol Osteo</v>
       </c>
-      <c r="L7" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="M7" s="53" t="s">
+      <c r="L7" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="M7" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="N7" s="55"/>
-      <c r="O7" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="P7" s="53" t="s">
+      <c r="N7" s="54"/>
+      <c r="O7" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="P7" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="Q7" s="53" t="s">
+      <c r="Q7" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="R7" s="54" t="s">
+      <c r="R7" s="53" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="52"/>
-      <c r="B8" s="52"/>
-      <c r="C8" s="52"/>
-      <c r="D8" s="53" t="s">
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="53" t="s">
+      <c r="E8" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="F8" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="G8" s="53" t="s">
+      <c r="F8" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="H8" s="53" t="s">
+      <c r="H8" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="I8" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="J8" s="53" t="s">
+      <c r="I8" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="K8" s="53" t="str">
+      <c r="K8" s="52" t="str">
         <f aca="false">"Below or Left of "&amp;J7</f>
         <v>Below or Left of Panadol Extra Optizorb</v>
       </c>
-      <c r="L8" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="M8" s="53" t="s">
+      <c r="L8" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="M8" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="N8" s="55"/>
-      <c r="O8" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="P8" s="53" t="s">
+      <c r="N8" s="54"/>
+      <c r="O8" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="P8" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="Q8" s="53" t="s">
+      <c r="Q8" s="52" t="s">
         <v>90</v>
       </c>
-      <c r="R8" s="54" t="s">
+      <c r="R8" s="53" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="52"/>
-      <c r="B9" s="52"/>
-      <c r="C9" s="52"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="53" t="s">
+      <c r="A9" s="51"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="H9" s="53" t="s">
+      <c r="H9" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="I9" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="J9" s="53" t="s">
+      <c r="I9" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="K9" s="53" t="str">
+      <c r="K9" s="52" t="str">
         <f aca="false">"Below -  "&amp;J8</f>
         <v>Below -  Panadol Rapid</v>
       </c>
-      <c r="L9" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="M9" s="53" t="s">
+      <c r="L9" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="M9" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="N9" s="55"/>
-      <c r="O9" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="P9" s="53"/>
-      <c r="Q9" s="53"/>
-      <c r="R9" s="53"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="52"/>
-      <c r="B10" s="52"/>
-      <c r="C10" s="52"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="53" t="s">
+      <c r="A10" s="51"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="H10" s="53" t="s">
+      <c r="H10" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="I10" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="J10" s="53" t="s">
+      <c r="I10" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="J10" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="K10" s="53" t="str">
+      <c r="K10" s="52" t="str">
         <f aca="false">"Below -  "&amp;J9</f>
         <v>Below -  Panadol Optizorb</v>
       </c>
-      <c r="L10" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="M10" s="53" t="s">
+      <c r="L10" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="M10" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="N10" s="55"/>
-      <c r="O10" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="P10" s="53"/>
-      <c r="Q10" s="53"/>
-      <c r="R10" s="53"/>
+      <c r="N10" s="54"/>
+      <c r="O10" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="52"/>
-      <c r="B11" s="52"/>
-      <c r="C11" s="52"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
-      <c r="F11" s="53"/>
-      <c r="G11" s="53" t="s">
+      <c r="A11" s="51"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="H11" s="53" t="s">
+      <c r="H11" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="I11" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="J11" s="53" t="s">
+      <c r="I11" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="J11" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="K11" s="53" t="str">
+      <c r="K11" s="52" t="str">
         <f aca="false">"Below or Left of "&amp;J10</f>
         <v>Below or Left of Panadol Mini</v>
       </c>
-      <c r="L11" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="M11" s="53" t="s">
+      <c r="L11" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="M11" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="N11" s="55"/>
-      <c r="O11" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="P11" s="53"/>
-      <c r="Q11" s="53"/>
-      <c r="R11" s="53"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
+      <c r="R11" s="52"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="52"/>
-      <c r="B12" s="52"/>
-      <c r="C12" s="52"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
-      <c r="F12" s="53"/>
-      <c r="G12" s="53" t="s">
+      <c r="A12" s="51"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="H12" s="53" t="s">
+      <c r="H12" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="I12" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="J12" s="53"/>
-      <c r="K12" s="53"/>
-      <c r="L12" s="54"/>
-      <c r="M12" s="53" t="s">
+      <c r="I12" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="53"/>
+      <c r="M12" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="N12" s="55"/>
-      <c r="O12" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="P12" s="53"/>
-      <c r="Q12" s="53"/>
-      <c r="R12" s="53"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
+      <c r="R12" s="52"/>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="52"/>
-      <c r="B13" s="52"/>
-      <c r="C13" s="52"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53" t="s">
+      <c r="A13" s="51"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52" t="s">
         <v>88</v>
       </c>
-      <c r="H13" s="53" t="s">
+      <c r="H13" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="I13" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="54"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="56"/>
-      <c r="O13" s="54"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="53"/>
+      <c r="I13" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="53"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="53"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="52"/>
-      <c r="B14" s="52"/>
-      <c r="C14" s="52"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="53"/>
-      <c r="H14" s="53"/>
-      <c r="I14" s="54"/>
-      <c r="J14" s="53"/>
-      <c r="K14" s="53"/>
-      <c r="L14" s="54"/>
-      <c r="M14" s="53"/>
-      <c r="N14" s="56"/>
-      <c r="O14" s="54"/>
-      <c r="P14" s="53"/>
-      <c r="Q14" s="53"/>
-      <c r="R14" s="53"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="53"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="53"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
+      <c r="R14" s="52"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="52"/>
-      <c r="B15" s="52"/>
-      <c r="C15" s="52" t="s">
+      <c r="A15" s="51"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="D15" s="57" t="s">
+      <c r="D15" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="E15" s="57" t="s">
+      <c r="E15" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="F15" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="G15" s="57" t="s">
+      <c r="F15" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="H15" s="57" t="s">
+      <c r="H15" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="I15" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="J15" s="57" t="s">
+      <c r="I15" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="J15" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="K15" s="57"/>
-      <c r="L15" s="57"/>
-      <c r="M15" s="57" t="s">
+      <c r="K15" s="56"/>
+      <c r="L15" s="56"/>
+      <c r="M15" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="N15" s="59" t="s">
+      <c r="N15" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="O15" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="P15" s="57" t="s">
+      <c r="O15" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="P15" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="Q15" s="57" t="s">
+      <c r="Q15" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="R15" s="58" t="s">
+      <c r="R15" s="57" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="52"/>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57" t="s">
+      <c r="A16" s="51"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="H16" s="57" t="s">
+      <c r="H16" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="I16" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="J16" s="57" t="s">
+      <c r="I16" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="J16" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="K16" s="53" t="str">
+      <c r="K16" s="52" t="str">
         <f aca="false">"Below or right of "&amp;J15</f>
         <v>Below or right of Panadol Children 1M</v>
       </c>
-      <c r="L16" s="57"/>
-      <c r="M16" s="57" t="s">
+      <c r="L16" s="56"/>
+      <c r="M16" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="N16" s="59"/>
-      <c r="O16" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="P16" s="57"/>
-      <c r="Q16" s="57"/>
-      <c r="R16" s="57"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="P16" s="56"/>
+      <c r="Q16" s="56"/>
+      <c r="R16" s="56"/>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="52"/>
-      <c r="B17" s="52"/>
-      <c r="C17" s="52"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57" t="s">
+      <c r="A17" s="51"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
+      <c r="G17" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="57" t="s">
+      <c r="H17" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="I17" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="J17" s="57" t="s">
+      <c r="I17" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="J17" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="K17" s="53" t="str">
+      <c r="K17" s="52" t="str">
         <f aca="false">"Below or right of "&amp;J16</f>
         <v>Below or right of Panadol Children 1-5</v>
       </c>
-      <c r="L17" s="57"/>
-      <c r="M17" s="57" t="s">
+      <c r="L17" s="56"/>
+      <c r="M17" s="56" t="s">
         <v>100</v>
       </c>
-      <c r="N17" s="59"/>
-      <c r="O17" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="P17" s="57"/>
-      <c r="Q17" s="57"/>
-      <c r="R17" s="57"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="P17" s="56"/>
+      <c r="Q17" s="56"/>
+      <c r="R17" s="56"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="52"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="57"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="57"/>
-      <c r="G18" s="57" t="s">
+      <c r="A18" s="51"/>
+      <c r="B18" s="51"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="H18" s="57" t="s">
+      <c r="H18" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="I18" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="J18" s="57"/>
-      <c r="K18" s="57"/>
-      <c r="L18" s="57"/>
-      <c r="M18" s="57" t="s">
+      <c r="I18" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="J18" s="56"/>
+      <c r="K18" s="56"/>
+      <c r="L18" s="56"/>
+      <c r="M18" s="56" t="s">
         <v>101</v>
       </c>
-      <c r="N18" s="59"/>
-      <c r="O18" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="P18" s="57"/>
-      <c r="Q18" s="57"/>
-      <c r="R18" s="57"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="P18" s="56"/>
+      <c r="Q18" s="56"/>
+      <c r="R18" s="56"/>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="52"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="58"/>
-      <c r="J19" s="57"/>
-      <c r="K19" s="57"/>
-      <c r="L19" s="57"/>
-      <c r="M19" s="57" t="s">
+      <c r="A19" s="51"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="56"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="56"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="56"/>
+      <c r="K19" s="56"/>
+      <c r="L19" s="56"/>
+      <c r="M19" s="56" t="s">
         <v>102</v>
       </c>
-      <c r="N19" s="59"/>
-      <c r="O19" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="P19" s="57"/>
-      <c r="Q19" s="57"/>
-      <c r="R19" s="57"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="P19" s="56"/>
+      <c r="Q19" s="56"/>
+      <c r="R19" s="56"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="52"/>
-      <c r="B20" s="52"/>
-      <c r="C20" s="52" t="s">
+      <c r="A20" s="51"/>
+      <c r="B20" s="51"/>
+      <c r="C20" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="D20" s="53" t="s">
+      <c r="D20" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="E20" s="53" t="s">
+      <c r="E20" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="F20" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="G20" s="53" t="s">
+      <c r="F20" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="H20" s="53" t="s">
+      <c r="H20" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="I20" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="J20" s="53" t="s">
+      <c r="I20" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="J20" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="K20" s="53" t="s">
+      <c r="K20" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="L20" s="53"/>
-      <c r="M20" s="53" t="s">
+      <c r="L20" s="52"/>
+      <c r="M20" s="52" t="s">
         <v>104</v>
       </c>
-      <c r="N20" s="55" t="s">
+      <c r="N20" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="O20" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="P20" s="53" t="s">
+      <c r="O20" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="P20" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="Q20" s="53" t="s">
+      <c r="Q20" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="R20" s="54" t="s">
+      <c r="R20" s="53" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="52"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="60"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="61"/>
-      <c r="G21" s="61" t="s">
+      <c r="A21" s="51"/>
+      <c r="B21" s="51"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
+      <c r="F21" s="60"/>
+      <c r="G21" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="H21" s="53" t="s">
+      <c r="H21" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="I21" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="J21" s="61" t="s">
+      <c r="I21" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="J21" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="K21" s="53" t="s">
+      <c r="K21" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="L21" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="M21" s="61" t="s">
+      <c r="L21" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="M21" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="N21" s="55"/>
-      <c r="O21" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="P21" s="61"/>
-      <c r="Q21" s="61"/>
-      <c r="R21" s="61"/>
+      <c r="N21" s="54"/>
+      <c r="O21" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="P21" s="60"/>
+      <c r="Q21" s="60"/>
+      <c r="R21" s="60"/>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="52"/>
-      <c r="B22" s="52" t="s">
+      <c r="A22" s="51"/>
+      <c r="B22" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="60" t="s">
+      <c r="C22" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="D22" s="62" t="s">
+      <c r="D22" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="E22" s="57" t="s">
+      <c r="E22" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="F22" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63"/>
-      <c r="I22" s="63"/>
-      <c r="J22" s="63"/>
-      <c r="K22" s="63"/>
-      <c r="L22" s="63"/>
-      <c r="M22" s="62" t="s">
+      <c r="F22" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="N22" s="59" t="s">
+      <c r="N22" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="O22" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="P22" s="62" t="s">
+      <c r="O22" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="P22" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="Q22" s="57" t="s">
+      <c r="Q22" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="R22" s="54" t="s">
+      <c r="R22" s="53" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="52"/>
-      <c r="B23" s="52"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="62" t="s">
+      <c r="A23" s="51"/>
+      <c r="B23" s="51"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="E23" s="57" t="s">
+      <c r="E23" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="F23" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="63"/>
-      <c r="J23" s="63"/>
-      <c r="K23" s="63"/>
-      <c r="L23" s="63"/>
-      <c r="M23" s="62" t="s">
+      <c r="F23" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="N23" s="59"/>
-      <c r="O23" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="P23" s="62" t="s">
+      <c r="N23" s="58"/>
+      <c r="O23" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="P23" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="Q23" s="57" t="s">
+      <c r="Q23" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="R23" s="54" t="s">
+      <c r="R23" s="53" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="52"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="62" t="s">
+      <c r="A24" s="51"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="E24" s="57" t="s">
+      <c r="E24" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="F24" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="G24" s="63"/>
-      <c r="H24" s="63"/>
-      <c r="I24" s="63"/>
-      <c r="J24" s="63"/>
-      <c r="K24" s="63"/>
-      <c r="L24" s="63"/>
-      <c r="M24" s="62" t="s">
+      <c r="F24" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="N24" s="59"/>
-      <c r="O24" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="P24" s="62" t="s">
+      <c r="N24" s="58"/>
+      <c r="O24" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="P24" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="Q24" s="57" t="s">
+      <c r="Q24" s="56" t="s">
         <v>110</v>
       </c>
-      <c r="R24" s="54" t="s">
+      <c r="R24" s="53" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="true" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="52"/>
-      <c r="B25" s="52" t="s">
+      <c r="A25" s="51"/>
+      <c r="B25" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="C25" s="60" t="s">
+      <c r="C25" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="D25" s="61" t="s">
+      <c r="D25" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="E25" s="53" t="s">
+      <c r="E25" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="F25" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="G25" s="61" t="s">
+      <c r="F25" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="G25" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="H25" s="53" t="s">
+      <c r="H25" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="I25" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="J25" s="61" t="s">
+      <c r="I25" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="J25" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="K25" s="61"/>
-      <c r="L25" s="61"/>
-      <c r="M25" s="61" t="s">
+      <c r="K25" s="60"/>
+      <c r="L25" s="60"/>
+      <c r="M25" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="N25" s="55" t="s">
+      <c r="N25" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="O25" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="P25" s="61" t="s">
+      <c r="O25" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="P25" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="Q25" s="53" t="s">
+      <c r="Q25" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="R25" s="54" t="s">
+      <c r="R25" s="53" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="52"/>
-      <c r="B26" s="52"/>
-      <c r="C26" s="60"/>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
-      <c r="G26" s="61" t="s">
+      <c r="A26" s="51"/>
+      <c r="B26" s="51"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="H26" s="53" t="s">
+      <c r="H26" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="I26" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="J26" s="61" t="s">
+      <c r="I26" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="J26" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="K26" s="53" t="str">
+      <c r="K26" s="52" t="str">
         <f aca="false">"Below or right of "&amp;J25</f>
         <v>Below or right of Nicabate Clear</v>
       </c>
-      <c r="L26" s="61"/>
-      <c r="M26" s="61" t="s">
+      <c r="L26" s="60"/>
+      <c r="M26" s="60" t="s">
         <v>117</v>
       </c>
-      <c r="N26" s="55"/>
-      <c r="O26" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="P26" s="61"/>
-      <c r="Q26" s="61"/>
-      <c r="R26" s="61"/>
+      <c r="N26" s="54"/>
+      <c r="O26" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="P26" s="60"/>
+      <c r="Q26" s="60"/>
+      <c r="R26" s="60"/>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="52"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="60"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61" t="s">
+      <c r="A27" s="51"/>
+      <c r="B27" s="51"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="H27" s="53" t="s">
+      <c r="H27" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="I27" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="J27" s="61" t="s">
+      <c r="I27" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="J27" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="K27" s="53" t="str">
+      <c r="K27" s="52" t="str">
         <f aca="false">"Below or right of "&amp;J26</f>
         <v>Below or right of Nicabate Mini</v>
       </c>
-      <c r="L27" s="61"/>
-      <c r="M27" s="61" t="s">
+      <c r="L27" s="60"/>
+      <c r="M27" s="60" t="s">
         <v>118</v>
       </c>
-      <c r="N27" s="55"/>
-      <c r="O27" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="P27" s="61"/>
-      <c r="Q27" s="61"/>
-      <c r="R27" s="61"/>
+      <c r="N27" s="54"/>
+      <c r="O27" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="P27" s="60"/>
+      <c r="Q27" s="60"/>
+      <c r="R27" s="60"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="true" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="64"/>
-      <c r="B28" s="64"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="64"/>
-      <c r="F28" s="64"/>
-      <c r="G28" s="64"/>
-      <c r="H28" s="64"/>
-      <c r="I28" s="64"/>
-      <c r="J28" s="64"/>
-      <c r="K28" s="64"/>
-      <c r="L28" s="64"/>
-      <c r="M28" s="64"/>
-      <c r="N28" s="64"/>
-      <c r="O28" s="64"/>
-      <c r="P28" s="64"/>
-      <c r="Q28" s="64"/>
-      <c r="R28" s="64"/>
+      <c r="A28" s="63"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="63"/>
+      <c r="N28" s="63"/>
+      <c r="O28" s="63"/>
+      <c r="P28" s="63"/>
+      <c r="Q28" s="63"/>
+      <c r="R28" s="63"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="52" t="s">
+      <c r="A29" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="B29" s="52" t="s">
+      <c r="B29" s="51" t="s">
         <v>76</v>
       </c>
-      <c r="C29" s="52" t="s">
+      <c r="C29" s="51" t="s">
         <v>77</v>
       </c>
-      <c r="D29" s="65" t="s">
+      <c r="D29" s="64" t="s">
         <v>78</v>
       </c>
-      <c r="E29" s="53" t="s">
+      <c r="E29" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="F29" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="G29" s="53" t="s">
+      <c r="F29" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="G29" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="H29" s="53" t="s">
+      <c r="H29" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="I29" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="J29" s="53" t="s">
+      <c r="I29" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="J29" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="K29" s="53" t="s">
+      <c r="K29" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="L29" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="M29" s="53" t="s">
+      <c r="L29" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="M29" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="N29" s="55" t="s">
+      <c r="N29" s="54" t="s">
         <v>83</v>
       </c>
-      <c r="O29" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="P29" s="53" t="s">
+      <c r="O29" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="P29" s="52" t="s">
         <v>78</v>
       </c>
-      <c r="Q29" s="53" t="s">
+      <c r="Q29" s="52" t="s">
         <v>121</v>
       </c>
-      <c r="R29" s="54" t="s">
+      <c r="R29" s="53" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="52"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="65" t="s">
+      <c r="A30" s="51"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="64" t="s">
         <v>85</v>
       </c>
-      <c r="E30" s="53" t="s">
+      <c r="E30" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="F30" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="G30" s="53" t="s">
+      <c r="F30" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="G30" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="H30" s="53" t="s">
+      <c r="H30" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="I30" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="J30" s="53" t="s">
+      <c r="I30" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="J30" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="K30" s="53" t="s">
+      <c r="K30" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="L30" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="M30" s="53" t="s">
+      <c r="L30" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="M30" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="N30" s="55"/>
-      <c r="O30" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="P30" s="53" t="s">
+      <c r="N30" s="54"/>
+      <c r="O30" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="P30" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="Q30" s="53" t="s">
+      <c r="Q30" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="R30" s="54" t="s">
+      <c r="R30" s="53" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="52"/>
-      <c r="B31" s="52"/>
-      <c r="C31" s="52"/>
-      <c r="D31" s="65" t="s">
+      <c r="A31" s="51"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="64" t="s">
         <v>88</v>
       </c>
-      <c r="E31" s="53" t="s">
+      <c r="E31" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="F31" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="G31" s="53" t="s">
+      <c r="F31" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="G31" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="H31" s="53" t="s">
+      <c r="H31" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="I31" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="J31" s="53" t="s">
+      <c r="I31" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="J31" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="K31" s="53" t="s">
+      <c r="K31" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="L31" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="M31" s="53" t="s">
+      <c r="L31" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="M31" s="52" t="s">
         <v>89</v>
       </c>
-      <c r="N31" s="55"/>
-      <c r="O31" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="P31" s="53"/>
-      <c r="Q31" s="53"/>
-      <c r="R31" s="54"/>
+      <c r="N31" s="54"/>
+      <c r="O31" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="P31" s="52"/>
+      <c r="Q31" s="52"/>
+      <c r="R31" s="53"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="52"/>
-      <c r="B32" s="52"/>
-      <c r="C32" s="52"/>
-      <c r="D32" s="53"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="53"/>
-      <c r="G32" s="53" t="s">
+      <c r="A32" s="51"/>
+      <c r="B32" s="51"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="H32" s="53" t="s">
+      <c r="H32" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="I32" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="J32" s="53" t="s">
+      <c r="I32" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="J32" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="K32" s="53" t="s">
+      <c r="K32" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="L32" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="M32" s="53" t="s">
+      <c r="L32" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="M32" s="52" t="s">
         <v>91</v>
       </c>
-      <c r="N32" s="55"/>
-      <c r="O32" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="P32" s="53"/>
-      <c r="Q32" s="53"/>
-      <c r="R32" s="53"/>
+      <c r="N32" s="54"/>
+      <c r="O32" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="P32" s="52"/>
+      <c r="Q32" s="52"/>
+      <c r="R32" s="52"/>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="52"/>
-      <c r="B33" s="52"/>
-      <c r="C33" s="52"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="53"/>
-      <c r="F33" s="53"/>
-      <c r="G33" s="53" t="s">
+      <c r="A33" s="51"/>
+      <c r="B33" s="51"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="52"/>
+      <c r="E33" s="52"/>
+      <c r="F33" s="52"/>
+      <c r="G33" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="H33" s="53" t="s">
+      <c r="H33" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="I33" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="J33" s="53" t="s">
+      <c r="I33" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="J33" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="K33" s="53" t="s">
+      <c r="K33" s="52" t="s">
         <v>128</v>
       </c>
-      <c r="L33" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="M33" s="53" t="s">
+      <c r="L33" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="M33" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="N33" s="55"/>
-      <c r="O33" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="P33" s="53"/>
-      <c r="Q33" s="53"/>
-      <c r="R33" s="53"/>
+      <c r="N33" s="54"/>
+      <c r="O33" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="P33" s="52"/>
+      <c r="Q33" s="52"/>
+      <c r="R33" s="52"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="52"/>
-      <c r="B34" s="52"/>
-      <c r="C34" s="52"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="53"/>
-      <c r="F34" s="53"/>
-      <c r="G34" s="53" t="s">
+      <c r="A34" s="51"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="51"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="H34" s="53" t="s">
+      <c r="H34" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="I34" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="J34" s="53" t="s">
+      <c r="I34" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="J34" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="K34" s="53" t="s">
+      <c r="K34" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="L34" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="M34" s="53" t="s">
+      <c r="L34" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="M34" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="N34" s="55"/>
-      <c r="O34" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="P34" s="53"/>
-      <c r="Q34" s="53"/>
-      <c r="R34" s="53"/>
+      <c r="N34" s="54"/>
+      <c r="O34" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="P34" s="52"/>
+      <c r="Q34" s="52"/>
+      <c r="R34" s="52"/>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="52"/>
-      <c r="B35" s="52"/>
-      <c r="C35" s="52"/>
-      <c r="D35" s="53"/>
-      <c r="E35" s="53"/>
-      <c r="F35" s="53"/>
-      <c r="G35" s="53" t="s">
+      <c r="A35" s="51"/>
+      <c r="B35" s="51"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="H35" s="53" t="s">
+      <c r="H35" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="I35" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="J35" s="53" t="s">
+      <c r="I35" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="J35" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="K35" s="53" t="s">
+      <c r="K35" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="L35" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="M35" s="53" t="s">
+      <c r="L35" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="M35" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="N35" s="55"/>
-      <c r="O35" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="P35" s="53"/>
-      <c r="Q35" s="53"/>
-      <c r="R35" s="53"/>
+      <c r="N35" s="54"/>
+      <c r="O35" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="P35" s="52"/>
+      <c r="Q35" s="52"/>
+      <c r="R35" s="52"/>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="52"/>
-      <c r="B36" s="52"/>
-      <c r="C36" s="52"/>
-      <c r="D36" s="53"/>
-      <c r="E36" s="53"/>
-      <c r="F36" s="53"/>
-      <c r="G36" s="53" t="s">
+      <c r="A36" s="51"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="H36" s="53" t="s">
+      <c r="H36" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="I36" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="J36" s="53"/>
-      <c r="K36" s="53"/>
-      <c r="L36" s="54"/>
-      <c r="M36" s="53" t="s">
+      <c r="I36" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="J36" s="52"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="53"/>
+      <c r="M36" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="N36" s="55"/>
-      <c r="O36" s="54"/>
-      <c r="P36" s="53"/>
-      <c r="Q36" s="53"/>
-      <c r="R36" s="53"/>
+      <c r="N36" s="54"/>
+      <c r="O36" s="53"/>
+      <c r="P36" s="52"/>
+      <c r="Q36" s="52"/>
+      <c r="R36" s="52"/>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="52"/>
-      <c r="B37" s="52"/>
-      <c r="C37" s="52" t="s">
+      <c r="A37" s="51"/>
+      <c r="B37" s="51"/>
+      <c r="C37" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="D37" s="57" t="s">
+      <c r="D37" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="E37" s="57" t="s">
+      <c r="E37" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="F37" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="G37" s="63"/>
-      <c r="H37" s="63"/>
-      <c r="I37" s="63"/>
-      <c r="J37" s="57" t="s">
+      <c r="F37" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="G37" s="62"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="62"/>
+      <c r="J37" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="K37" s="57" t="s">
+      <c r="K37" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="L37" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="M37" s="63"/>
-      <c r="N37" s="66"/>
-      <c r="O37" s="63"/>
-      <c r="P37" s="57" t="s">
+      <c r="L37" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="M37" s="62"/>
+      <c r="N37" s="65"/>
+      <c r="O37" s="62"/>
+      <c r="P37" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="Q37" s="57" t="s">
+      <c r="Q37" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="R37" s="58" t="s">
+      <c r="R37" s="57" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="52"/>
-      <c r="B38" s="52"/>
-      <c r="C38" s="52" t="s">
+      <c r="A38" s="51"/>
+      <c r="B38" s="51"/>
+      <c r="C38" s="51" t="s">
         <v>103</v>
       </c>
-      <c r="D38" s="53" t="s">
+      <c r="D38" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="E38" s="53" t="s">
+      <c r="E38" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="F38" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="G38" s="67"/>
-      <c r="H38" s="67"/>
-      <c r="I38" s="68"/>
-      <c r="J38" s="67"/>
-      <c r="K38" s="67"/>
-      <c r="L38" s="67"/>
-      <c r="M38" s="67"/>
-      <c r="N38" s="69"/>
-      <c r="O38" s="68"/>
-      <c r="P38" s="53" t="s">
+      <c r="F38" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="G38" s="66"/>
+      <c r="H38" s="66"/>
+      <c r="I38" s="67"/>
+      <c r="J38" s="66"/>
+      <c r="K38" s="66"/>
+      <c r="L38" s="66"/>
+      <c r="M38" s="66"/>
+      <c r="N38" s="68"/>
+      <c r="O38" s="67"/>
+      <c r="P38" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="Q38" s="53" t="s">
+      <c r="Q38" s="52" t="s">
         <v>87</v>
       </c>
-      <c r="R38" s="54" t="s">
+      <c r="R38" s="53" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="52"/>
-      <c r="B39" s="52" t="s">
+      <c r="A39" s="51"/>
+      <c r="B39" s="51" t="s">
         <v>106</v>
       </c>
-      <c r="C39" s="60" t="s">
+      <c r="C39" s="59" t="s">
         <v>106</v>
       </c>
-      <c r="D39" s="62" t="s">
+      <c r="D39" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="E39" s="57" t="s">
+      <c r="E39" s="56" t="s">
         <v>79</v>
       </c>
-      <c r="F39" s="58" t="s">
-        <v>80</v>
-      </c>
-      <c r="G39" s="63"/>
-      <c r="H39" s="63"/>
-      <c r="I39" s="63"/>
-      <c r="J39" s="63"/>
-      <c r="K39" s="63"/>
-      <c r="L39" s="63"/>
-      <c r="M39" s="63"/>
-      <c r="N39" s="66"/>
-      <c r="O39" s="63"/>
-      <c r="P39" s="62" t="s">
+      <c r="F39" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="G39" s="62"/>
+      <c r="H39" s="62"/>
+      <c r="I39" s="62"/>
+      <c r="J39" s="62"/>
+      <c r="K39" s="62"/>
+      <c r="L39" s="62"/>
+      <c r="M39" s="62"/>
+      <c r="N39" s="65"/>
+      <c r="O39" s="62"/>
+      <c r="P39" s="61" t="s">
         <v>107</v>
       </c>
-      <c r="Q39" s="57" t="s">
+      <c r="Q39" s="56" t="s">
         <v>108</v>
       </c>
-      <c r="R39" s="54" t="s">
+      <c r="R39" s="53" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="52"/>
-      <c r="B40" s="52" t="s">
+      <c r="A40" s="51"/>
+      <c r="B40" s="51" t="s">
         <v>112</v>
       </c>
-      <c r="C40" s="60" t="s">
+      <c r="C40" s="59" t="s">
         <v>113</v>
       </c>
-      <c r="D40" s="61" t="s">
+      <c r="D40" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="E40" s="53" t="s">
+      <c r="E40" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="F40" s="54" t="s">
-        <v>80</v>
-      </c>
-      <c r="G40" s="67"/>
-      <c r="H40" s="67"/>
-      <c r="I40" s="68"/>
-      <c r="J40" s="67"/>
-      <c r="K40" s="67"/>
-      <c r="L40" s="68"/>
-      <c r="M40" s="67"/>
-      <c r="N40" s="67"/>
-      <c r="O40" s="68"/>
-      <c r="P40" s="61" t="s">
+      <c r="F40" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="G40" s="66"/>
+      <c r="H40" s="66"/>
+      <c r="I40" s="67"/>
+      <c r="J40" s="66"/>
+      <c r="K40" s="66"/>
+      <c r="L40" s="67"/>
+      <c r="M40" s="66"/>
+      <c r="N40" s="66"/>
+      <c r="O40" s="67"/>
+      <c r="P40" s="60" t="s">
         <v>114</v>
       </c>
-      <c r="Q40" s="53" t="s">
+      <c r="Q40" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="R40" s="54" t="s">
+      <c r="R40" s="53" t="s">
         <v>80</v>
       </c>
     </row>
@@ -5906,596 +5901,596 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="28" width="11.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="28" width="12.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="28" width="12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="10" style="28" width="9.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="28" width="23.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="28" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="70" width="17.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="70" width="10.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="17" style="28" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="27" width="11.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="2" style="27" width="12.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="27" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="10" style="27" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="27" width="23.72"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="27" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="69" width="17.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="16" min="16" style="69" width="10.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="17" style="27" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="70" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="71" t="s">
         <v>136</v>
       </c>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="73"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="72"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B3" s="72" t="s">
+      <c r="B3" s="71" t="s">
         <v>137</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="72"/>
-      <c r="H3" s="72"/>
-      <c r="I3" s="73"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="72"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="72"/>
+      <c r="B4" s="71"/>
+      <c r="C4" s="71"/>
+      <c r="D4" s="71"/>
+      <c r="E4" s="71"/>
+      <c r="F4" s="71"/>
+      <c r="G4" s="71"/>
+      <c r="H4" s="71"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="74" t="s">
+      <c r="A5" s="73" t="s">
         <v>138</v>
       </c>
-      <c r="B5" s="75"/>
-      <c r="C5" s="75"/>
-      <c r="D5" s="75"/>
-      <c r="E5" s="75"/>
-      <c r="F5" s="75"/>
-      <c r="G5" s="75"/>
-      <c r="H5" s="75"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74"/>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="74"/>
     </row>
     <row r="6" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="76" t="s">
+      <c r="A6" s="75" t="s">
         <v>139</v>
       </c>
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="75" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="76" t="s">
+      <c r="C6" s="75" t="s">
         <v>86</v>
       </c>
-      <c r="D6" s="76" t="s">
+      <c r="D6" s="75" t="s">
         <v>89</v>
       </c>
-      <c r="E6" s="76" t="s">
+      <c r="E6" s="75" t="s">
         <v>91</v>
       </c>
-      <c r="F6" s="76" t="s">
+      <c r="F6" s="75" t="s">
         <v>92</v>
       </c>
-      <c r="G6" s="76" t="s">
+      <c r="G6" s="75" t="s">
         <v>93</v>
       </c>
-      <c r="H6" s="76" t="s">
+      <c r="H6" s="75" t="s">
         <v>94</v>
       </c>
-      <c r="I6" s="76" t="s">
+      <c r="I6" s="75" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="77" t="n">
+      <c r="A7" s="76" t="n">
         <v>8</v>
       </c>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="77" t="s">
         <v>140</v>
       </c>
-      <c r="C7" s="78" t="s">
+      <c r="C7" s="77" t="s">
         <v>141</v>
       </c>
-      <c r="D7" s="79" t="s">
+      <c r="D7" s="78" t="s">
         <v>142</v>
       </c>
-      <c r="E7" s="79" t="s">
+      <c r="E7" s="78" t="s">
         <v>143</v>
       </c>
-      <c r="F7" s="79" t="s">
+      <c r="F7" s="78" t="s">
         <v>144</v>
       </c>
-      <c r="G7" s="79" t="s">
+      <c r="G7" s="78" t="s">
         <v>145</v>
       </c>
-      <c r="H7" s="79" t="s">
+      <c r="H7" s="78" t="s">
         <v>146</v>
       </c>
-      <c r="I7" s="79" t="s">
+      <c r="I7" s="78" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="77" t="n">
+      <c r="A8" s="76" t="n">
         <v>9</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="77" t="s">
         <v>140</v>
       </c>
-      <c r="C8" s="78" t="s">
+      <c r="C8" s="77" t="s">
         <v>141</v>
       </c>
-      <c r="D8" s="79" t="s">
+      <c r="D8" s="78" t="s">
         <v>142</v>
       </c>
-      <c r="E8" s="79" t="s">
+      <c r="E8" s="78" t="s">
         <v>143</v>
       </c>
-      <c r="F8" s="79" t="s">
+      <c r="F8" s="78" t="s">
         <v>144</v>
       </c>
-      <c r="G8" s="79" t="s">
+      <c r="G8" s="78" t="s">
         <v>145</v>
       </c>
-      <c r="H8" s="79" t="s">
+      <c r="H8" s="78" t="s">
         <v>146</v>
       </c>
-      <c r="I8" s="79" t="s">
+      <c r="I8" s="78" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="77" t="n">
+      <c r="A9" s="76" t="n">
         <v>10</v>
       </c>
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="77" t="s">
         <v>140</v>
       </c>
-      <c r="C9" s="78" t="s">
+      <c r="C9" s="77" t="s">
         <v>141</v>
       </c>
-      <c r="D9" s="79" t="s">
+      <c r="D9" s="78" t="s">
         <v>142</v>
       </c>
-      <c r="E9" s="79" t="s">
+      <c r="E9" s="78" t="s">
         <v>143</v>
       </c>
-      <c r="F9" s="79" t="s">
+      <c r="F9" s="78" t="s">
         <v>144</v>
       </c>
-      <c r="G9" s="79" t="s">
+      <c r="G9" s="78" t="s">
         <v>145</v>
       </c>
-      <c r="H9" s="79" t="s">
+      <c r="H9" s="78" t="s">
         <v>146</v>
       </c>
-      <c r="I9" s="79" t="s">
+      <c r="I9" s="78" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="77" t="n">
+      <c r="A10" s="76" t="n">
         <v>11</v>
       </c>
-      <c r="B10" s="78" t="s">
+      <c r="B10" s="77" t="s">
         <v>140</v>
       </c>
-      <c r="C10" s="78" t="s">
+      <c r="C10" s="77" t="s">
         <v>141</v>
       </c>
-      <c r="D10" s="79" t="s">
+      <c r="D10" s="78" t="s">
         <v>142</v>
       </c>
-      <c r="E10" s="79" t="s">
+      <c r="E10" s="78" t="s">
         <v>143</v>
       </c>
-      <c r="F10" s="79" t="s">
+      <c r="F10" s="78" t="s">
         <v>144</v>
       </c>
-      <c r="G10" s="79" t="s">
+      <c r="G10" s="78" t="s">
         <v>145</v>
       </c>
-      <c r="H10" s="79" t="s">
+      <c r="H10" s="78" t="s">
         <v>146</v>
       </c>
-      <c r="I10" s="79" t="s">
+      <c r="I10" s="78" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="77" t="n">
+      <c r="A11" s="76" t="n">
         <v>12</v>
       </c>
-      <c r="B11" s="78" t="s">
+      <c r="B11" s="77" t="s">
         <v>140</v>
       </c>
-      <c r="C11" s="78" t="s">
+      <c r="C11" s="77" t="s">
         <v>141</v>
       </c>
-      <c r="D11" s="79" t="s">
+      <c r="D11" s="78" t="s">
         <v>142</v>
       </c>
-      <c r="E11" s="79" t="s">
+      <c r="E11" s="78" t="s">
         <v>143</v>
       </c>
-      <c r="F11" s="79" t="s">
+      <c r="F11" s="78" t="s">
         <v>144</v>
       </c>
-      <c r="G11" s="79" t="s">
+      <c r="G11" s="78" t="s">
         <v>145</v>
       </c>
-      <c r="H11" s="79" t="s">
+      <c r="H11" s="78" t="s">
         <v>146</v>
       </c>
-      <c r="I11" s="79" t="s">
+      <c r="I11" s="78" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="76" t="s">
+      <c r="A13" s="75" t="s">
         <v>139</v>
       </c>
-      <c r="B13" s="76" t="s">
+      <c r="B13" s="75" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="76" t="s">
+      <c r="C13" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="D13" s="76" t="s">
+      <c r="D13" s="75" t="s">
         <v>100</v>
       </c>
-      <c r="E13" s="76" t="s">
+      <c r="E13" s="75" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="77" t="n">
+      <c r="A14" s="76" t="n">
         <v>8</v>
       </c>
-      <c r="B14" s="78" t="s">
+      <c r="B14" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="C14" s="78" t="s">
+      <c r="C14" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="D14" s="78" t="s">
+      <c r="D14" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="E14" s="78" t="s">
+      <c r="E14" s="77" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="77" t="n">
+      <c r="A15" s="76" t="n">
         <v>9</v>
       </c>
-      <c r="B15" s="78" t="s">
+      <c r="B15" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="C15" s="78" t="s">
+      <c r="C15" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="D15" s="78" t="s">
+      <c r="D15" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="E15" s="78" t="s">
+      <c r="E15" s="77" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="77" t="n">
+      <c r="A16" s="76" t="n">
         <v>10</v>
       </c>
-      <c r="B16" s="78" t="s">
+      <c r="B16" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="C16" s="78" t="s">
+      <c r="C16" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="D16" s="78" t="s">
+      <c r="D16" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="E16" s="78" t="s">
+      <c r="E16" s="77" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="77" t="n">
+      <c r="A17" s="76" t="n">
         <v>11</v>
       </c>
-      <c r="B17" s="78" t="s">
+      <c r="B17" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="C17" s="78" t="s">
+      <c r="C17" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="D17" s="78" t="s">
+      <c r="D17" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="E17" s="78" t="s">
+      <c r="E17" s="77" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="77" t="n">
+      <c r="A18" s="76" t="n">
         <v>12</v>
       </c>
-      <c r="B18" s="78" t="s">
+      <c r="B18" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="C18" s="78" t="s">
+      <c r="C18" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="D18" s="78" t="s">
+      <c r="D18" s="77" t="s">
         <v>147</v>
       </c>
-      <c r="E18" s="78" t="s">
+      <c r="E18" s="77" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="74" t="s">
+      <c r="A20" s="73" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="76" t="s">
+      <c r="A21" s="75" t="s">
         <v>139</v>
       </c>
-      <c r="B21" s="76" t="s">
+      <c r="B21" s="75" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="76" t="s">
+      <c r="C21" s="75" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="77" t="n">
+      <c r="A22" s="76" t="n">
         <v>8</v>
       </c>
-      <c r="B22" s="78" t="s">
+      <c r="B22" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="C22" s="78" t="s">
+      <c r="C22" s="77" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="77" t="n">
+      <c r="A23" s="76" t="n">
         <v>9</v>
       </c>
-      <c r="B23" s="78" t="s">
+      <c r="B23" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="C23" s="78" t="s">
+      <c r="C23" s="77" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="77" t="n">
+      <c r="A24" s="76" t="n">
         <v>10</v>
       </c>
-      <c r="B24" s="78" t="s">
+      <c r="B24" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="C24" s="78" t="s">
+      <c r="C24" s="77" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="77" t="n">
+      <c r="A25" s="76" t="n">
         <v>11</v>
       </c>
-      <c r="B25" s="78" t="s">
+      <c r="B25" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="C25" s="78" t="s">
+      <c r="C25" s="77" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="77" t="n">
+      <c r="A26" s="76" t="n">
         <v>12</v>
       </c>
-      <c r="B26" s="78" t="s">
+      <c r="B26" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="C26" s="78" t="s">
+      <c r="C26" s="77" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="74" t="s">
+      <c r="A28" s="73" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="76" t="s">
+      <c r="A29" s="75" t="s">
         <v>139</v>
       </c>
-      <c r="B29" s="76" t="s">
+      <c r="B29" s="75" t="s">
         <v>150</v>
       </c>
-      <c r="C29" s="76" t="s">
+      <c r="C29" s="75" t="s">
         <v>109</v>
       </c>
-      <c r="D29" s="76" t="s">
+      <c r="D29" s="75" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="77" t="n">
+      <c r="A30" s="76" t="n">
         <v>8</v>
       </c>
-      <c r="B30" s="78" t="s">
+      <c r="B30" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="C30" s="78" t="s">
+      <c r="C30" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="D30" s="78" t="s">
+      <c r="D30" s="77" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="77" t="n">
+      <c r="A31" s="76" t="n">
         <v>9</v>
       </c>
-      <c r="B31" s="78" t="s">
+      <c r="B31" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="C31" s="78" t="s">
+      <c r="C31" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="D31" s="78" t="s">
+      <c r="D31" s="77" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="77" t="n">
+      <c r="A32" s="76" t="n">
         <v>10</v>
       </c>
-      <c r="B32" s="78" t="s">
+      <c r="B32" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="C32" s="78" t="s">
+      <c r="C32" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="D32" s="78" t="s">
+      <c r="D32" s="77" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="77" t="n">
+      <c r="A33" s="76" t="n">
         <v>11</v>
       </c>
-      <c r="B33" s="78" t="s">
+      <c r="B33" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="C33" s="78" t="s">
+      <c r="C33" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="D33" s="78" t="s">
+      <c r="D33" s="77" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="77" t="n">
+      <c r="A34" s="76" t="n">
         <v>12</v>
       </c>
-      <c r="B34" s="78" t="s">
+      <c r="B34" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="C34" s="78" t="s">
+      <c r="C34" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="D34" s="78" t="s">
+      <c r="D34" s="77" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="74" t="s">
+      <c r="A36" s="73" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="76" t="s">
+      <c r="A37" s="75" t="s">
         <v>139</v>
       </c>
-      <c r="B37" s="76" t="s">
+      <c r="B37" s="75" t="s">
         <v>152</v>
       </c>
-      <c r="C37" s="76" t="s">
+      <c r="C37" s="75" t="s">
         <v>153</v>
       </c>
-      <c r="D37" s="76" t="s">
+      <c r="D37" s="75" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="77" t="n">
+      <c r="A38" s="76" t="n">
         <v>8</v>
       </c>
-      <c r="B38" s="78" t="s">
+      <c r="B38" s="77" t="s">
         <v>140</v>
       </c>
-      <c r="C38" s="78" t="s">
+      <c r="C38" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="D38" s="78" t="s">
+      <c r="D38" s="77" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="77" t="n">
+      <c r="A39" s="76" t="n">
         <v>9</v>
       </c>
-      <c r="B39" s="78" t="s">
+      <c r="B39" s="77" t="s">
         <v>140</v>
       </c>
-      <c r="C39" s="78" t="s">
+      <c r="C39" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="D39" s="78" t="s">
+      <c r="D39" s="77" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="77" t="n">
+      <c r="A40" s="76" t="n">
         <v>10</v>
       </c>
-      <c r="B40" s="78" t="s">
+      <c r="B40" s="77" t="s">
         <v>140</v>
       </c>
-      <c r="C40" s="78" t="s">
+      <c r="C40" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="D40" s="78" t="s">
+      <c r="D40" s="77" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="77" t="n">
+      <c r="A41" s="76" t="n">
         <v>11</v>
       </c>
-      <c r="B41" s="78" t="s">
+      <c r="B41" s="77" t="s">
         <v>140</v>
       </c>
-      <c r="C41" s="78" t="s">
+      <c r="C41" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="D41" s="78" t="s">
+      <c r="D41" s="77" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="77" t="n">
+      <c r="A42" s="76" t="n">
         <v>12</v>
       </c>
-      <c r="B42" s="78" t="s">
+      <c r="B42" s="77" t="s">
         <v>140</v>
       </c>
-      <c r="C42" s="78" t="s">
+      <c r="C42" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="D42" s="78" t="s">
+      <c r="D42" s="77" t="s">
         <v>143</v>
       </c>
     </row>
@@ -6633,18 +6628,18 @@
       <c r="E2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F2" s="80" t="s">
+      <c r="F2" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="81" t="s">
+      <c r="G2" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="80"/>
-      <c r="I2" s="80"/>
-      <c r="J2" s="80"/>
-      <c r="K2" s="80"/>
-      <c r="L2" s="80"/>
-      <c r="M2" s="80"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="79"/>
+      <c r="K2" s="79"/>
+      <c r="L2" s="79"/>
+      <c r="M2" s="79"/>
       <c r="N2" s="4" t="n">
         <v>1</v>
       </c>
@@ -6742,22 +6737,22 @@
       <c r="E4" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="F4" s="82" t="s">
+      <c r="F4" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="82" t="n">
+      <c r="G4" s="81" t="n">
         <v>4210201185482</v>
       </c>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="82"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
       <c r="N4" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="O4" s="83" t="n">
+      <c r="O4" s="82" t="n">
         <v>1</v>
       </c>
       <c r="P4" s="4" t="s">
@@ -6792,22 +6787,22 @@
       <c r="E5" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="F5" s="82" t="s">
+      <c r="F5" s="81" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="81" t="s">
+      <c r="G5" s="80" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="81"/>
+      <c r="K5" s="81"/>
+      <c r="L5" s="81"/>
+      <c r="M5" s="81"/>
       <c r="N5" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="O5" s="83" t="n">
+      <c r="O5" s="82" t="n">
         <v>0.5</v>
       </c>
       <c r="P5" s="4" t="s">
@@ -6842,22 +6837,22 @@
       <c r="E6" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="82" t="s">
+      <c r="F6" s="81" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="82" t="s">
+      <c r="G6" s="81" t="s">
         <v>172</v>
       </c>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="82"/>
-      <c r="K6" s="82"/>
-      <c r="L6" s="82"/>
-      <c r="M6" s="82"/>
+      <c r="H6" s="81"/>
+      <c r="I6" s="81"/>
+      <c r="J6" s="81"/>
+      <c r="K6" s="81"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
       <c r="N6" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="O6" s="83" t="n">
+      <c r="O6" s="82" t="n">
         <v>0.8</v>
       </c>
       <c r="P6" s="4" t="s">
@@ -7069,7 +7064,7 @@
       <c r="N10" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="O10" s="83" t="n">
+      <c r="O10" s="82" t="n">
         <v>1</v>
       </c>
       <c r="P10" s="4" t="s">
@@ -7119,7 +7114,7 @@
       <c r="N11" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="O11" s="83" t="n">
+      <c r="O11" s="82" t="n">
         <v>0.5</v>
       </c>
       <c r="P11" s="4" t="s">
@@ -7139,37 +7134,37 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="84" t="s">
+      <c r="A12" s="83" t="s">
         <v>161</v>
       </c>
-      <c r="B12" s="85" t="s">
+      <c r="B12" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="C12" s="86" t="s">
+      <c r="C12" s="85" t="s">
         <v>178</v>
       </c>
-      <c r="D12" s="85" t="s">
+      <c r="D12" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="87" t="s">
+      <c r="E12" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="85" t="s">
+      <c r="F12" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="G12" s="88" t="s">
+      <c r="G12" s="87" t="s">
         <v>55</v>
       </c>
-      <c r="H12" s="85"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="85"/>
-      <c r="K12" s="85"/>
-      <c r="L12" s="85"/>
-      <c r="M12" s="85"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="84"/>
+      <c r="M12" s="84"/>
       <c r="N12" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="O12" s="83" t="n">
+      <c r="O12" s="82" t="n">
         <v>0.5</v>
       </c>
       <c r="P12" s="4" t="s">
@@ -7189,37 +7184,37 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="84" t="s">
+      <c r="A13" s="83" t="s">
         <v>161</v>
       </c>
-      <c r="B13" s="85" t="s">
+      <c r="B13" s="84" t="s">
         <v>52</v>
       </c>
-      <c r="C13" s="86" t="s">
+      <c r="C13" s="85" t="s">
         <v>179</v>
       </c>
-      <c r="D13" s="85" t="s">
+      <c r="D13" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="87" t="s">
+      <c r="E13" s="86" t="s">
         <v>54</v>
       </c>
-      <c r="F13" s="85" t="s">
+      <c r="F13" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="88" t="s">
+      <c r="G13" s="87" t="s">
         <v>57</v>
       </c>
-      <c r="H13" s="85"/>
-      <c r="I13" s="85"/>
-      <c r="J13" s="85"/>
-      <c r="K13" s="85"/>
-      <c r="L13" s="85"/>
-      <c r="M13" s="85"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="84"/>
+      <c r="M13" s="84"/>
       <c r="N13" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="O13" s="83" t="n">
+      <c r="O13" s="82" t="n">
         <v>0.5</v>
       </c>
       <c r="P13" s="4" t="s">
@@ -7239,13 +7234,13 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="84" t="s">
+      <c r="A14" s="83" t="s">
         <v>161</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="86" t="s">
+      <c r="C14" s="85" t="s">
         <v>180</v>
       </c>
       <c r="D14" s="21" t="s">
@@ -7263,7 +7258,7 @@
       <c r="N14" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="O14" s="83" t="n">
+      <c r="O14" s="82" t="n">
         <v>0.5</v>
       </c>
       <c r="P14" s="4" t="s">
@@ -7285,7 +7280,7 @@
     <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:V13"/>
+  <autoFilter ref="A1:V6"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
